--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -110,17 +110,17 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11614866259695066"/>
-          <c:y val="3.8849611883620933E-2"/>
-          <c:w val="0.8632520864667198"/>
-          <c:h val="0.76125512679709373"/>
+          <c:x val="0.1181581109084841"/>
+          <c:y val="3.9790280452231604E-2"/>
+          <c:w val="0.86275709317109939"/>
+          <c:h val="0.69249750560840917"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -136,7 +136,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -206,49 +206,49 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.45132743362831801</c:v>
+                  <c:v>0.54867256637168105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40707964601769903</c:v>
+                  <c:v>0.50442477876106195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37168141592920301</c:v>
+                  <c:v>0.42477876106194601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36283185840707899</c:v>
+                  <c:v>0.35398230088495503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33628318584070799</c:v>
+                  <c:v>0.28318584070796399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30088495575221202</c:v>
+                  <c:v>0.238938053097345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29203539823008801</c:v>
+                  <c:v>0.212389380530973</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29203539823008801</c:v>
+                  <c:v>0.17699115044247701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28318584070796399</c:v>
+                  <c:v>0.15044247787610601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28318584070796399</c:v>
+                  <c:v>0.123893805309734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28318584070796399</c:v>
+                  <c:v>7.9646017699115002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27433628318584002</c:v>
+                  <c:v>7.9646017699115002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27433628318584002</c:v>
+                  <c:v>7.9646017699115002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.27433628318584002</c:v>
+                  <c:v>6.19469026548672E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27433628318584002</c:v>
+                  <c:v>5.30973451327433E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,7 +256,94 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-874E-4364-8993-23F26E7F6BE1}"/>
+              <c16:uniqueId val="{00000000-9C73-41A6-A66E-A3F4E977E159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent of transit systems with positive response from convergent point</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.7699115044247701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7699115044247701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8495575221238902E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C73-41A6-A66E-A3F4E977E159}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -269,11 +356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1337871903"/>
-        <c:axId val="1337877311"/>
+        <c:axId val="1228624735"/>
+        <c:axId val="1228640127"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1337871903"/>
+        <c:axId val="1228624735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -300,13 +387,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Temporal lag from incubation</a:t>
+                  <a:t>Incubation Lag</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> period</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -314,8 +396,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.33803046388864311"/>
-              <c:y val="0.90665524965407696"/>
+              <c:x val="0.4357001531291893"/>
+              <c:y val="0.80901666952647866"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -384,7 +466,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1337877311"/>
+        <c:crossAx val="1228640127"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -392,10 +474,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1337877311"/>
+        <c:axId val="1228640127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.2"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -433,14 +516,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Ratio</a:t>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Ratio of systems with positive reposne interval </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of cities with positive reposne interval </a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -448,8 +531,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4981273408239701E-2"/>
-              <c:y val="9.3779589608036604E-2"/>
+              <c:x val="2.0819777367727131E-2"/>
+              <c:y val="9.7901660597510057E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -512,7 +595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1337871903"/>
+        <c:crossAx val="1228624735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -524,6 +607,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0253188438247575E-2"/>
+          <c:y val="0.8749558000165234"/>
+          <c:w val="0.81030531292090424"/>
+          <c:h val="0.12366081358474258"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1121,20 +1245,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1415,15 +1539,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
-        <v>0.45132743362831801</v>
+        <v>0.54867256637168105</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>0.98230088495575196</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.7699115044247701E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,19 +1593,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
-        <v>0.40707964601769903</v>
+        <v>0.50442477876106195</v>
       </c>
       <c r="D3">
         <v>113</v>
       </c>
       <c r="E3">
-        <v>110</v>
-      </c>
-      <c r="F3">
-        <v>0.97345132743362806</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.7699115044247701E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,19 +1613,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
-        <v>0.37168141592920301</v>
+        <v>0.42477876106194601</v>
       </c>
       <c r="D4">
         <v>113</v>
       </c>
       <c r="E4">
-        <v>109</v>
-      </c>
-      <c r="F4">
-        <v>0.96460176991150404</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8.8495575221238902E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,19 +1633,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>0.36283185840707899</v>
+        <v>0.35398230088495503</v>
       </c>
       <c r="D5">
         <v>113</v>
       </c>
       <c r="E5">
-        <v>109</v>
-      </c>
-      <c r="F5">
-        <v>0.96460176991150404</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,19 +1653,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>0.33628318584070799</v>
+        <v>0.28318584070796399</v>
       </c>
       <c r="D6">
         <v>113</v>
       </c>
       <c r="E6">
-        <v>108</v>
-      </c>
-      <c r="F6">
-        <v>0.95575221238938002</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,19 +1673,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
-        <v>0.30088495575221202</v>
+        <v>0.238938053097345</v>
       </c>
       <c r="D7">
         <v>113</v>
       </c>
       <c r="E7">
-        <v>108</v>
-      </c>
-      <c r="F7">
-        <v>0.95575221238938002</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,19 +1693,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
-        <v>0.29203539823008801</v>
+        <v>0.212389380530973</v>
       </c>
       <c r="D8">
         <v>113</v>
       </c>
       <c r="E8">
-        <v>107</v>
-      </c>
-      <c r="F8">
-        <v>0.946902654867256</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,19 +1713,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
-        <v>0.29203539823008801</v>
+        <v>0.17699115044247701</v>
       </c>
       <c r="D9">
         <v>113</v>
       </c>
       <c r="E9">
-        <v>105</v>
-      </c>
-      <c r="F9">
-        <v>0.92920353982300796</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,19 +1733,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0.28318584070796399</v>
+        <v>0.15044247787610601</v>
       </c>
       <c r="D10">
         <v>113</v>
       </c>
       <c r="E10">
-        <v>104</v>
-      </c>
-      <c r="F10">
-        <v>0.92035398230088405</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,19 +1753,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>0.28318584070796399</v>
+        <v>0.123893805309734</v>
       </c>
       <c r="D11">
         <v>113</v>
       </c>
       <c r="E11">
-        <v>98</v>
-      </c>
-      <c r="F11">
-        <v>0.86725663716814105</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,19 +1773,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>0.28318584070796399</v>
+        <v>7.9646017699115002E-2</v>
       </c>
       <c r="D12">
         <v>113</v>
       </c>
       <c r="E12">
-        <v>97</v>
-      </c>
-      <c r="F12">
-        <v>0.85840707964601703</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,19 +1793,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>0.27433628318584002</v>
+        <v>7.9646017699115002E-2</v>
       </c>
       <c r="D13">
         <v>113</v>
       </c>
       <c r="E13">
-        <v>91</v>
-      </c>
-      <c r="F13">
-        <v>0.80530973451327403</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,19 +1813,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>0.27433628318584002</v>
+        <v>7.9646017699115002E-2</v>
       </c>
       <c r="D14">
         <v>113</v>
       </c>
       <c r="E14">
-        <v>87</v>
-      </c>
-      <c r="F14">
-        <v>0.76991150442477796</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,19 +1833,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>0.27433628318584002</v>
+        <v>6.19469026548672E-2</v>
       </c>
       <c r="D15">
         <v>113</v>
       </c>
       <c r="E15">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <v>0.69911504424778703</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,19 +1853,139 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>0.27433628318584002</v>
+        <v>5.30973451327433E-2</v>
       </c>
       <c r="D16">
         <v>113</v>
       </c>
       <c r="E16">
-        <v>74</v>
-      </c>
-      <c r="F16">
-        <v>0.65486725663716805</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t># transit systems with positive response from divergent point</t>
   </si>
@@ -34,6 +35,351 @@
   </si>
   <si>
     <t>percent of transit systems with positive response from convergent point</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ART </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beach Cities Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bee-Line </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big Blue Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brockton Area Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broward County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capital Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capitol Corridor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CDTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City of Seattle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Community Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> County Connection </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C-TRAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTTransit Hartford </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTTransit New Britain </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTTransit New Haven </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CTTransit Stamford </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Culver CityBus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DART </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DC Circulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DDOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fairfax Connector </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foothill Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GCRTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Glendale Beeline </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greater Dayton RTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greater Portland Metro Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GTrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hartford Line </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HRT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KCATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> King County Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA DOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA Metro - Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA Metro - Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Las Vegas Monorail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long Beach Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Long Island Rail Road </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lynx </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madison Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MBTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MCTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> METRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SORTA - Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metro Transit St Louis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metro Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metrolink </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Miami-Dade Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monterey-Salinas Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montgomery County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MDOT MTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA &amp; RTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - Bronx Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - Brooklyn Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - Manhattan Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - NYC Bus Company </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - NYC Subway </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - Queens Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTA - Staten Island Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MUNI - SFMTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NCTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NFTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NICE Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NY Waterway </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OCTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Omnitrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pace Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palm Tran </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pasadena Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PATH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pierce Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PresidiGo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIPTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Riverside Transit Agency </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTC Southern Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SamTrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santa Clarita Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Santa Cruz Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEPTA - Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SEPTA - Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shore Line East </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SMART </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sound Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suffolk County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TARC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Rapid </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Ride </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TheBus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torrance Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TriMet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tri-Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U-M Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of California Berkeley - Bear Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valley Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Via Mobility Services - Boulder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Hollywood - WeHo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WMATA </t>
+  </si>
+  <si>
+    <t>Population that can work from home</t>
+  </si>
+  <si>
+    <t>Total working population</t>
   </si>
 </sst>
 </file>
@@ -124,7 +470,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>incubation_lag!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -147,7 +493,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>incubation_lag!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -201,7 +547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>incubation_lag!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -265,7 +611,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>incubation_lag!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -288,7 +634,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:f>incubation_lag!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1541,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1993,4 +2339,1270 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>502525</v>
+      </c>
+      <c r="C2">
+        <v>847170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2390559</v>
+      </c>
+      <c r="C3">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2390559</v>
+      </c>
+      <c r="C4">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>276626</v>
+      </c>
+      <c r="C5">
+        <v>479775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2390559</v>
+      </c>
+      <c r="C6">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>247070</v>
+      </c>
+      <c r="C7">
+        <v>429529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>587519</v>
+      </c>
+      <c r="C8">
+        <v>1301540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6159</v>
+      </c>
+      <c r="C9">
+        <v>13801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>356357</v>
+      </c>
+      <c r="C10">
+        <v>686019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>104549</v>
+      </c>
+      <c r="C11">
+        <v>200094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>94840</v>
+      </c>
+      <c r="C12">
+        <v>159756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>723559</v>
+      </c>
+      <c r="C13">
+        <v>1176560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>723559</v>
+      </c>
+      <c r="C14">
+        <v>1176560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>372845</v>
+      </c>
+      <c r="C15">
+        <v>665824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>300402</v>
+      </c>
+      <c r="C16">
+        <v>547323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1318752</v>
+      </c>
+      <c r="C17">
+        <v>2548996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>108122</v>
+      </c>
+      <c r="C18">
+        <v>221205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>249021</v>
+      </c>
+      <c r="C19">
+        <v>447893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>249021</v>
+      </c>
+      <c r="C20">
+        <v>447893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>230791</v>
+      </c>
+      <c r="C21">
+        <v>427791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>263716</v>
+      </c>
+      <c r="C22">
+        <v>475513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2390559</v>
+      </c>
+      <c r="C23">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>595486</v>
+      </c>
+      <c r="C24">
+        <v>1282839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>265583</v>
+      </c>
+      <c r="C25">
+        <v>369194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>327635</v>
+      </c>
+      <c r="C26">
+        <v>734480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>265583</v>
+      </c>
+      <c r="C27">
+        <v>369194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2390559</v>
+      </c>
+      <c r="C28">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>310807</v>
+      </c>
+      <c r="C29">
+        <v>591135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2390559</v>
+      </c>
+      <c r="C30">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>119457</v>
+      </c>
+      <c r="C31">
+        <v>243624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>243825</v>
+      </c>
+      <c r="C32">
+        <v>430606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2390559</v>
+      </c>
+      <c r="C33">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>249021</v>
+      </c>
+      <c r="C34">
+        <v>447893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>29738</v>
+      </c>
+      <c r="C35">
+        <v>61974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>173068</v>
+      </c>
+      <c r="C36">
+        <v>343721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>723559</v>
+      </c>
+      <c r="C37">
+        <v>1176560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>2390559</v>
+      </c>
+      <c r="C38">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>2390559</v>
+      </c>
+      <c r="C39">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2390559</v>
+      </c>
+      <c r="C40">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>403489</v>
+      </c>
+      <c r="C41">
+        <v>1003320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2390559</v>
+      </c>
+      <c r="C42">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>387407</v>
+      </c>
+      <c r="C43">
+        <v>744693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>327690</v>
+      </c>
+      <c r="C44">
+        <v>661930</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>186620</v>
+      </c>
+      <c r="C45">
+        <v>302391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>313103</v>
+      </c>
+      <c r="C46">
+        <v>516732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>247070</v>
+      </c>
+      <c r="C47">
+        <v>429529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>223806</v>
+      </c>
+      <c r="C48">
+        <v>458805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1318752</v>
+      </c>
+      <c r="C49">
+        <v>2548996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>1032171</v>
+      </c>
+      <c r="C50">
+        <v>2223265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>216495</v>
+      </c>
+      <c r="C51">
+        <v>402685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>286663</v>
+      </c>
+      <c r="C52">
+        <v>497435</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>158670</v>
+      </c>
+      <c r="C53">
+        <v>281029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>838954</v>
+      </c>
+      <c r="C54">
+        <v>1578079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>587519</v>
+      </c>
+      <c r="C55">
+        <v>1301540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>70160</v>
+      </c>
+      <c r="C56">
+        <v>185025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>265583</v>
+      </c>
+      <c r="C57">
+        <v>369194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>237008</v>
+      </c>
+      <c r="C58">
+        <v>419089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>200015</v>
+      </c>
+      <c r="C59">
+        <v>373294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>225866</v>
+      </c>
+      <c r="C60">
+        <v>595657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>647119</v>
+      </c>
+      <c r="C61">
+        <v>1217624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>618604</v>
+      </c>
+      <c r="C62">
+        <v>897040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>618604</v>
+      </c>
+      <c r="C63">
+        <v>897040</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>618604</v>
+      </c>
+      <c r="C64">
+        <v>897040</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>523680</v>
+      </c>
+      <c r="C65">
+        <v>1131527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>113098</v>
+      </c>
+      <c r="C66">
+        <v>211293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>822573</v>
+      </c>
+      <c r="C67">
+        <v>1564930</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>333796</v>
+      </c>
+      <c r="C68">
+        <v>515382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>822573</v>
+      </c>
+      <c r="C69">
+        <v>1564930</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>236731</v>
+      </c>
+      <c r="C70">
+        <v>449109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>397194</v>
+      </c>
+      <c r="C71">
+        <v>684098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>618604</v>
+      </c>
+      <c r="C72">
+        <v>897040</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>838954</v>
+      </c>
+      <c r="C73">
+        <v>1578079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>371901</v>
+      </c>
+      <c r="C74">
+        <v>892435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>362410</v>
+      </c>
+      <c r="C75">
+        <v>625294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>1318752</v>
+      </c>
+      <c r="C76">
+        <v>2548996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>587519</v>
+      </c>
+      <c r="C77">
+        <v>1301540</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>2390559</v>
+      </c>
+      <c r="C78">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>346569</v>
+      </c>
+      <c r="C79">
+        <v>688298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>618604</v>
+      </c>
+      <c r="C80">
+        <v>897040</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>723559</v>
+      </c>
+      <c r="C81">
+        <v>1176560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>333796</v>
+      </c>
+      <c r="C82">
+        <v>515382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>346226</v>
+      </c>
+      <c r="C83">
+        <v>665406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>148654</v>
+      </c>
+      <c r="C84">
+        <v>310070</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>415777</v>
+      </c>
+      <c r="C85">
+        <v>1007795</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>403489</v>
+      </c>
+      <c r="C86">
+        <v>1003320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>221241</v>
+      </c>
+      <c r="C87">
+        <v>389034</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>242291</v>
+      </c>
+      <c r="C88">
+        <v>409911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>2390559</v>
+      </c>
+      <c r="C89">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>68700</v>
+      </c>
+      <c r="C90">
+        <v>134904</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>346569</v>
+      </c>
+      <c r="C91">
+        <v>688298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>346569</v>
+      </c>
+      <c r="C92">
+        <v>688298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>230791</v>
+      </c>
+      <c r="C93">
+        <v>427791</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>327635</v>
+      </c>
+      <c r="C94">
+        <v>734480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>723559</v>
+      </c>
+      <c r="C95">
+        <v>1176560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>387407</v>
+      </c>
+      <c r="C96">
+        <v>744693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>216495</v>
+      </c>
+      <c r="C97">
+        <v>402685</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>189728</v>
+      </c>
+      <c r="C98">
+        <v>380718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>31365</v>
+      </c>
+      <c r="C99">
+        <v>50250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>159040</v>
+      </c>
+      <c r="C100">
+        <v>329336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>116991</v>
+      </c>
+      <c r="C101">
+        <v>187609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>229963</v>
+      </c>
+      <c r="C102">
+        <v>470748</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>2390559</v>
+      </c>
+      <c r="C103">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>243825</v>
+      </c>
+      <c r="C104">
+        <v>430606</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>587519</v>
+      </c>
+      <c r="C105">
+        <v>1301540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>116991</v>
+      </c>
+      <c r="C106">
+        <v>187609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>502525</v>
+      </c>
+      <c r="C107">
+        <v>847170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>309207</v>
+      </c>
+      <c r="C108">
+        <v>576623</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>1024872</v>
+      </c>
+      <c r="C109">
+        <v>2004236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>429049</v>
+      </c>
+      <c r="C110">
+        <v>887464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>221241</v>
+      </c>
+      <c r="C111">
+        <v>389034</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>611494</v>
+      </c>
+      <c r="C112">
+        <v>985838</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>2390559</v>
+      </c>
+      <c r="C113">
+        <v>4869658</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>265583</v>
+      </c>
+      <c r="C114">
+        <v>369194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -9,7 +9,14 @@
   <sheets>
     <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$1048569</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$114</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="240">
   <si>
     <t># transit systems with positive response from divergent point</t>
   </si>
@@ -380,6 +387,366 @@
   </si>
   <si>
     <t>Total working population</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>AC Transit</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Beach Cities Transit</t>
+  </si>
+  <si>
+    <t>Bee-Line</t>
+  </si>
+  <si>
+    <t>Big Blue Bus</t>
+  </si>
+  <si>
+    <t>Brockton Area Transit</t>
+  </si>
+  <si>
+    <t>Broward County Transit</t>
+  </si>
+  <si>
+    <t>Capital Metro</t>
+  </si>
+  <si>
+    <t>Capitol Corridor</t>
+  </si>
+  <si>
+    <t>CARTA</t>
+  </si>
+  <si>
+    <t>CDTA</t>
+  </si>
+  <si>
+    <t>City of Seattle</t>
+  </si>
+  <si>
+    <t>Community Transit</t>
+  </si>
+  <si>
+    <t>COTA</t>
+  </si>
+  <si>
+    <t>County Connection</t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>C-TRAN</t>
+  </si>
+  <si>
+    <t>CTTransit Hartford</t>
+  </si>
+  <si>
+    <t>CTTransit New Britain</t>
+  </si>
+  <si>
+    <t>CTTransit New Haven</t>
+  </si>
+  <si>
+    <t>CTTransit Stamford</t>
+  </si>
+  <si>
+    <t>Culver CityBus</t>
+  </si>
+  <si>
+    <t>DART</t>
+  </si>
+  <si>
+    <t>DC Circulator</t>
+  </si>
+  <si>
+    <t>DDOT</t>
+  </si>
+  <si>
+    <t>Fairfax Connector</t>
+  </si>
+  <si>
+    <t>Foothill Transit</t>
+  </si>
+  <si>
+    <t>GCRTA</t>
+  </si>
+  <si>
+    <t>Glendale Beeline</t>
+  </si>
+  <si>
+    <t>Greater Dayton RTA</t>
+  </si>
+  <si>
+    <t>Greater Portland Metro Bus</t>
+  </si>
+  <si>
+    <t>GTrans</t>
+  </si>
+  <si>
+    <t>Hartford Line</t>
+  </si>
+  <si>
+    <t>HRT</t>
+  </si>
+  <si>
+    <t>KCATA</t>
+  </si>
+  <si>
+    <t>King County Metro</t>
+  </si>
+  <si>
+    <t>LA DOT</t>
+  </si>
+  <si>
+    <t>LA Metro - Bus</t>
+  </si>
+  <si>
+    <t>LA Metro - Rail</t>
+  </si>
+  <si>
+    <t>Las Vegas Monorail</t>
+  </si>
+  <si>
+    <t>Long Beach Transit</t>
+  </si>
+  <si>
+    <t>Long Island Rail Road</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Madison Metro</t>
+  </si>
+  <si>
+    <t>MARTA</t>
+  </si>
+  <si>
+    <t>MBTA</t>
+  </si>
+  <si>
+    <t>MCTS</t>
+  </si>
+  <si>
+    <t>MDOT MTA</t>
+  </si>
+  <si>
+    <t>Metra</t>
+  </si>
+  <si>
+    <t>METRO</t>
+  </si>
+  <si>
+    <t>Metro Transit</t>
+  </si>
+  <si>
+    <t>Metro Transit St Louis</t>
+  </si>
+  <si>
+    <t>Metrolink</t>
+  </si>
+  <si>
+    <t>Miami-Dade Transit</t>
+  </si>
+  <si>
+    <t>Monterey-Salinas Transit</t>
+  </si>
+  <si>
+    <t>Montgomery County Transit</t>
+  </si>
+  <si>
+    <t>MTA - Bronx Buses</t>
+  </si>
+  <si>
+    <t>MTA - Brooklyn Buses</t>
+  </si>
+  <si>
+    <t>MTA - Manhattan Buses</t>
+  </si>
+  <si>
+    <t>MTA - NYC Bus Company</t>
+  </si>
+  <si>
+    <t>MTA - NYC Subway</t>
+  </si>
+  <si>
+    <t>MTA - Queens Buses</t>
+  </si>
+  <si>
+    <t>MTA - Staten Island Buses</t>
+  </si>
+  <si>
+    <t>MTA &amp; RTA</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>MUNI - SFMTA</t>
+  </si>
+  <si>
+    <t>NCTD</t>
+  </si>
+  <si>
+    <t>NFTA</t>
+  </si>
+  <si>
+    <t>NICE Bus</t>
+  </si>
+  <si>
+    <t>NY Waterway</t>
+  </si>
+  <si>
+    <t>OCTA</t>
+  </si>
+  <si>
+    <t>Omnitrans</t>
+  </si>
+  <si>
+    <t>PAAC</t>
+  </si>
+  <si>
+    <t>Pace Bus</t>
+  </si>
+  <si>
+    <t>Palm Tran</t>
+  </si>
+  <si>
+    <t>Pasadena Transit</t>
+  </si>
+  <si>
+    <t>PATCO</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>Pierce Transit</t>
+  </si>
+  <si>
+    <t>PresidiGo</t>
+  </si>
+  <si>
+    <t>PSTA</t>
+  </si>
+  <si>
+    <t>RIPTA</t>
+  </si>
+  <si>
+    <t>Riverside Transit Agency</t>
+  </si>
+  <si>
+    <t>RTC Southern Nevada</t>
+  </si>
+  <si>
+    <t>RTD</t>
+  </si>
+  <si>
+    <t>SamTrans</t>
+  </si>
+  <si>
+    <t>Santa Clarita Transit</t>
+  </si>
+  <si>
+    <t>Santa Cruz Metro</t>
+  </si>
+  <si>
+    <t>SEPTA - Bus</t>
+  </si>
+  <si>
+    <t>SEPTA - Rail</t>
+  </si>
+  <si>
+    <t>Shore Line East</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>SORTA - Metro</t>
+  </si>
+  <si>
+    <t>Sound Transit</t>
+  </si>
+  <si>
+    <t>Suffolk County Transit</t>
+  </si>
+  <si>
+    <t>TANK</t>
+  </si>
+  <si>
+    <t>TARC</t>
+  </si>
+  <si>
+    <t>TCAT</t>
+  </si>
+  <si>
+    <t>The Rapid</t>
+  </si>
+  <si>
+    <t>The Ride</t>
+  </si>
+  <si>
+    <t>TheBus</t>
+  </si>
+  <si>
+    <t>Torrance Transit</t>
+  </si>
+  <si>
+    <t>TriMet</t>
+  </si>
+  <si>
+    <t>Tri-Rail</t>
+  </si>
+  <si>
+    <t>U-M Transit</t>
+  </si>
+  <si>
+    <t>University of California Berkeley - Bear Transit</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>Valley Metro</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>Via Mobility Services - Boulder</t>
+  </si>
+  <si>
+    <t>VTA</t>
+  </si>
+  <si>
+    <t>West Hollywood - WeHo</t>
+  </si>
+  <si>
+    <t>WMATA</t>
+  </si>
+  <si>
+    <t>Work from home populuation ratio</t>
+  </si>
+  <si>
+    <t>Population commutes using transit</t>
+  </si>
+  <si>
+    <t>All working population</t>
+  </si>
+  <si>
+    <t>Transit commuting population ratio</t>
+  </si>
+  <si>
+    <t>google_trend</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1398,1017 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>google_trend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$1048569</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048568"/>
+                <c:pt idx="0">
+                  <c:v>-0.83017995246833298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66275320457447595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.76478399574112399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.64159151167148898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.77641131869287205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.75167671695985305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.51119024852394601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.71716034550595298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.80420622470969505</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.63883321769421797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.79725182347001999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.86258183113457199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.84766470186867204</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.59570078954098704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.76965242884043406</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.79136457942766003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.72871449082051798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.61134467130591197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.69339437637284596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.63284876715034499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.659771827703308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.79277684054344399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.59346206721442896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.75776273767930002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.55986519621778397</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.59756919738565595</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.73336292975448503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.62501819225130395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.76991579675154198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.55500611903816799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.76250190602577805</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.64324003634644</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.64571333166130396</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.40958599700671999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.43374252952737702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.81961854237279297</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.72288010330304198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.71080204126066904</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.74388424182306101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.68039265367886903</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.71164587760911002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.67624318085713797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.58098067812390397</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.89265086517299397</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.48420986903445201</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.78763895321737698</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.59668546498096797</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.56259339016889598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.75955798211734604</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.60147586170043699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.69149139528660997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.49252285763495302</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.64972356710928902</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.59026629133775799</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.87729150374651099</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.77358954129978297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.66050697401347502</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.69503941815758297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.74356962469386301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.67909167720157504</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.71511798844380903</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.71070357698947595</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.73094808228291797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.68829276137406703</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.76379462131971698</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.87719946923465097</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.84588698906138404</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.66001782762496997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.68679993378416204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.643839502244821</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.74030450153443805</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.56799372796343595</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.65860930503695403</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.72675799196068003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.42794660165037401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.77784398567300095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.56028331372377604</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.71794897485036202</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.78434056955658604</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.92187818896060003</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.40468550997441499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.76591006176463505</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.639778041129754</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.59807737976761299</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.77580932085065202</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.81720079770262499</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.70468253970585104</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.79704902527032595</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.60188481184187803</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.58839604294413905</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.68228940684696804</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.57920705845309395</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.55864167215833405</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.761991602525666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.68675508547804198</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.60134855333876902</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.64682027628267902</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.90434852007284094</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.02372193722765</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.98120611300067095</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.76810126605473905</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.71557703425988495</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.73733957026199803</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.42053823648250899</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.0452622958462801</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.96387067900498002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.75805058583556395</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.59263524543633495</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.483701606703831</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.966515531046228</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.77528207825456597</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.81886512049883298</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.70824022170147705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$2:$I$1048569</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048568"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-358B-4B6A-AD75-335A3794B29E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="560593871"/>
+        <c:axId val="560592207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="560593871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560592207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="560592207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560593871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1587,6 +2964,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1605,6 +3498,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2343,23 +4271,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2369,8 +4315,28 @@
       <c r="C2">
         <v>847170</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>0.5931808255721992</v>
+      </c>
+      <c r="E2">
+        <v>116644</v>
+      </c>
+      <c r="F2">
+        <v>767292</v>
+      </c>
+      <c r="G2">
+        <f>E2/F2</f>
+        <v>0.15202035209542131</v>
+      </c>
+      <c r="H2">
+        <v>-0.83017995246833298</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2380,8 +4346,28 @@
       <c r="C3">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>B3/C3</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E3">
+        <v>294952</v>
+      </c>
+      <c r="F3">
+        <v>4749180</v>
+      </c>
+      <c r="G3">
+        <f>E3/F3</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H3">
+        <v>-0.66275320457447595</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2391,8 +4377,28 @@
       <c r="C4">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>B4/C4</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E4">
+        <v>294952</v>
+      </c>
+      <c r="F4">
+        <v>4749180</v>
+      </c>
+      <c r="G4">
+        <f>E4/F4</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H4">
+        <v>-0.76478399574112399</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2402,8 +4408,28 @@
       <c r="C5">
         <v>479775</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>0.57657443593351054</v>
+      </c>
+      <c r="E5">
+        <v>109470</v>
+      </c>
+      <c r="F5">
+        <v>468771</v>
+      </c>
+      <c r="G5">
+        <f>E5/F5</f>
+        <v>0.2335255380558951</v>
+      </c>
+      <c r="H5">
+        <v>-0.64159151167148898</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2413,8 +4439,28 @@
       <c r="C6">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>B6/C6</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E6">
+        <v>294952</v>
+      </c>
+      <c r="F6">
+        <v>4749180</v>
+      </c>
+      <c r="G6">
+        <f>E6/F6</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.77641131869287205</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2424,8 +4470,28 @@
       <c r="C7">
         <v>429529</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>B7/C7</f>
+        <v>0.57521145254453132</v>
+      </c>
+      <c r="E7">
+        <v>139478</v>
+      </c>
+      <c r="F7">
+        <v>421256</v>
+      </c>
+      <c r="G7">
+        <f>E7/F7</f>
+        <v>0.33110032854131455</v>
+      </c>
+      <c r="H7">
+        <v>-0.75167671695985305</v>
+      </c>
+      <c r="I7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2435,8 +4501,28 @@
       <c r="C8">
         <v>1301540</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>B8/C8</f>
+        <v>0.45140295342440495</v>
+      </c>
+      <c r="E8">
+        <v>68596</v>
+      </c>
+      <c r="F8">
+        <v>1280128</v>
+      </c>
+      <c r="G8">
+        <f>E8/F8</f>
+        <v>5.3585266473352662E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.51119024852394601</v>
+      </c>
+      <c r="I8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2446,8 +4532,28 @@
       <c r="C9">
         <v>13801</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>B9/C9</f>
+        <v>0.44627200927469024</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>13594</v>
+      </c>
+      <c r="G9">
+        <f>E9/F9</f>
+        <v>6.620567897601883E-4</v>
+      </c>
+      <c r="H9">
+        <v>-0.71716034550595298</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2457,8 +4563,28 @@
       <c r="C10">
         <v>686019</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>B10/C10</f>
+        <v>0.51945645820305264</v>
+      </c>
+      <c r="E10">
+        <v>17800</v>
+      </c>
+      <c r="F10">
+        <v>671083</v>
+      </c>
+      <c r="G10">
+        <f>E10/F10</f>
+        <v>2.6524289841942054E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.80420622470969505</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2468,8 +4594,28 @@
       <c r="C11">
         <v>200094</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>B11/C11</f>
+        <v>0.52249942527012305</v>
+      </c>
+      <c r="E11">
+        <v>2818</v>
+      </c>
+      <c r="F11">
+        <v>198964</v>
+      </c>
+      <c r="G11">
+        <f>E11/F11</f>
+        <v>1.416336623710822E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.63883321769421797</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2479,8 +4625,28 @@
       <c r="C12">
         <v>159756</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>B12/C12</f>
+        <v>0.59365532436966373</v>
+      </c>
+      <c r="E12">
+        <v>9925</v>
+      </c>
+      <c r="F12">
+        <v>156817</v>
+      </c>
+      <c r="G12">
+        <f>E12/F12</f>
+        <v>6.329033204308207E-2</v>
+      </c>
+      <c r="H12">
+        <v>-0.79725182347001999</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +4656,28 @@
       <c r="C13">
         <v>1176560</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>B13/C13</f>
+        <v>0.61497841164071532</v>
+      </c>
+      <c r="E13">
+        <v>157462</v>
+      </c>
+      <c r="F13">
+        <v>1153731</v>
+      </c>
+      <c r="G13">
+        <f>E13/F13</f>
+        <v>0.13648068743927311</v>
+      </c>
+      <c r="H13">
+        <v>-0.86258183113457199</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2501,8 +4687,28 @@
       <c r="C14">
         <v>1176560</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>B14/C14</f>
+        <v>0.61497841164071532</v>
+      </c>
+      <c r="E14">
+        <v>157462</v>
+      </c>
+      <c r="F14">
+        <v>1153731</v>
+      </c>
+      <c r="G14">
+        <f>E14/F14</f>
+        <v>0.13648068743927311</v>
+      </c>
+      <c r="H14">
+        <v>-0.84766470186867204</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2512,8 +4718,28 @@
       <c r="C15">
         <v>665824</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>B15/C15</f>
+        <v>0.55997530879031099</v>
+      </c>
+      <c r="E15">
+        <v>16088</v>
+      </c>
+      <c r="F15">
+        <v>651953</v>
+      </c>
+      <c r="G15">
+        <f>E15/F15</f>
+        <v>2.4676625462264918E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.59570078954098704</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2523,8 +4749,28 @@
       <c r="C16">
         <v>547323</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>B16/C16</f>
+        <v>0.54885689072083577</v>
+      </c>
+      <c r="E16">
+        <v>56845</v>
+      </c>
+      <c r="F16">
+        <v>532887</v>
+      </c>
+      <c r="G16">
+        <f>E16/F16</f>
+        <v>0.10667364750875889</v>
+      </c>
+      <c r="H16">
+        <v>-0.76965242884043406</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2534,8 +4780,28 @@
       <c r="C17">
         <v>2548996</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>B17/C17</f>
+        <v>0.51736134540815282</v>
+      </c>
+      <c r="E17">
+        <v>487729</v>
+      </c>
+      <c r="F17">
+        <v>2498849</v>
+      </c>
+      <c r="G17">
+        <f>E17/F17</f>
+        <v>0.19518146154489527</v>
+      </c>
+      <c r="H17">
+        <v>-0.79136457942766003</v>
+      </c>
+      <c r="I17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2545,8 +4811,28 @@
       <c r="C18">
         <v>221205</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>B18/C18</f>
+        <v>0.48878641983680299</v>
+      </c>
+      <c r="E18">
+        <v>4961</v>
+      </c>
+      <c r="F18">
+        <v>216960</v>
+      </c>
+      <c r="G18">
+        <f>E18/F18</f>
+        <v>2.2865966076696165E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.72871449082051798</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2556,8 +4842,28 @@
       <c r="C19">
         <v>447893</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>B19/C19</f>
+        <v>0.55598323706778185</v>
+      </c>
+      <c r="E19">
+        <v>14424</v>
+      </c>
+      <c r="F19">
+        <v>439172</v>
+      </c>
+      <c r="G19">
+        <f>E19/F19</f>
+        <v>3.2843623910449662E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.61134467130591197</v>
+      </c>
+      <c r="I19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2567,8 +4873,28 @@
       <c r="C20">
         <v>447893</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>B20/C20</f>
+        <v>0.55598323706778185</v>
+      </c>
+      <c r="E20">
+        <v>14424</v>
+      </c>
+      <c r="F20">
+        <v>439172</v>
+      </c>
+      <c r="G20">
+        <f>E20/F20</f>
+        <v>3.2843623910449662E-2</v>
+      </c>
+      <c r="H20">
+        <v>-0.69339437637284596</v>
+      </c>
+      <c r="I20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2578,8 +4904,28 @@
       <c r="C21">
         <v>427791</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>B21/C21</f>
+        <v>0.5394947532790545</v>
+      </c>
+      <c r="E21">
+        <v>18032</v>
+      </c>
+      <c r="F21">
+        <v>420437</v>
+      </c>
+      <c r="G21">
+        <f>E21/F21</f>
+        <v>4.2888708653139471E-2</v>
+      </c>
+      <c r="H21">
+        <v>-0.63284876715034499</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2589,8 +4935,28 @@
       <c r="C22">
         <v>475513</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>B22/C22</f>
+        <v>0.55459261891893596</v>
+      </c>
+      <c r="E22">
+        <v>47752</v>
+      </c>
+      <c r="F22">
+        <v>466283</v>
+      </c>
+      <c r="G22">
+        <f>E22/F22</f>
+        <v>0.10240990986160765</v>
+      </c>
+      <c r="H22">
+        <v>-0.659771827703308</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2600,8 +4966,28 @@
       <c r="C23">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>B23/C23</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E23">
+        <v>294952</v>
+      </c>
+      <c r="F23">
+        <v>4749180</v>
+      </c>
+      <c r="G23">
+        <f>E23/F23</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H23">
+        <v>-0.79277684054344399</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2611,8 +4997,28 @@
       <c r="C24">
         <v>1282839</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>B24/C24</f>
+        <v>0.46419387000239315</v>
+      </c>
+      <c r="E24">
+        <v>36150</v>
+      </c>
+      <c r="F24">
+        <v>1260913</v>
+      </c>
+      <c r="G24">
+        <f>E24/F24</f>
+        <v>2.8669702033367887E-2</v>
+      </c>
+      <c r="H24">
+        <v>-0.59346206721442896</v>
+      </c>
+      <c r="I24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2622,8 +5028,28 @@
       <c r="C25">
         <v>369194</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>B25/C25</f>
+        <v>0.71935892782656274</v>
+      </c>
+      <c r="E25">
+        <v>130661</v>
+      </c>
+      <c r="F25">
+        <v>366168</v>
+      </c>
+      <c r="G25">
+        <f>E25/F25</f>
+        <v>0.35683347534465054</v>
+      </c>
+      <c r="H25">
+        <v>-0.75776273767930002</v>
+      </c>
+      <c r="I25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2633,8 +5059,28 @@
       <c r="C26">
         <v>734480</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>B26/C26</f>
+        <v>0.44607749700468358</v>
+      </c>
+      <c r="E26">
+        <v>22458</v>
+      </c>
+      <c r="F26">
+        <v>718904</v>
+      </c>
+      <c r="G26">
+        <f>E26/F26</f>
+        <v>3.1239219701100565E-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.55986519621778397</v>
+      </c>
+      <c r="I26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2644,8 +5090,28 @@
       <c r="C27">
         <v>369194</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>B27/C27</f>
+        <v>0.71935892782656274</v>
+      </c>
+      <c r="E27">
+        <v>130661</v>
+      </c>
+      <c r="F27">
+        <v>366168</v>
+      </c>
+      <c r="G27">
+        <f>E27/F27</f>
+        <v>0.35683347534465054</v>
+      </c>
+      <c r="H27">
+        <v>-0.59756919738565595</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2655,8 +5121,28 @@
       <c r="C28">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>B28/C28</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E28">
+        <v>294952</v>
+      </c>
+      <c r="F28">
+        <v>4749180</v>
+      </c>
+      <c r="G28">
+        <f>E28/F28</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H28">
+        <v>-0.73336292975448503</v>
+      </c>
+      <c r="I28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2666,8 +5152,28 @@
       <c r="C29">
         <v>591135</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>B29/C29</f>
+        <v>0.52578006715893999</v>
+      </c>
+      <c r="E29">
+        <v>27460</v>
+      </c>
+      <c r="F29">
+        <v>579631</v>
+      </c>
+      <c r="G29">
+        <f>E29/F29</f>
+        <v>4.7374967867488106E-2</v>
+      </c>
+      <c r="H29">
+        <v>-0.62501819225130395</v>
+      </c>
+      <c r="I29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2677,8 +5183,28 @@
       <c r="C30">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>B30/C30</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E30">
+        <v>294952</v>
+      </c>
+      <c r="F30">
+        <v>4749180</v>
+      </c>
+      <c r="G30">
+        <f>E30/F30</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H30">
+        <v>-0.76991579675154198</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2688,8 +5214,28 @@
       <c r="C31">
         <v>243624</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>B31/C31</f>
+        <v>0.49033346468328243</v>
+      </c>
+      <c r="E31">
+        <v>6450</v>
+      </c>
+      <c r="F31">
+        <v>239932</v>
+      </c>
+      <c r="G31">
+        <f>E31/F31</f>
+        <v>2.6882616741410067E-2</v>
+      </c>
+      <c r="H31">
+        <v>-0.55500611903816799</v>
+      </c>
+      <c r="I31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2699,8 +5245,28 @@
       <c r="C32">
         <v>430606</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>B32/C32</f>
+        <v>0.56623688476240464</v>
+      </c>
+      <c r="E32">
+        <v>49618</v>
+      </c>
+      <c r="F32">
+        <v>422229</v>
+      </c>
+      <c r="G32">
+        <f>E32/F32</f>
+        <v>0.11751442937363374</v>
+      </c>
+      <c r="H32">
+        <v>-0.76250190602577805</v>
+      </c>
+      <c r="I32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2710,8 +5276,28 @@
       <c r="C33">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>B33/C33</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E33">
+        <v>294952</v>
+      </c>
+      <c r="F33">
+        <v>4749180</v>
+      </c>
+      <c r="G33">
+        <f>E33/F33</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H33">
+        <v>-0.64324003634644</v>
+      </c>
+      <c r="I33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2721,8 +5307,28 @@
       <c r="C34">
         <v>447893</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>B34/C34</f>
+        <v>0.55598323706778185</v>
+      </c>
+      <c r="E34">
+        <v>14424</v>
+      </c>
+      <c r="F34">
+        <v>439172</v>
+      </c>
+      <c r="G34">
+        <f>E34/F34</f>
+        <v>3.2843623910449662E-2</v>
+      </c>
+      <c r="H34">
+        <v>-0.64571333166130396</v>
+      </c>
+      <c r="I34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2732,8 +5338,28 @@
       <c r="C35">
         <v>61974</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>B35/C35</f>
+        <v>0.47984638719463002</v>
+      </c>
+      <c r="E35">
+        <v>1573</v>
+      </c>
+      <c r="F35">
+        <v>65436</v>
+      </c>
+      <c r="G35">
+        <f>E35/F35</f>
+        <v>2.4038755425148238E-2</v>
+      </c>
+      <c r="H35">
+        <v>-0.40958599700671999</v>
+      </c>
+      <c r="I35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2743,8 +5369,28 @@
       <c r="C36">
         <v>343721</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>B36/C36</f>
+        <v>0.50351302364417649</v>
+      </c>
+      <c r="E36">
+        <v>7348</v>
+      </c>
+      <c r="F36">
+        <v>338514</v>
+      </c>
+      <c r="G36">
+        <f>E36/F36</f>
+        <v>2.1706635471501916E-2</v>
+      </c>
+      <c r="H36">
+        <v>-0.43374252952737702</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2754,8 +5400,28 @@
       <c r="C37">
         <v>1176560</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>B37/C37</f>
+        <v>0.61497841164071532</v>
+      </c>
+      <c r="E37">
+        <v>157462</v>
+      </c>
+      <c r="F37">
+        <v>1153731</v>
+      </c>
+      <c r="G37">
+        <f>E37/F37</f>
+        <v>0.13648068743927311</v>
+      </c>
+      <c r="H37">
+        <v>-0.81961854237279297</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2765,8 +5431,28 @@
       <c r="C38">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>B38/C38</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E38">
+        <v>294952</v>
+      </c>
+      <c r="F38">
+        <v>4749180</v>
+      </c>
+      <c r="G38">
+        <f>E38/F38</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H38">
+        <v>-0.72288010330304198</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2776,8 +5462,28 @@
       <c r="C39">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>B39/C39</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E39">
+        <v>294952</v>
+      </c>
+      <c r="F39">
+        <v>4749180</v>
+      </c>
+      <c r="G39">
+        <f>E39/F39</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H39">
+        <v>-0.71080204126066904</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2787,8 +5493,28 @@
       <c r="C40">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>B40/C40</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E40">
+        <v>294952</v>
+      </c>
+      <c r="F40">
+        <v>4749180</v>
+      </c>
+      <c r="G40">
+        <f>E40/F40</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H40">
+        <v>-0.74388424182306101</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2798,8 +5524,28 @@
       <c r="C41">
         <v>1003320</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>B41/C41</f>
+        <v>0.40215384922058767</v>
+      </c>
+      <c r="E41">
+        <v>37928</v>
+      </c>
+      <c r="F41">
+        <v>989494</v>
+      </c>
+      <c r="G41">
+        <f>E41/F41</f>
+        <v>3.8330702358983483E-2</v>
+      </c>
+      <c r="H41">
+        <v>-0.68039265367886903</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2809,8 +5555,28 @@
       <c r="C42">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>B42/C42</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E42">
+        <v>294952</v>
+      </c>
+      <c r="F42">
+        <v>4749180</v>
+      </c>
+      <c r="G42">
+        <f>E42/F42</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.71164587760911002</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2820,8 +5586,28 @@
       <c r="C43">
         <v>744693</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>B43/C43</f>
+        <v>0.52022377006363696</v>
+      </c>
+      <c r="E43">
+        <v>48427</v>
+      </c>
+      <c r="F43">
+        <v>731739</v>
+      </c>
+      <c r="G43">
+        <f>E43/F43</f>
+        <v>6.6180701042311538E-2</v>
+      </c>
+      <c r="H43">
+        <v>-0.67624318085713797</v>
+      </c>
+      <c r="I43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2831,8 +5617,28 @@
       <c r="C44">
         <v>661930</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>B44/C44</f>
+        <v>0.49505234692490141</v>
+      </c>
+      <c r="E44">
+        <v>17567</v>
+      </c>
+      <c r="F44">
+        <v>650883</v>
+      </c>
+      <c r="G44">
+        <f>E44/F44</f>
+        <v>2.6989489662504629E-2</v>
+      </c>
+      <c r="H44">
+        <v>-0.58098067812390397</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2842,8 +5648,28 @@
       <c r="C45">
         <v>302391</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>B45/C45</f>
+        <v>0.61714799712954416</v>
+      </c>
+      <c r="E45">
+        <v>16242</v>
+      </c>
+      <c r="F45">
+        <v>297700</v>
+      </c>
+      <c r="G45">
+        <f>E45/F45</f>
+        <v>5.4558280147799801E-2</v>
+      </c>
+      <c r="H45">
+        <v>-0.89265086517299397</v>
+      </c>
+      <c r="I45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2853,8 +5679,28 @@
       <c r="C46">
         <v>516732</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>B46/C46</f>
+        <v>0.60592918572877241</v>
+      </c>
+      <c r="E46">
+        <v>40568</v>
+      </c>
+      <c r="F46">
+        <v>507981</v>
+      </c>
+      <c r="G46">
+        <f>E46/F46</f>
+        <v>7.9861254653225217E-2</v>
+      </c>
+      <c r="H46">
+        <v>-0.48420986903445201</v>
+      </c>
+      <c r="I46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2864,8 +5710,28 @@
       <c r="C47">
         <v>429529</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>B47/C47</f>
+        <v>0.57521145254453132</v>
+      </c>
+      <c r="E47">
+        <v>139478</v>
+      </c>
+      <c r="F47">
+        <v>421256</v>
+      </c>
+      <c r="G47">
+        <f>E47/F47</f>
+        <v>0.33110032854131455</v>
+      </c>
+      <c r="H47">
+        <v>-0.78763895321737698</v>
+      </c>
+      <c r="I47">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2875,63 +5741,183 @@
       <c r="C48">
         <v>458805</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f>B48/C48</f>
+        <v>0.48780200738875995</v>
+      </c>
+      <c r="E48">
+        <v>24559</v>
+      </c>
+      <c r="F48">
+        <v>452312</v>
+      </c>
+      <c r="G48">
+        <f>E48/F48</f>
+        <v>5.4296591733139957E-2</v>
+      </c>
+      <c r="H48">
+        <v>-0.59668546498096797</v>
+      </c>
+      <c r="I48">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>237008</v>
+      </c>
+      <c r="C49">
+        <v>419089</v>
+      </c>
+      <c r="D49">
+        <f>B49/C49</f>
+        <v>0.56553142649890598</v>
+      </c>
+      <c r="E49">
+        <v>20412</v>
+      </c>
+      <c r="F49">
+        <v>411402</v>
+      </c>
+      <c r="G49">
+        <f>E49/F49</f>
+        <v>4.9615704347572447E-2</v>
+      </c>
+      <c r="H49">
+        <v>-0.56259339016889598</v>
+      </c>
+      <c r="I49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>1318752</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>2548996</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="D50">
+        <f>B50/C50</f>
+        <v>0.51736134540815282</v>
+      </c>
+      <c r="E50">
+        <v>487729</v>
+      </c>
+      <c r="F50">
+        <v>2498849</v>
+      </c>
+      <c r="G50">
+        <f>E50/F50</f>
+        <v>0.19518146154489527</v>
+      </c>
+      <c r="H50">
+        <v>-0.75955798211734604</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>1032171</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>2223265</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>216495</v>
-      </c>
-      <c r="C51">
-        <v>402685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f>B51/C51</f>
+        <v>0.46425909641900537</v>
+      </c>
+      <c r="E51">
+        <v>58647</v>
+      </c>
+      <c r="F51">
+        <v>2182197</v>
+      </c>
+      <c r="G51">
+        <f>E51/F51</f>
+        <v>2.6875208791873512E-2</v>
+      </c>
+      <c r="H51">
+        <v>-0.60147586170043699</v>
+      </c>
+      <c r="I51">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>158670</v>
+      </c>
+      <c r="C52">
+        <v>281029</v>
+      </c>
+      <c r="D52">
+        <f>B52/C52</f>
+        <v>0.56460365300378257</v>
+      </c>
+      <c r="E52">
+        <v>19053</v>
+      </c>
+      <c r="F52">
+        <v>275479</v>
+      </c>
+      <c r="G52">
+        <f>E52/F52</f>
+        <v>6.9163166702362069E-2</v>
+      </c>
+      <c r="H52">
+        <v>-0.69149139528660997</v>
+      </c>
+      <c r="I52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>286663</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>497435</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53">
-        <v>158670</v>
-      </c>
-      <c r="C53">
-        <v>281029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f>B53/C53</f>
+        <v>0.57628232834440685</v>
+      </c>
+      <c r="E53">
+        <v>12637</v>
+      </c>
+      <c r="F53">
+        <v>488952</v>
+      </c>
+      <c r="G53">
+        <f>E53/F53</f>
+        <v>2.5845072726975244E-2</v>
+      </c>
+      <c r="H53">
+        <v>-0.49252285763495302</v>
+      </c>
+      <c r="I53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2941,8 +5927,28 @@
       <c r="C54">
         <v>1578079</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f>B54/C54</f>
+        <v>0.53162991206397148</v>
+      </c>
+      <c r="E54">
+        <v>32564</v>
+      </c>
+      <c r="F54">
+        <v>1546371</v>
+      </c>
+      <c r="G54">
+        <f>E54/F54</f>
+        <v>2.1058335936201596E-2</v>
+      </c>
+      <c r="H54">
+        <v>-0.64972356710928902</v>
+      </c>
+      <c r="I54">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2952,8 +5958,28 @@
       <c r="C55">
         <v>1301540</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f>B55/C55</f>
+        <v>0.45140295342440495</v>
+      </c>
+      <c r="E55">
+        <v>68596</v>
+      </c>
+      <c r="F55">
+        <v>1280128</v>
+      </c>
+      <c r="G55">
+        <f>E55/F55</f>
+        <v>5.3585266473352662E-2</v>
+      </c>
+      <c r="H55">
+        <v>-0.59026629133775799</v>
+      </c>
+      <c r="I55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2963,8 +5989,28 @@
       <c r="C56">
         <v>185025</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f>B56/C56</f>
+        <v>0.37919200108093498</v>
+      </c>
+      <c r="E56">
+        <v>3154</v>
+      </c>
+      <c r="F56">
+        <v>187205</v>
+      </c>
+      <c r="G56">
+        <f>E56/F56</f>
+        <v>1.6847840602548007E-2</v>
+      </c>
+      <c r="H56">
+        <v>-0.87729150374651099</v>
+      </c>
+      <c r="I56">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2974,54 +6020,154 @@
       <c r="C57">
         <v>369194</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f>B57/C57</f>
+        <v>0.71935892782656274</v>
+      </c>
+      <c r="E57">
+        <v>130661</v>
+      </c>
+      <c r="F57">
+        <v>366168</v>
+      </c>
+      <c r="G57">
+        <f>E57/F57</f>
+        <v>0.35683347534465054</v>
+      </c>
+      <c r="H57">
+        <v>-0.77358954129978297</v>
+      </c>
+      <c r="I57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>237008</v>
+        <v>225866</v>
       </c>
       <c r="C58">
-        <v>419089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>595657</v>
+      </c>
+      <c r="D58">
+        <f>B58/C58</f>
+        <v>0.37918802263718887</v>
+      </c>
+      <c r="E58">
+        <v>351393</v>
+      </c>
+      <c r="F58">
+        <v>578100</v>
+      </c>
+      <c r="G58">
+        <f>E58/F58</f>
+        <v>0.60784120394395436</v>
+      </c>
+      <c r="H58">
+        <v>-0.66050697401347502</v>
+      </c>
+      <c r="I58">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>200015</v>
+        <v>647119</v>
       </c>
       <c r="C59">
-        <v>373294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1217624</v>
+      </c>
+      <c r="D59">
+        <f>B59/C59</f>
+        <v>0.53146045084525273</v>
+      </c>
+      <c r="E59">
+        <v>736441</v>
+      </c>
+      <c r="F59">
+        <v>1189261</v>
+      </c>
+      <c r="G59">
+        <f>E59/F59</f>
+        <v>0.61924253801310225</v>
+      </c>
+      <c r="H59">
+        <v>-0.69503941815758297</v>
+      </c>
+      <c r="I59">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>225866</v>
+        <v>618604</v>
       </c>
       <c r="C60">
-        <v>595657</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>897040</v>
+      </c>
+      <c r="D60">
+        <f>B60/C60</f>
+        <v>0.68960581467938997</v>
+      </c>
+      <c r="E60">
+        <v>544223</v>
+      </c>
+      <c r="F60">
+        <v>879881</v>
+      </c>
+      <c r="G60">
+        <f>E60/F60</f>
+        <v>0.61851886789236277</v>
+      </c>
+      <c r="H60">
+        <v>-0.74356962469386301</v>
+      </c>
+      <c r="I60">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>647119</v>
+        <v>618604</v>
       </c>
       <c r="C61">
-        <v>1217624</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>897040</v>
+      </c>
+      <c r="D61">
+        <f>B61/C61</f>
+        <v>0.68960581467938997</v>
+      </c>
+      <c r="E61">
+        <v>544223</v>
+      </c>
+      <c r="F61">
+        <v>879881</v>
+      </c>
+      <c r="G61">
+        <f>E61/F61</f>
+        <v>0.61851886789236277</v>
+      </c>
+      <c r="H61">
+        <v>-0.67909167720157504</v>
+      </c>
+      <c r="I61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>618604</v>
@@ -3029,318 +6175,898 @@
       <c r="C62">
         <v>897040</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f>B62/C62</f>
+        <v>0.68960581467938997</v>
+      </c>
+      <c r="E62">
+        <v>544223</v>
+      </c>
+      <c r="F62">
+        <v>879881</v>
+      </c>
+      <c r="G62">
+        <f>E62/F62</f>
+        <v>0.61851886789236277</v>
+      </c>
+      <c r="H62">
+        <v>-0.71511798844380903</v>
+      </c>
+      <c r="I62">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
+        <v>523680</v>
+      </c>
+      <c r="C63">
+        <v>1131527</v>
+      </c>
+      <c r="D63">
+        <f>B63/C63</f>
+        <v>0.46280822287051038</v>
+      </c>
+      <c r="E63">
+        <v>568465</v>
+      </c>
+      <c r="F63">
+        <v>1098078</v>
+      </c>
+      <c r="G63">
+        <f>E63/F63</f>
+        <v>0.51769091084604191</v>
+      </c>
+      <c r="H63">
+        <v>-0.71070357698947595</v>
+      </c>
+      <c r="I63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>113098</v>
+      </c>
+      <c r="C64">
+        <v>211293</v>
+      </c>
+      <c r="D64">
+        <f>B64/C64</f>
+        <v>0.53526619433677403</v>
+      </c>
+      <c r="E64">
+        <v>62230</v>
+      </c>
+      <c r="F64">
+        <v>208212</v>
+      </c>
+      <c r="G64">
+        <f>E64/F64</f>
+        <v>0.29887806658597965</v>
+      </c>
+      <c r="H64">
+        <v>-0.73094808228291797</v>
+      </c>
+      <c r="I64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>200015</v>
+      </c>
+      <c r="C65">
+        <v>373294</v>
+      </c>
+      <c r="D65">
+        <f>B65/C65</f>
+        <v>0.53581091579291384</v>
+      </c>
+      <c r="E65">
+        <v>8179</v>
+      </c>
+      <c r="F65">
+        <v>365300</v>
+      </c>
+      <c r="G65">
+        <f>E65/F65</f>
+        <v>2.2389816589104845E-2</v>
+      </c>
+      <c r="H65">
+        <v>-0.68829276137406703</v>
+      </c>
+      <c r="I65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>822573</v>
+      </c>
+      <c r="C66">
+        <v>1564930</v>
+      </c>
+      <c r="D66">
+        <f>B66/C66</f>
+        <v>0.52562926137271315</v>
+      </c>
+      <c r="E66">
+        <v>47933</v>
+      </c>
+      <c r="F66">
+        <v>1603486</v>
+      </c>
+      <c r="G66">
+        <f>E66/F66</f>
+        <v>2.989299563575859E-2</v>
+      </c>
+      <c r="H66">
+        <v>-0.76379462131971698</v>
+      </c>
+      <c r="I66">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>333796</v>
+      </c>
+      <c r="C67">
+        <v>515382</v>
+      </c>
+      <c r="D67">
+        <f>B67/C67</f>
+        <v>0.64766716726622198</v>
+      </c>
+      <c r="E67">
+        <v>178948</v>
+      </c>
+      <c r="F67">
+        <v>504358</v>
+      </c>
+      <c r="G67">
+        <f>E67/F67</f>
+        <v>0.35480353241150137</v>
+      </c>
+      <c r="H67">
+        <v>-0.87719946923465097</v>
+      </c>
+      <c r="I67">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>822573</v>
+      </c>
+      <c r="C68">
+        <v>1564930</v>
+      </c>
+      <c r="D68">
+        <f>B68/C68</f>
+        <v>0.52562926137271315</v>
+      </c>
+      <c r="E68">
+        <v>47933</v>
+      </c>
+      <c r="F68">
+        <v>1603486</v>
+      </c>
+      <c r="G68">
+        <f>E68/F68</f>
+        <v>2.989299563575859E-2</v>
+      </c>
+      <c r="H68">
+        <v>-0.84588698906138404</v>
+      </c>
+      <c r="I68">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>236731</v>
+      </c>
+      <c r="C69">
+        <v>449109</v>
+      </c>
+      <c r="D69">
+        <f>B69/C69</f>
+        <v>0.52711257178101534</v>
+      </c>
+      <c r="E69">
+        <v>17072</v>
+      </c>
+      <c r="F69">
+        <v>438586</v>
+      </c>
+      <c r="G69">
+        <f>E69/F69</f>
+        <v>3.8925091088178827E-2</v>
+      </c>
+      <c r="H69">
+        <v>-0.66001782762496997</v>
+      </c>
+      <c r="I69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>397194</v>
+      </c>
+      <c r="C70">
+        <v>684098</v>
+      </c>
+      <c r="D70">
+        <f>B70/C70</f>
+        <v>0.58060979567254989</v>
+      </c>
+      <c r="E70">
+        <v>114716</v>
+      </c>
+      <c r="F70">
+        <v>671593</v>
+      </c>
+      <c r="G70">
+        <f>E70/F70</f>
+        <v>0.17081178630509847</v>
+      </c>
+      <c r="H70">
+        <v>-0.68679993378416204</v>
+      </c>
+      <c r="I70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
         <v>618604</v>
       </c>
-      <c r="C63">
+      <c r="C71">
         <v>897040</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64">
+      <c r="D71">
+        <f>B71/C71</f>
+        <v>0.68960581467938997</v>
+      </c>
+      <c r="E71">
+        <v>544223</v>
+      </c>
+      <c r="F71">
+        <v>879881</v>
+      </c>
+      <c r="G71">
+        <f>E71/F71</f>
+        <v>0.61851886789236277</v>
+      </c>
+      <c r="H71">
+        <v>-0.643839502244821</v>
+      </c>
+      <c r="I71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>838954</v>
+      </c>
+      <c r="C72">
+        <v>1578079</v>
+      </c>
+      <c r="D72">
+        <f>B72/C72</f>
+        <v>0.53162991206397148</v>
+      </c>
+      <c r="E72">
+        <v>32564</v>
+      </c>
+      <c r="F72">
+        <v>1546371</v>
+      </c>
+      <c r="G72">
+        <f>E72/F72</f>
+        <v>2.1058335936201596E-2</v>
+      </c>
+      <c r="H72">
+        <v>-0.74030450153443805</v>
+      </c>
+      <c r="I72">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>371901</v>
+      </c>
+      <c r="C73">
+        <v>892435</v>
+      </c>
+      <c r="D73">
+        <f>B73/C73</f>
+        <v>0.41672614812283248</v>
+      </c>
+      <c r="E73">
+        <v>13503</v>
+      </c>
+      <c r="F73">
+        <v>881534</v>
+      </c>
+      <c r="G73">
+        <f>E73/F73</f>
+        <v>1.5317616790730704E-2</v>
+      </c>
+      <c r="H73">
+        <v>-0.56799372796343595</v>
+      </c>
+      <c r="I73">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>362410</v>
+      </c>
+      <c r="C74">
+        <v>625294</v>
+      </c>
+      <c r="D74">
+        <f>B74/C74</f>
+        <v>0.57958336398558119</v>
+      </c>
+      <c r="E74">
+        <v>58433</v>
+      </c>
+      <c r="F74">
+        <v>613550</v>
+      </c>
+      <c r="G74">
+        <f>E74/F74</f>
+        <v>9.5237551951756177E-2</v>
+      </c>
+      <c r="H74">
+        <v>-0.65860930503695403</v>
+      </c>
+      <c r="I74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>1318752</v>
+      </c>
+      <c r="C75">
+        <v>2548996</v>
+      </c>
+      <c r="D75">
+        <f>B75/C75</f>
+        <v>0.51736134540815282</v>
+      </c>
+      <c r="E75">
+        <v>487729</v>
+      </c>
+      <c r="F75">
+        <v>2498849</v>
+      </c>
+      <c r="G75">
+        <f>E75/F75</f>
+        <v>0.19518146154489527</v>
+      </c>
+      <c r="H75">
+        <v>-0.72675799196068003</v>
+      </c>
+      <c r="I75">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>587519</v>
+      </c>
+      <c r="C76">
+        <v>1301540</v>
+      </c>
+      <c r="D76">
+        <f>B76/C76</f>
+        <v>0.45140295342440495</v>
+      </c>
+      <c r="E76">
+        <v>68596</v>
+      </c>
+      <c r="F76">
+        <v>1280128</v>
+      </c>
+      <c r="G76">
+        <f>E76/F76</f>
+        <v>5.3585266473352662E-2</v>
+      </c>
+      <c r="H76">
+        <v>-0.42794660165037401</v>
+      </c>
+      <c r="I76">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>2390559</v>
+      </c>
+      <c r="C77">
+        <v>4869658</v>
+      </c>
+      <c r="D77">
+        <f>B77/C77</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E77">
+        <v>294952</v>
+      </c>
+      <c r="F77">
+        <v>4749180</v>
+      </c>
+      <c r="G77">
+        <f>E77/F77</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H77">
+        <v>-0.77784398567300095</v>
+      </c>
+      <c r="I77">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>346569</v>
+      </c>
+      <c r="C78">
+        <v>688298</v>
+      </c>
+      <c r="D78">
+        <f>B78/C78</f>
+        <v>0.5035159189769548</v>
+      </c>
+      <c r="E78">
+        <v>170009</v>
+      </c>
+      <c r="F78">
+        <v>671083</v>
+      </c>
+      <c r="G78">
+        <f>E78/F78</f>
+        <v>0.25333528043475995</v>
+      </c>
+      <c r="H78">
+        <v>-0.56028331372377604</v>
+      </c>
+      <c r="I78">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
         <v>618604</v>
       </c>
-      <c r="C64">
+      <c r="C79">
         <v>897040</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65">
-        <v>523680</v>
-      </c>
-      <c r="C65">
-        <v>1131527</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>113098</v>
-      </c>
-      <c r="C66">
-        <v>211293</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>822573</v>
-      </c>
-      <c r="C67">
-        <v>1564930</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
+      <c r="D79">
+        <f>B79/C79</f>
+        <v>0.68960581467938997</v>
+      </c>
+      <c r="E79">
+        <v>544223</v>
+      </c>
+      <c r="F79">
+        <v>879881</v>
+      </c>
+      <c r="G79">
+        <f>E79/F79</f>
+        <v>0.61851886789236277</v>
+      </c>
+      <c r="H79">
+        <v>-0.71794897485036202</v>
+      </c>
+      <c r="I79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>723559</v>
+      </c>
+      <c r="C80">
+        <v>1176560</v>
+      </c>
+      <c r="D80">
+        <f>B80/C80</f>
+        <v>0.61497841164071532</v>
+      </c>
+      <c r="E80">
+        <v>157462</v>
+      </c>
+      <c r="F80">
+        <v>1153731</v>
+      </c>
+      <c r="G80">
+        <f>E80/F80</f>
+        <v>0.13648068743927311</v>
+      </c>
+      <c r="H80">
+        <v>-0.78434056955658604</v>
+      </c>
+      <c r="I80">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
         <v>333796</v>
       </c>
-      <c r="C68">
+      <c r="C81">
         <v>515382</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>822573</v>
-      </c>
-      <c r="C69">
-        <v>1564930</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>236731</v>
-      </c>
-      <c r="C70">
-        <v>449109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>397194</v>
-      </c>
-      <c r="C71">
-        <v>684098</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72">
-        <v>618604</v>
-      </c>
-      <c r="C72">
-        <v>897040</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>838954</v>
-      </c>
-      <c r="C73">
-        <v>1578079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <v>371901</v>
-      </c>
-      <c r="C74">
-        <v>892435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75">
-        <v>362410</v>
-      </c>
-      <c r="C75">
-        <v>625294</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>1318752</v>
-      </c>
-      <c r="C76">
-        <v>2548996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>587519</v>
-      </c>
-      <c r="C77">
-        <v>1301540</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
+      <c r="D81">
+        <f>B81/C81</f>
+        <v>0.64766716726622198</v>
+      </c>
+      <c r="E81">
+        <v>178948</v>
+      </c>
+      <c r="F81">
+        <v>504358</v>
+      </c>
+      <c r="G81">
+        <f>E81/F81</f>
+        <v>0.35480353241150137</v>
+      </c>
+      <c r="H81">
+        <v>-0.92187818896060003</v>
+      </c>
+      <c r="I81">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>346226</v>
+      </c>
+      <c r="C82">
+        <v>665406</v>
+      </c>
+      <c r="D82">
+        <f>B82/C82</f>
+        <v>0.52032293066188162</v>
+      </c>
+      <c r="E82">
+        <v>11237</v>
+      </c>
+      <c r="F82">
+        <v>660016</v>
+      </c>
+      <c r="G82">
+        <f>E82/F82</f>
+        <v>1.7025344840125089E-2</v>
+      </c>
+      <c r="H82">
+        <v>-0.40468550997441499</v>
+      </c>
+      <c r="I82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>148654</v>
+      </c>
+      <c r="C83">
+        <v>310070</v>
+      </c>
+      <c r="D83">
+        <f>B83/C83</f>
+        <v>0.47942077595381688</v>
+      </c>
+      <c r="E83">
+        <v>10507</v>
+      </c>
+      <c r="F83">
+        <v>300860</v>
+      </c>
+      <c r="G83">
+        <f>E83/F83</f>
+        <v>3.4923220102373198E-2</v>
+      </c>
+      <c r="H83">
+        <v>-0.76591006176463505</v>
+      </c>
+      <c r="I83">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>415777</v>
+      </c>
+      <c r="C84">
+        <v>1007795</v>
+      </c>
+      <c r="D84">
+        <f>B84/C84</f>
+        <v>0.41256108633204175</v>
+      </c>
+      <c r="E84">
+        <v>13077</v>
+      </c>
+      <c r="F84">
+        <v>984230</v>
+      </c>
+      <c r="G84">
+        <f>E84/F84</f>
+        <v>1.3286528555317355E-2</v>
+      </c>
+      <c r="H84">
+        <v>-0.639778041129754</v>
+      </c>
+      <c r="I84">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>403489</v>
+      </c>
+      <c r="C85">
+        <v>1003320</v>
+      </c>
+      <c r="D85">
+        <f>B85/C85</f>
+        <v>0.40215384922058767</v>
+      </c>
+      <c r="E85">
+        <v>37928</v>
+      </c>
+      <c r="F85">
+        <v>989494</v>
+      </c>
+      <c r="G85">
+        <f>E85/F85</f>
+        <v>3.8330702358983483E-2</v>
+      </c>
+      <c r="H85">
+        <v>-0.59807737976761299</v>
+      </c>
+      <c r="I85">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>221241</v>
+      </c>
+      <c r="C86">
+        <v>389034</v>
+      </c>
+      <c r="D86">
+        <f>B86/C86</f>
+        <v>0.56869322475670503</v>
+      </c>
+      <c r="E86">
+        <v>25931</v>
+      </c>
+      <c r="F86">
+        <v>382460</v>
+      </c>
+      <c r="G86">
+        <f>E86/F86</f>
+        <v>6.7800554306332694E-2</v>
+      </c>
+      <c r="H86">
+        <v>-0.77580932085065202</v>
+      </c>
+      <c r="I86">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>242291</v>
+      </c>
+      <c r="C87">
+        <v>409911</v>
+      </c>
+      <c r="D87">
+        <f>B87/C87</f>
+        <v>0.59108196657323175</v>
+      </c>
+      <c r="E87">
+        <v>43421</v>
+      </c>
+      <c r="F87">
+        <v>401339</v>
+      </c>
+      <c r="G87">
+        <f>E87/F87</f>
+        <v>0.10819033286074864</v>
+      </c>
+      <c r="H87">
+        <v>-0.81720079770262499</v>
+      </c>
+      <c r="I87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
         <v>2390559</v>
       </c>
-      <c r="C78">
+      <c r="C88">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
+      <c r="D88">
+        <f>B88/C88</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E88">
+        <v>294952</v>
+      </c>
+      <c r="F88">
+        <v>4749180</v>
+      </c>
+      <c r="G88">
+        <f>E88/F88</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H88">
+        <v>-0.70468253970585104</v>
+      </c>
+      <c r="I88">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>68700</v>
+      </c>
+      <c r="C89">
+        <v>134904</v>
+      </c>
+      <c r="D89">
+        <f>B89/C89</f>
+        <v>0.50925102294965308</v>
+      </c>
+      <c r="E89">
+        <v>3938</v>
+      </c>
+      <c r="F89">
+        <v>131355</v>
+      </c>
+      <c r="G89">
+        <f>E89/F89</f>
+        <v>2.9979825663278902E-2</v>
+      </c>
+      <c r="H89">
+        <v>-0.79704902527032595</v>
+      </c>
+      <c r="I89">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
         <v>346569</v>
       </c>
-      <c r="C79">
+      <c r="C90">
         <v>688298</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>618604</v>
-      </c>
-      <c r="C80">
-        <v>897040</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>723559</v>
-      </c>
-      <c r="C81">
-        <v>1176560</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <v>333796</v>
-      </c>
-      <c r="C82">
-        <v>515382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83">
-        <v>346226</v>
-      </c>
-      <c r="C83">
-        <v>665406</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>148654</v>
-      </c>
-      <c r="C84">
-        <v>310070</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>415777</v>
-      </c>
-      <c r="C85">
-        <v>1007795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86">
-        <v>403489</v>
-      </c>
-      <c r="C86">
-        <v>1003320</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>221241</v>
-      </c>
-      <c r="C87">
-        <v>389034</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>242291</v>
-      </c>
-      <c r="C88">
-        <v>409911</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89">
-        <v>2390559</v>
-      </c>
-      <c r="C89">
-        <v>4869658</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90">
-        <v>68700</v>
-      </c>
-      <c r="C90">
-        <v>134904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f>B90/C90</f>
+        <v>0.5035159189769548</v>
+      </c>
+      <c r="E90">
+        <v>170009</v>
+      </c>
+      <c r="F90">
+        <v>671083</v>
+      </c>
+      <c r="G90">
+        <f>E90/F90</f>
+        <v>0.25333528043475995</v>
+      </c>
+      <c r="H90">
+        <v>-0.60188481184187803</v>
+      </c>
+      <c r="I90">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>346569</v>
@@ -3348,41 +7074,121 @@
       <c r="C91">
         <v>688298</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f>B91/C91</f>
+        <v>0.5035159189769548</v>
+      </c>
+      <c r="E91">
+        <v>170009</v>
+      </c>
+      <c r="F91">
+        <v>671083</v>
+      </c>
+      <c r="G91">
+        <f>E91/F91</f>
+        <v>0.25333528043475995</v>
+      </c>
+      <c r="H91">
+        <v>-0.58839604294413905</v>
+      </c>
+      <c r="I91">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>346569</v>
+        <v>230791</v>
       </c>
       <c r="C92">
-        <v>688298</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>427791</v>
+      </c>
+      <c r="D92">
+        <f>B92/C92</f>
+        <v>0.5394947532790545</v>
+      </c>
+      <c r="E92">
+        <v>18032</v>
+      </c>
+      <c r="F92">
+        <v>420437</v>
+      </c>
+      <c r="G92">
+        <f>E92/F92</f>
+        <v>4.2888708653139471E-2</v>
+      </c>
+      <c r="H92">
+        <v>-0.68228940684696804</v>
+      </c>
+      <c r="I92">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>230791</v>
+        <v>327635</v>
       </c>
       <c r="C93">
-        <v>427791</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>734480</v>
+      </c>
+      <c r="D93">
+        <f>B93/C93</f>
+        <v>0.44607749700468358</v>
+      </c>
+      <c r="E93">
+        <v>22458</v>
+      </c>
+      <c r="F93">
+        <v>718904</v>
+      </c>
+      <c r="G93">
+        <f>E93/F93</f>
+        <v>3.1239219701100565E-2</v>
+      </c>
+      <c r="H93">
+        <v>-0.57920705845309395</v>
+      </c>
+      <c r="I93">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B94">
-        <v>327635</v>
+        <v>216495</v>
       </c>
       <c r="C94">
-        <v>734480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>402685</v>
+      </c>
+      <c r="D94">
+        <f>B94/C94</f>
+        <v>0.53762866756894345</v>
+      </c>
+      <c r="E94">
+        <v>14848</v>
+      </c>
+      <c r="F94">
+        <v>394869</v>
+      </c>
+      <c r="G94">
+        <f>E94/F94</f>
+        <v>3.7602344068539184E-2</v>
+      </c>
+      <c r="H94">
+        <v>-0.55864167215833405</v>
+      </c>
+      <c r="I94">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -3392,8 +7198,28 @@
       <c r="C95">
         <v>1176560</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f>B95/C95</f>
+        <v>0.61497841164071532</v>
+      </c>
+      <c r="E95">
+        <v>157462</v>
+      </c>
+      <c r="F95">
+        <v>1153731</v>
+      </c>
+      <c r="G95">
+        <f>E95/F95</f>
+        <v>0.13648068743927311</v>
+      </c>
+      <c r="H95">
+        <v>-0.761991602525666</v>
+      </c>
+      <c r="I95">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -3403,8 +7229,28 @@
       <c r="C96">
         <v>744693</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f>B96/C96</f>
+        <v>0.52022377006363696</v>
+      </c>
+      <c r="E96">
+        <v>48427</v>
+      </c>
+      <c r="F96">
+        <v>731739</v>
+      </c>
+      <c r="G96">
+        <f>E96/F96</f>
+        <v>6.6180701042311538E-2</v>
+      </c>
+      <c r="H96">
+        <v>-0.68675508547804198</v>
+      </c>
+      <c r="I96">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -3414,8 +7260,28 @@
       <c r="C97">
         <v>402685</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f>B97/C97</f>
+        <v>0.53762866756894345</v>
+      </c>
+      <c r="E97">
+        <v>14848</v>
+      </c>
+      <c r="F97">
+        <v>394869</v>
+      </c>
+      <c r="G97">
+        <f>E97/F97</f>
+        <v>3.7602344068539184E-2</v>
+      </c>
+      <c r="H97">
+        <v>-0.60134855333876902</v>
+      </c>
+      <c r="I97">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -3425,8 +7291,28 @@
       <c r="C98">
         <v>380718</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f>B98/C98</f>
+        <v>0.49834260528790336</v>
+      </c>
+      <c r="E98">
+        <v>10662</v>
+      </c>
+      <c r="F98">
+        <v>372989</v>
+      </c>
+      <c r="G98">
+        <f>E98/F98</f>
+        <v>2.8585293400073462E-2</v>
+      </c>
+      <c r="H98">
+        <v>-0.64682027628267902</v>
+      </c>
+      <c r="I98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -3436,8 +7322,28 @@
       <c r="C99">
         <v>50250</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f>B99/C99</f>
+        <v>0.62417910447761193</v>
+      </c>
+      <c r="E99">
+        <v>3195</v>
+      </c>
+      <c r="F99">
+        <v>48599</v>
+      </c>
+      <c r="G99">
+        <f>E99/F99</f>
+        <v>6.5742093458713138E-2</v>
+      </c>
+      <c r="H99">
+        <v>-0.90434852007284094</v>
+      </c>
+      <c r="I99">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -3447,8 +7353,28 @@
       <c r="C100">
         <v>329336</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f>B100/C100</f>
+        <v>0.48291106954599555</v>
+      </c>
+      <c r="E100">
+        <v>6610</v>
+      </c>
+      <c r="F100">
+        <v>322958</v>
+      </c>
+      <c r="G100">
+        <f>E100/F100</f>
+        <v>2.0467057635977434E-2</v>
+      </c>
+      <c r="H100">
+        <v>-1.02372193722765</v>
+      </c>
+      <c r="I100">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -3458,8 +7384,28 @@
       <c r="C101">
         <v>187609</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f>B101/C101</f>
+        <v>0.62358948664509695</v>
+      </c>
+      <c r="E101">
+        <v>9745</v>
+      </c>
+      <c r="F101">
+        <v>183575</v>
+      </c>
+      <c r="G101">
+        <f>E101/F101</f>
+        <v>5.3084570339098462E-2</v>
+      </c>
+      <c r="H101">
+        <v>-0.98120611300067095</v>
+      </c>
+      <c r="I101">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3469,8 +7415,28 @@
       <c r="C102">
         <v>470748</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>B102/C102</f>
+        <v>0.4885055273734567</v>
+      </c>
+      <c r="E102">
+        <v>42191</v>
+      </c>
+      <c r="F102">
+        <v>498142</v>
+      </c>
+      <c r="G102">
+        <f>E102/F102</f>
+        <v>8.4696733060051155E-2</v>
+      </c>
+      <c r="H102">
+        <v>-0.76810126605473905</v>
+      </c>
+      <c r="I102">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3480,8 +7446,28 @@
       <c r="C103">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f>B103/C103</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E103">
+        <v>294952</v>
+      </c>
+      <c r="F103">
+        <v>4749180</v>
+      </c>
+      <c r="G103">
+        <f>E103/F103</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H103">
+        <v>-0.71557703425988495</v>
+      </c>
+      <c r="I103">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3491,8 +7477,28 @@
       <c r="C104">
         <v>430606</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f>B104/C104</f>
+        <v>0.56623688476240464</v>
+      </c>
+      <c r="E104">
+        <v>49618</v>
+      </c>
+      <c r="F104">
+        <v>422229</v>
+      </c>
+      <c r="G104">
+        <f>E104/F104</f>
+        <v>0.11751442937363374</v>
+      </c>
+      <c r="H104">
+        <v>-0.73733957026199803</v>
+      </c>
+      <c r="I104">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3502,8 +7508,28 @@
       <c r="C105">
         <v>1301540</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f>B105/C105</f>
+        <v>0.45140295342440495</v>
+      </c>
+      <c r="E105">
+        <v>68596</v>
+      </c>
+      <c r="F105">
+        <v>1280128</v>
+      </c>
+      <c r="G105">
+        <f>E105/F105</f>
+        <v>5.3585266473352662E-2</v>
+      </c>
+      <c r="H105">
+        <v>-0.42053823648250899</v>
+      </c>
+      <c r="I105">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3513,8 +7539,28 @@
       <c r="C106">
         <v>187609</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f>B106/C106</f>
+        <v>0.62358948664509695</v>
+      </c>
+      <c r="E106">
+        <v>9745</v>
+      </c>
+      <c r="F106">
+        <v>183575</v>
+      </c>
+      <c r="G106">
+        <f>E106/F106</f>
+        <v>5.3084570339098462E-2</v>
+      </c>
+      <c r="H106">
+        <v>-1.0452622958462801</v>
+      </c>
+      <c r="I106">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3524,8 +7570,28 @@
       <c r="C107">
         <v>847170</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f>B107/C107</f>
+        <v>0.5931808255721992</v>
+      </c>
+      <c r="E107">
+        <v>116644</v>
+      </c>
+      <c r="F107">
+        <v>767292</v>
+      </c>
+      <c r="G107">
+        <f>E107/F107</f>
+        <v>0.15202035209542131</v>
+      </c>
+      <c r="H107">
+        <v>-0.96387067900498002</v>
+      </c>
+      <c r="I107">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3535,8 +7601,28 @@
       <c r="C108">
         <v>576623</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f>B108/C108</f>
+        <v>0.53623771511021934</v>
+      </c>
+      <c r="E108">
+        <v>21867</v>
+      </c>
+      <c r="F108">
+        <v>569309</v>
+      </c>
+      <c r="G108">
+        <f>E108/F108</f>
+        <v>3.8409721258578382E-2</v>
+      </c>
+      <c r="H108">
+        <v>-0.75805058583556395</v>
+      </c>
+      <c r="I108">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3546,8 +7632,28 @@
       <c r="C109">
         <v>2004236</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f>B109/C109</f>
+        <v>0.51135295444249085</v>
+      </c>
+      <c r="E109">
+        <v>44412</v>
+      </c>
+      <c r="F109">
+        <v>1976339</v>
+      </c>
+      <c r="G109">
+        <f>E109/F109</f>
+        <v>2.247185325999234E-2</v>
+      </c>
+      <c r="H109">
+        <v>-0.59263524543633495</v>
+      </c>
+      <c r="I109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3557,8 +7663,28 @@
       <c r="C110">
         <v>887464</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f>B110/C110</f>
+        <v>0.48345510353096011</v>
+      </c>
+      <c r="E110">
+        <v>22590</v>
+      </c>
+      <c r="F110">
+        <v>889387</v>
+      </c>
+      <c r="G110">
+        <f>E110/F110</f>
+        <v>2.5399516745803569E-2</v>
+      </c>
+      <c r="H110">
+        <v>-0.483701606703831</v>
+      </c>
+      <c r="I110">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3568,8 +7694,28 @@
       <c r="C111">
         <v>389034</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f>B111/C111</f>
+        <v>0.56869322475670503</v>
+      </c>
+      <c r="E111">
+        <v>25931</v>
+      </c>
+      <c r="F111">
+        <v>382460</v>
+      </c>
+      <c r="G111">
+        <f>E111/F111</f>
+        <v>6.7800554306332694E-2</v>
+      </c>
+      <c r="H111">
+        <v>-0.966515531046228</v>
+      </c>
+      <c r="I111">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3579,8 +7725,28 @@
       <c r="C112">
         <v>985838</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f>B112/C112</f>
+        <v>0.62027838245228928</v>
+      </c>
+      <c r="E112">
+        <v>43180</v>
+      </c>
+      <c r="F112">
+        <v>955422</v>
+      </c>
+      <c r="G112">
+        <f>E112/F112</f>
+        <v>4.5194688839067972E-2</v>
+      </c>
+      <c r="H112">
+        <v>-0.77528207825456597</v>
+      </c>
+      <c r="I112">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3590,8 +7756,28 @@
       <c r="C113">
         <v>4869658</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f>B113/C113</f>
+        <v>0.49090901250149394</v>
+      </c>
+      <c r="E113">
+        <v>294952</v>
+      </c>
+      <c r="F113">
+        <v>4749180</v>
+      </c>
+      <c r="G113">
+        <f>E113/F113</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+      <c r="H113">
+        <v>-0.81886512049883298</v>
+      </c>
+      <c r="I113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3601,8 +7787,2676 @@
       <c r="C114">
         <v>369194</v>
       </c>
+      <c r="D114">
+        <f>B114/C114</f>
+        <v>0.71935892782656274</v>
+      </c>
+      <c r="E114">
+        <v>130661</v>
+      </c>
+      <c r="F114">
+        <v>366168</v>
+      </c>
+      <c r="G114">
+        <f>E114/F114</f>
+        <v>0.35683347534465054</v>
+      </c>
+      <c r="H114">
+        <v>-0.70824022170147705</v>
+      </c>
+      <c r="I114">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.83017995246833298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.66275320457447595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.76478399574112399</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.64159151167148898</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.77641131869287205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.75167671695985305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.51119024852394601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.71716034550595298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.80420622470969505</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-0.63883321769421797</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.79725182347001999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-0.86258183113457199</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.84766470186867204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.59570078954098704</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.76965242884043406</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.79136457942766003</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-0.72871449082051798</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-0.61134467130591197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-0.69339437637284596</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-0.63284876715034499</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-0.659771827703308</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-0.79277684054344399</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-0.59346206721442896</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-0.75776273767930002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-0.55986519621778397</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-0.59756919738565595</v>
+      </c>
+      <c r="B27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-0.73336292975448503</v>
+      </c>
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-0.62501819225130395</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-0.76991579675154198</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-0.55500611903816799</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-0.76250190602577805</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-0.64324003634644</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-0.64571333166130396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-0.40958599700671999</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-0.43374252952737702</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-0.81961854237279297</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-0.72288010330304198</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-0.71080204126066904</v>
+      </c>
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-0.74388424182306101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-0.68039265367886903</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-0.71164587760911002</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-0.67624318085713797</v>
+      </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-0.58098067812390397</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-0.89265086517299397</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-0.48420986903445201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-0.78763895321737698</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-0.59668546498096797</v>
+      </c>
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.56259339016889598</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-0.75955798211734604</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-0.60147586170043699</v>
+      </c>
+      <c r="B51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-0.69149139528660997</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-0.49252285763495302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-0.64972356710928902</v>
+      </c>
+      <c r="B54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-0.59026629133775799</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-0.87729150374651099</v>
+      </c>
+      <c r="B56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-0.77358954129978297</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-0.66050697401347502</v>
+      </c>
+      <c r="B58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-0.69503941815758297</v>
+      </c>
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-0.74356962469386301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-0.67909167720157504</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-0.71511798844380903</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.71070357698947595</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.73094808228291797</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-0.68829276137406703</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.76379462131971698</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-0.87719946923465097</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-0.84588698906138404</v>
+      </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-0.66001782762496997</v>
+      </c>
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-0.68679993378416204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-0.643839502244821</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-0.74030450153443805</v>
+      </c>
+      <c r="B72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-0.56799372796343595</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-0.65860930503695403</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-0.72675799196068003</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>-0.42794660165037401</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>-0.77784398567300095</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>-0.56028331372377604</v>
+      </c>
+      <c r="B78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-0.71794897485036202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>-0.78434056955658604</v>
+      </c>
+      <c r="B80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>-0.92187818896060003</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-0.40468550997441499</v>
+      </c>
+      <c r="B82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-0.76591006176463505</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>-0.639778041129754</v>
+      </c>
+      <c r="B84" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-0.59807737976761299</v>
+      </c>
+      <c r="B85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>-0.77580932085065202</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>-0.81720079770262499</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>-0.70468253970585104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-0.79704902527032595</v>
+      </c>
+      <c r="B89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>-0.60188481184187803</v>
+      </c>
+      <c r="B90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-0.58839604294413905</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>-0.68228940684696804</v>
+      </c>
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>-0.57920705845309395</v>
+      </c>
+      <c r="B93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-0.55864167215833405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>-0.761991602525666</v>
+      </c>
+      <c r="B95" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-0.68675508547804198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-0.60134855333876902</v>
+      </c>
+      <c r="B97" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>-0.64682027628267902</v>
+      </c>
+      <c r="B98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-0.90434852007284094</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>-1.02372193722765</v>
+      </c>
+      <c r="B100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-0.98120611300067095</v>
+      </c>
+      <c r="B101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>-0.76810126605473905</v>
+      </c>
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>-0.71557703425988495</v>
+      </c>
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>-0.73733957026199803</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>-0.42053823648250899</v>
+      </c>
+      <c r="B105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-1.0452622958462801</v>
+      </c>
+      <c r="B106" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>-0.96387067900498002</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>-0.75805058583556395</v>
+      </c>
+      <c r="B108" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>-0.59263524543633495</v>
+      </c>
+      <c r="B109" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>-0.483701606703831</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-0.966515531046228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-0.77528207825456597</v>
+      </c>
+      <c r="B112" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>-0.81886512049883298</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>-0.70824022170147705</v>
+      </c>
+      <c r="B114" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1048569">
+    <sortState ref="A2:B1048569">
+      <sortCondition ref="B1:B1048569"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>116644</v>
+      </c>
+      <c r="C2">
+        <v>767292</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>0.15202035209542131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>294952</v>
+      </c>
+      <c r="C3">
+        <v>4749180</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3/C3</f>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>294952</v>
+      </c>
+      <c r="C4">
+        <v>4749180</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>109470</v>
+      </c>
+      <c r="C5">
+        <v>468771</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.2335255380558951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>294952</v>
+      </c>
+      <c r="C6">
+        <v>4749180</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>139478</v>
+      </c>
+      <c r="C7">
+        <v>421256</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.33110032854131455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>68596</v>
+      </c>
+      <c r="C8">
+        <v>1280128</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.3585266473352662E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>13594</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.620567897601883E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>17800</v>
+      </c>
+      <c r="C10">
+        <v>671083</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.6524289841942054E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>2818</v>
+      </c>
+      <c r="C11">
+        <v>198964</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.416336623710822E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>9925</v>
+      </c>
+      <c r="C12">
+        <v>156817</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.329033204308207E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>157462</v>
+      </c>
+      <c r="C13">
+        <v>1153731</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.13648068743927311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>157462</v>
+      </c>
+      <c r="C14">
+        <v>1153731</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.13648068743927311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>16088</v>
+      </c>
+      <c r="C15">
+        <v>651953</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.4676625462264918E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>56845</v>
+      </c>
+      <c r="C16">
+        <v>532887</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.10667364750875889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>487729</v>
+      </c>
+      <c r="C17">
+        <v>2498849</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.19518146154489527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>4961</v>
+      </c>
+      <c r="C18">
+        <v>216960</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2.2865966076696165E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>14424</v>
+      </c>
+      <c r="C19">
+        <v>439172</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.2843623910449662E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>14424</v>
+      </c>
+      <c r="C20">
+        <v>439172</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.2843623910449662E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>18032</v>
+      </c>
+      <c r="C21">
+        <v>420437</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4.2888708653139471E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>47752</v>
+      </c>
+      <c r="C22">
+        <v>466283</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.10240990986160765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>294952</v>
+      </c>
+      <c r="C23">
+        <v>4749180</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>36150</v>
+      </c>
+      <c r="C24">
+        <v>1260913</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.8669702033367887E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>130661</v>
+      </c>
+      <c r="C25">
+        <v>366168</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.35683347534465054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>22458</v>
+      </c>
+      <c r="C26">
+        <v>718904</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.1239219701100565E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>130661</v>
+      </c>
+      <c r="C27">
+        <v>366168</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.35683347534465054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>294952</v>
+      </c>
+      <c r="C28">
+        <v>4749180</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>27460</v>
+      </c>
+      <c r="C29">
+        <v>579631</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>4.7374967867488106E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>294952</v>
+      </c>
+      <c r="C30">
+        <v>4749180</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>6450</v>
+      </c>
+      <c r="C31">
+        <v>239932</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.6882616741410067E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>49618</v>
+      </c>
+      <c r="C32">
+        <v>422229</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.11751442937363374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>294952</v>
+      </c>
+      <c r="C33">
+        <v>4749180</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>14424</v>
+      </c>
+      <c r="C34">
+        <v>439172</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>3.2843623910449662E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>1573</v>
+      </c>
+      <c r="C35">
+        <v>65436</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.4038755425148238E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>7348</v>
+      </c>
+      <c r="C36">
+        <v>338514</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.1706635471501916E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>157462</v>
+      </c>
+      <c r="C37">
+        <v>1153731</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.13648068743927311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>294952</v>
+      </c>
+      <c r="C38">
+        <v>4749180</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>294952</v>
+      </c>
+      <c r="C39">
+        <v>4749180</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>294952</v>
+      </c>
+      <c r="C40">
+        <v>4749180</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>37928</v>
+      </c>
+      <c r="C41">
+        <v>989494</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>3.8330702358983483E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>294952</v>
+      </c>
+      <c r="C42">
+        <v>4749180</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>48427</v>
+      </c>
+      <c r="C43">
+        <v>731739</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>6.6180701042311538E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>17567</v>
+      </c>
+      <c r="C44">
+        <v>650883</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.6989489662504629E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>16242</v>
+      </c>
+      <c r="C45">
+        <v>297700</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>5.4558280147799801E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>40568</v>
+      </c>
+      <c r="C46">
+        <v>507981</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>7.9861254653225217E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>139478</v>
+      </c>
+      <c r="C47">
+        <v>421256</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.33110032854131455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>24559</v>
+      </c>
+      <c r="C48">
+        <v>452312</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>5.4296591733139957E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>20412</v>
+      </c>
+      <c r="C49">
+        <v>411402</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>4.9615704347572447E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
+        <v>487729</v>
+      </c>
+      <c r="C50">
+        <v>2498849</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.19518146154489527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
+        <v>58647</v>
+      </c>
+      <c r="C51">
+        <v>2182197</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>2.6875208791873512E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>19053</v>
+      </c>
+      <c r="C52">
+        <v>275479</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>6.9163166702362069E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>12637</v>
+      </c>
+      <c r="C53">
+        <v>488952</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2.5845072726975244E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>32564</v>
+      </c>
+      <c r="C54">
+        <v>1546371</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>2.1058335936201596E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>68596</v>
+      </c>
+      <c r="C55">
+        <v>1280128</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>5.3585266473352662E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>3154</v>
+      </c>
+      <c r="C56">
+        <v>187205</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.6847840602548007E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>130661</v>
+      </c>
+      <c r="C57">
+        <v>366168</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.35683347534465054</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>351393</v>
+      </c>
+      <c r="C58">
+        <v>578100</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.60784120394395436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>736441</v>
+      </c>
+      <c r="C59">
+        <v>1189261</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.61924253801310225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>544223</v>
+      </c>
+      <c r="C60">
+        <v>879881</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.61851886789236277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>544223</v>
+      </c>
+      <c r="C61">
+        <v>879881</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.61851886789236277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>544223</v>
+      </c>
+      <c r="C62">
+        <v>879881</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.61851886789236277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>568465</v>
+      </c>
+      <c r="C63">
+        <v>1098078</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.51769091084604191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>62230</v>
+      </c>
+      <c r="C64">
+        <v>208212</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.29887806658597965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>8179</v>
+      </c>
+      <c r="C65">
+        <v>365300</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>2.2389816589104845E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>47933</v>
+      </c>
+      <c r="C66">
+        <v>1603486</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>2.989299563575859E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>178948</v>
+      </c>
+      <c r="C67">
+        <v>504358</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D114" si="1">B67/C67</f>
+        <v>0.35480353241150137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>47933</v>
+      </c>
+      <c r="C68">
+        <v>1603486</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>2.989299563575859E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>17072</v>
+      </c>
+      <c r="C69">
+        <v>438586</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>3.8925091088178827E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>114716</v>
+      </c>
+      <c r="C70">
+        <v>671593</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0.17081178630509847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>544223</v>
+      </c>
+      <c r="C71">
+        <v>879881</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0.61851886789236277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>32564</v>
+      </c>
+      <c r="C72">
+        <v>1546371</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>2.1058335936201596E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>13503</v>
+      </c>
+      <c r="C73">
+        <v>881534</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>1.5317616790730704E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>58433</v>
+      </c>
+      <c r="C74">
+        <v>613550</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>9.5237551951756177E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>487729</v>
+      </c>
+      <c r="C75">
+        <v>2498849</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0.19518146154489527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>68596</v>
+      </c>
+      <c r="C76">
+        <v>1280128</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>5.3585266473352662E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>294952</v>
+      </c>
+      <c r="C77">
+        <v>4749180</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>170009</v>
+      </c>
+      <c r="C78">
+        <v>671083</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0.25333528043475995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>544223</v>
+      </c>
+      <c r="C79">
+        <v>879881</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0.61851886789236277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>157462</v>
+      </c>
+      <c r="C80">
+        <v>1153731</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0.13648068743927311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>178948</v>
+      </c>
+      <c r="C81">
+        <v>504358</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0.35480353241150137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>11237</v>
+      </c>
+      <c r="C82">
+        <v>660016</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1.7025344840125089E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>10507</v>
+      </c>
+      <c r="C83">
+        <v>300860</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>3.4923220102373198E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>13077</v>
+      </c>
+      <c r="C84">
+        <v>984230</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1.3286528555317355E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>37928</v>
+      </c>
+      <c r="C85">
+        <v>989494</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>3.8330702358983483E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>25931</v>
+      </c>
+      <c r="C86">
+        <v>382460</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>6.7800554306332694E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>43421</v>
+      </c>
+      <c r="C87">
+        <v>401339</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0.10819033286074864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>294952</v>
+      </c>
+      <c r="C88">
+        <v>4749180</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>3938</v>
+      </c>
+      <c r="C89">
+        <v>131355</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>2.9979825663278902E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>170009</v>
+      </c>
+      <c r="C90">
+        <v>671083</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0.25333528043475995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>170009</v>
+      </c>
+      <c r="C91">
+        <v>671083</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0.25333528043475995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>18032</v>
+      </c>
+      <c r="C92">
+        <v>420437</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>4.2888708653139471E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>22458</v>
+      </c>
+      <c r="C93">
+        <v>718904</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>3.1239219701100565E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94">
+        <v>14848</v>
+      </c>
+      <c r="C94">
+        <v>394869</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>3.7602344068539184E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>157462</v>
+      </c>
+      <c r="C95">
+        <v>1153731</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0.13648068743927311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>48427</v>
+      </c>
+      <c r="C96">
+        <v>731739</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>6.6180701042311538E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>14848</v>
+      </c>
+      <c r="C97">
+        <v>394869</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>3.7602344068539184E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>10662</v>
+      </c>
+      <c r="C98">
+        <v>372989</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>2.8585293400073462E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>3195</v>
+      </c>
+      <c r="C99">
+        <v>48599</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>6.5742093458713138E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>6610</v>
+      </c>
+      <c r="C100">
+        <v>322958</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>2.0467057635977434E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>9745</v>
+      </c>
+      <c r="C101">
+        <v>183575</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>5.3084570339098462E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>42191</v>
+      </c>
+      <c r="C102">
+        <v>498142</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>8.4696733060051155E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>294952</v>
+      </c>
+      <c r="C103">
+        <v>4749180</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>49618</v>
+      </c>
+      <c r="C104">
+        <v>422229</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0.11751442937363374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>68596</v>
+      </c>
+      <c r="C105">
+        <v>1280128</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>5.3585266473352662E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>9745</v>
+      </c>
+      <c r="C106">
+        <v>183575</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>5.3084570339098462E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>116644</v>
+      </c>
+      <c r="C107">
+        <v>767292</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0.15202035209542131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>21867</v>
+      </c>
+      <c r="C108">
+        <v>569309</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>3.8409721258578382E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>44412</v>
+      </c>
+      <c r="C109">
+        <v>1976339</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>2.247185325999234E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>22590</v>
+      </c>
+      <c r="C110">
+        <v>889387</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>2.5399516745803569E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>25931</v>
+      </c>
+      <c r="C111">
+        <v>382460</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>6.7800554306332694E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>43180</v>
+      </c>
+      <c r="C112">
+        <v>955422</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>4.5194688839067972E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>294952</v>
+      </c>
+      <c r="C113">
+        <v>4749180</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>6.2105879330747626E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>130661</v>
+      </c>
+      <c r="C114">
+        <v>366168</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0.35683347534465054</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C114">
+    <sortState ref="A2:C114">
+      <sortCondition ref="A1:A114"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="correlation_of_floor_value" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="hourly_first_day" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">correlation_of_floor_value!$A$1:$H$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hourly_first_day!$H$1:$M$94</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$1048569</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$114</definedName>
   </definedNames>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="341">
   <si>
     <t># transit systems with positive response from divergent point</t>
   </si>
@@ -747,6 +749,309 @@
   </si>
   <si>
     <t>google_trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beach Cities Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bee-Line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Blue Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brockton Area Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broward County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caltrain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitol Corridor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTransit Hartford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTTransit New Haven </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culver CityBus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Circulator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairfax Connector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foothill Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCRTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Gate Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Dayton RTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">King County Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA DOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA Metro - Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA Metro - Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Vegas Monorail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Beach Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Island Rail Road </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">METRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORTA - Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Transit St Louis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metrolink </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metro-North Railroad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miami-Dade Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey-Salinas Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDOT MTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - Bronx Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - Brooklyn Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - Manhattan Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - NYC Bus Company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - NYC Subway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - Queens Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA - Staten Island Buses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNI - SFMTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ Transit - Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NJ Transit - Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NY Waterway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pace Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific Surfliner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palm Tran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasadena Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierce Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Transit Agency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC Southern Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SamTrans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Clarita Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz Metro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTA - Bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPTA - Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMART </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suffolk County Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ride </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torrance Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TriMet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tri-Rail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California Berkeley - Bear Transit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via Mobility Services - Boulder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Hollywood - WeHo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMATA </t>
+  </si>
+  <si>
+    <t># Normal peaks</t>
+  </si>
+  <si>
+    <t># Actual peaks</t>
+  </si>
+  <si>
+    <t># Diff</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>S_p*</t>
+  </si>
+  <si>
+    <t>p*</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1759,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$I$1</c:f>
+              <c:f>correlation_of_floor_value!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1487,7 +1792,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$2:$H$1048569</c:f>
+              <c:f>correlation_of_floor_value!$H$2:$H$1048569</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048568"/>
@@ -1835,7 +2140,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$I$2:$I$1048569</c:f>
+              <c:f>correlation_of_floor_value!$I$2:$I$1048569</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048568"/>
@@ -4273,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,7 +4621,7 @@
         <v>847170</v>
       </c>
       <c r="D2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D33" si="0">B2/C2</f>
         <v>0.5931808255721992</v>
       </c>
       <c r="E2">
@@ -4326,7 +4631,7 @@
         <v>767292</v>
       </c>
       <c r="G2">
-        <f>E2/F2</f>
+        <f t="shared" ref="G2:G33" si="1">E2/F2</f>
         <v>0.15202035209542131</v>
       </c>
       <c r="H2">
@@ -4347,7 +4652,7 @@
         <v>4869658</v>
       </c>
       <c r="D3">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E3">
@@ -4357,7 +4662,7 @@
         <v>4749180</v>
       </c>
       <c r="G3">
-        <f>E3/F3</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H3">
@@ -4378,7 +4683,7 @@
         <v>4869658</v>
       </c>
       <c r="D4">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E4">
@@ -4388,7 +4693,7 @@
         <v>4749180</v>
       </c>
       <c r="G4">
-        <f>E4/F4</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H4">
@@ -4409,7 +4714,7 @@
         <v>479775</v>
       </c>
       <c r="D5">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>0.57657443593351054</v>
       </c>
       <c r="E5">
@@ -4419,7 +4724,7 @@
         <v>468771</v>
       </c>
       <c r="G5">
-        <f>E5/F5</f>
+        <f t="shared" si="1"/>
         <v>0.2335255380558951</v>
       </c>
       <c r="H5">
@@ -4440,7 +4745,7 @@
         <v>4869658</v>
       </c>
       <c r="D6">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E6">
@@ -4450,7 +4755,7 @@
         <v>4749180</v>
       </c>
       <c r="G6">
-        <f>E6/F6</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H6">
@@ -4471,7 +4776,7 @@
         <v>429529</v>
       </c>
       <c r="D7">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.57521145254453132</v>
       </c>
       <c r="E7">
@@ -4481,7 +4786,7 @@
         <v>421256</v>
       </c>
       <c r="G7">
-        <f>E7/F7</f>
+        <f t="shared" si="1"/>
         <v>0.33110032854131455</v>
       </c>
       <c r="H7">
@@ -4502,7 +4807,7 @@
         <v>1301540</v>
       </c>
       <c r="D8">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.45140295342440495</v>
       </c>
       <c r="E8">
@@ -4512,7 +4817,7 @@
         <v>1280128</v>
       </c>
       <c r="G8">
-        <f>E8/F8</f>
+        <f t="shared" si="1"/>
         <v>5.3585266473352662E-2</v>
       </c>
       <c r="H8">
@@ -4533,7 +4838,7 @@
         <v>13801</v>
       </c>
       <c r="D9">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.44627200927469024</v>
       </c>
       <c r="E9">
@@ -4543,7 +4848,7 @@
         <v>13594</v>
       </c>
       <c r="G9">
-        <f>E9/F9</f>
+        <f t="shared" si="1"/>
         <v>6.620567897601883E-4</v>
       </c>
       <c r="H9">
@@ -4564,7 +4869,7 @@
         <v>686019</v>
       </c>
       <c r="D10">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.51945645820305264</v>
       </c>
       <c r="E10">
@@ -4574,7 +4879,7 @@
         <v>671083</v>
       </c>
       <c r="G10">
-        <f>E10/F10</f>
+        <f t="shared" si="1"/>
         <v>2.6524289841942054E-2</v>
       </c>
       <c r="H10">
@@ -4595,7 +4900,7 @@
         <v>200094</v>
       </c>
       <c r="D11">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.52249942527012305</v>
       </c>
       <c r="E11">
@@ -4605,7 +4910,7 @@
         <v>198964</v>
       </c>
       <c r="G11">
-        <f>E11/F11</f>
+        <f t="shared" si="1"/>
         <v>1.416336623710822E-2</v>
       </c>
       <c r="H11">
@@ -4626,7 +4931,7 @@
         <v>159756</v>
       </c>
       <c r="D12">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.59365532436966373</v>
       </c>
       <c r="E12">
@@ -4636,7 +4941,7 @@
         <v>156817</v>
       </c>
       <c r="G12">
-        <f>E12/F12</f>
+        <f t="shared" si="1"/>
         <v>6.329033204308207E-2</v>
       </c>
       <c r="H12">
@@ -4657,7 +4962,7 @@
         <v>1176560</v>
       </c>
       <c r="D13">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.61497841164071532</v>
       </c>
       <c r="E13">
@@ -4667,7 +4972,7 @@
         <v>1153731</v>
       </c>
       <c r="G13">
-        <f>E13/F13</f>
+        <f t="shared" si="1"/>
         <v>0.13648068743927311</v>
       </c>
       <c r="H13">
@@ -4688,7 +4993,7 @@
         <v>1176560</v>
       </c>
       <c r="D14">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.61497841164071532</v>
       </c>
       <c r="E14">
@@ -4698,7 +5003,7 @@
         <v>1153731</v>
       </c>
       <c r="G14">
-        <f>E14/F14</f>
+        <f t="shared" si="1"/>
         <v>0.13648068743927311</v>
       </c>
       <c r="H14">
@@ -4719,7 +5024,7 @@
         <v>665824</v>
       </c>
       <c r="D15">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.55997530879031099</v>
       </c>
       <c r="E15">
@@ -4729,7 +5034,7 @@
         <v>651953</v>
       </c>
       <c r="G15">
-        <f>E15/F15</f>
+        <f t="shared" si="1"/>
         <v>2.4676625462264918E-2</v>
       </c>
       <c r="H15">
@@ -4750,7 +5055,7 @@
         <v>547323</v>
       </c>
       <c r="D16">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.54885689072083577</v>
       </c>
       <c r="E16">
@@ -4760,7 +5065,7 @@
         <v>532887</v>
       </c>
       <c r="G16">
-        <f>E16/F16</f>
+        <f t="shared" si="1"/>
         <v>0.10667364750875889</v>
       </c>
       <c r="H16">
@@ -4781,7 +5086,7 @@
         <v>2548996</v>
       </c>
       <c r="D17">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.51736134540815282</v>
       </c>
       <c r="E17">
@@ -4791,7 +5096,7 @@
         <v>2498849</v>
       </c>
       <c r="G17">
-        <f>E17/F17</f>
+        <f t="shared" si="1"/>
         <v>0.19518146154489527</v>
       </c>
       <c r="H17">
@@ -4812,7 +5117,7 @@
         <v>221205</v>
       </c>
       <c r="D18">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.48878641983680299</v>
       </c>
       <c r="E18">
@@ -4822,7 +5127,7 @@
         <v>216960</v>
       </c>
       <c r="G18">
-        <f>E18/F18</f>
+        <f t="shared" si="1"/>
         <v>2.2865966076696165E-2</v>
       </c>
       <c r="H18">
@@ -4843,7 +5148,7 @@
         <v>447893</v>
       </c>
       <c r="D19">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>0.55598323706778185</v>
       </c>
       <c r="E19">
@@ -4853,7 +5158,7 @@
         <v>439172</v>
       </c>
       <c r="G19">
-        <f>E19/F19</f>
+        <f t="shared" si="1"/>
         <v>3.2843623910449662E-2</v>
       </c>
       <c r="H19">
@@ -4874,7 +5179,7 @@
         <v>447893</v>
       </c>
       <c r="D20">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>0.55598323706778185</v>
       </c>
       <c r="E20">
@@ -4884,7 +5189,7 @@
         <v>439172</v>
       </c>
       <c r="G20">
-        <f>E20/F20</f>
+        <f t="shared" si="1"/>
         <v>3.2843623910449662E-2</v>
       </c>
       <c r="H20">
@@ -4905,7 +5210,7 @@
         <v>427791</v>
       </c>
       <c r="D21">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>0.5394947532790545</v>
       </c>
       <c r="E21">
@@ -4915,7 +5220,7 @@
         <v>420437</v>
       </c>
       <c r="G21">
-        <f>E21/F21</f>
+        <f t="shared" si="1"/>
         <v>4.2888708653139471E-2</v>
       </c>
       <c r="H21">
@@ -4936,7 +5241,7 @@
         <v>475513</v>
       </c>
       <c r="D22">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>0.55459261891893596</v>
       </c>
       <c r="E22">
@@ -4946,7 +5251,7 @@
         <v>466283</v>
       </c>
       <c r="G22">
-        <f>E22/F22</f>
+        <f t="shared" si="1"/>
         <v>0.10240990986160765</v>
       </c>
       <c r="H22">
@@ -4967,7 +5272,7 @@
         <v>4869658</v>
       </c>
       <c r="D23">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E23">
@@ -4977,7 +5282,7 @@
         <v>4749180</v>
       </c>
       <c r="G23">
-        <f>E23/F23</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H23">
@@ -4998,7 +5303,7 @@
         <v>1282839</v>
       </c>
       <c r="D24">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>0.46419387000239315</v>
       </c>
       <c r="E24">
@@ -5008,7 +5313,7 @@
         <v>1260913</v>
       </c>
       <c r="G24">
-        <f>E24/F24</f>
+        <f t="shared" si="1"/>
         <v>2.8669702033367887E-2</v>
       </c>
       <c r="H24">
@@ -5029,7 +5334,7 @@
         <v>369194</v>
       </c>
       <c r="D25">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>0.71935892782656274</v>
       </c>
       <c r="E25">
@@ -5039,7 +5344,7 @@
         <v>366168</v>
       </c>
       <c r="G25">
-        <f>E25/F25</f>
+        <f t="shared" si="1"/>
         <v>0.35683347534465054</v>
       </c>
       <c r="H25">
@@ -5060,7 +5365,7 @@
         <v>734480</v>
       </c>
       <c r="D26">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.44607749700468358</v>
       </c>
       <c r="E26">
@@ -5070,7 +5375,7 @@
         <v>718904</v>
       </c>
       <c r="G26">
-        <f>E26/F26</f>
+        <f t="shared" si="1"/>
         <v>3.1239219701100565E-2</v>
       </c>
       <c r="H26">
@@ -5091,7 +5396,7 @@
         <v>369194</v>
       </c>
       <c r="D27">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.71935892782656274</v>
       </c>
       <c r="E27">
@@ -5101,7 +5406,7 @@
         <v>366168</v>
       </c>
       <c r="G27">
-        <f>E27/F27</f>
+        <f t="shared" si="1"/>
         <v>0.35683347534465054</v>
       </c>
       <c r="H27">
@@ -5122,7 +5427,7 @@
         <v>4869658</v>
       </c>
       <c r="D28">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E28">
@@ -5132,7 +5437,7 @@
         <v>4749180</v>
       </c>
       <c r="G28">
-        <f>E28/F28</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H28">
@@ -5153,7 +5458,7 @@
         <v>591135</v>
       </c>
       <c r="D29">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>0.52578006715893999</v>
       </c>
       <c r="E29">
@@ -5163,7 +5468,7 @@
         <v>579631</v>
       </c>
       <c r="G29">
-        <f>E29/F29</f>
+        <f t="shared" si="1"/>
         <v>4.7374967867488106E-2</v>
       </c>
       <c r="H29">
@@ -5184,7 +5489,7 @@
         <v>4869658</v>
       </c>
       <c r="D30">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E30">
@@ -5194,7 +5499,7 @@
         <v>4749180</v>
       </c>
       <c r="G30">
-        <f>E30/F30</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H30">
@@ -5215,7 +5520,7 @@
         <v>243624</v>
       </c>
       <c r="D31">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>0.49033346468328243</v>
       </c>
       <c r="E31">
@@ -5225,7 +5530,7 @@
         <v>239932</v>
       </c>
       <c r="G31">
-        <f>E31/F31</f>
+        <f t="shared" si="1"/>
         <v>2.6882616741410067E-2</v>
       </c>
       <c r="H31">
@@ -5246,7 +5551,7 @@
         <v>430606</v>
       </c>
       <c r="D32">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>0.56623688476240464</v>
       </c>
       <c r="E32">
@@ -5256,7 +5561,7 @@
         <v>422229</v>
       </c>
       <c r="G32">
-        <f>E32/F32</f>
+        <f t="shared" si="1"/>
         <v>0.11751442937363374</v>
       </c>
       <c r="H32">
@@ -5277,7 +5582,7 @@
         <v>4869658</v>
       </c>
       <c r="D33">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E33">
@@ -5287,7 +5592,7 @@
         <v>4749180</v>
       </c>
       <c r="G33">
-        <f>E33/F33</f>
+        <f t="shared" si="1"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H33">
@@ -5308,7 +5613,7 @@
         <v>447893</v>
       </c>
       <c r="D34">
-        <f>B34/C34</f>
+        <f t="shared" ref="D34:D65" si="2">B34/C34</f>
         <v>0.55598323706778185</v>
       </c>
       <c r="E34">
@@ -5318,7 +5623,7 @@
         <v>439172</v>
       </c>
       <c r="G34">
-        <f>E34/F34</f>
+        <f t="shared" ref="G34:G65" si="3">E34/F34</f>
         <v>3.2843623910449662E-2</v>
       </c>
       <c r="H34">
@@ -5339,7 +5644,7 @@
         <v>61974</v>
       </c>
       <c r="D35">
-        <f>B35/C35</f>
+        <f t="shared" si="2"/>
         <v>0.47984638719463002</v>
       </c>
       <c r="E35">
@@ -5349,7 +5654,7 @@
         <v>65436</v>
       </c>
       <c r="G35">
-        <f>E35/F35</f>
+        <f t="shared" si="3"/>
         <v>2.4038755425148238E-2</v>
       </c>
       <c r="H35">
@@ -5370,7 +5675,7 @@
         <v>343721</v>
       </c>
       <c r="D36">
-        <f>B36/C36</f>
+        <f t="shared" si="2"/>
         <v>0.50351302364417649</v>
       </c>
       <c r="E36">
@@ -5380,7 +5685,7 @@
         <v>338514</v>
       </c>
       <c r="G36">
-        <f>E36/F36</f>
+        <f t="shared" si="3"/>
         <v>2.1706635471501916E-2</v>
       </c>
       <c r="H36">
@@ -5401,7 +5706,7 @@
         <v>1176560</v>
       </c>
       <c r="D37">
-        <f>B37/C37</f>
+        <f t="shared" si="2"/>
         <v>0.61497841164071532</v>
       </c>
       <c r="E37">
@@ -5411,7 +5716,7 @@
         <v>1153731</v>
       </c>
       <c r="G37">
-        <f>E37/F37</f>
+        <f t="shared" si="3"/>
         <v>0.13648068743927311</v>
       </c>
       <c r="H37">
@@ -5432,7 +5737,7 @@
         <v>4869658</v>
       </c>
       <c r="D38">
-        <f>B38/C38</f>
+        <f t="shared" si="2"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E38">
@@ -5442,7 +5747,7 @@
         <v>4749180</v>
       </c>
       <c r="G38">
-        <f>E38/F38</f>
+        <f t="shared" si="3"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H38">
@@ -5463,7 +5768,7 @@
         <v>4869658</v>
       </c>
       <c r="D39">
-        <f>B39/C39</f>
+        <f t="shared" si="2"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E39">
@@ -5473,7 +5778,7 @@
         <v>4749180</v>
       </c>
       <c r="G39">
-        <f>E39/F39</f>
+        <f t="shared" si="3"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H39">
@@ -5494,7 +5799,7 @@
         <v>4869658</v>
       </c>
       <c r="D40">
-        <f>B40/C40</f>
+        <f t="shared" si="2"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E40">
@@ -5504,7 +5809,7 @@
         <v>4749180</v>
       </c>
       <c r="G40">
-        <f>E40/F40</f>
+        <f t="shared" si="3"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H40">
@@ -5525,7 +5830,7 @@
         <v>1003320</v>
       </c>
       <c r="D41">
-        <f>B41/C41</f>
+        <f t="shared" si="2"/>
         <v>0.40215384922058767</v>
       </c>
       <c r="E41">
@@ -5535,7 +5840,7 @@
         <v>989494</v>
       </c>
       <c r="G41">
-        <f>E41/F41</f>
+        <f t="shared" si="3"/>
         <v>3.8330702358983483E-2</v>
       </c>
       <c r="H41">
@@ -5556,7 +5861,7 @@
         <v>4869658</v>
       </c>
       <c r="D42">
-        <f>B42/C42</f>
+        <f t="shared" si="2"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E42">
@@ -5566,7 +5871,7 @@
         <v>4749180</v>
       </c>
       <c r="G42">
-        <f>E42/F42</f>
+        <f t="shared" si="3"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H42">
@@ -5587,7 +5892,7 @@
         <v>744693</v>
       </c>
       <c r="D43">
-        <f>B43/C43</f>
+        <f t="shared" si="2"/>
         <v>0.52022377006363696</v>
       </c>
       <c r="E43">
@@ -5597,7 +5902,7 @@
         <v>731739</v>
       </c>
       <c r="G43">
-        <f>E43/F43</f>
+        <f t="shared" si="3"/>
         <v>6.6180701042311538E-2</v>
       </c>
       <c r="H43">
@@ -5618,7 +5923,7 @@
         <v>661930</v>
       </c>
       <c r="D44">
-        <f>B44/C44</f>
+        <f t="shared" si="2"/>
         <v>0.49505234692490141</v>
       </c>
       <c r="E44">
@@ -5628,7 +5933,7 @@
         <v>650883</v>
       </c>
       <c r="G44">
-        <f>E44/F44</f>
+        <f t="shared" si="3"/>
         <v>2.6989489662504629E-2</v>
       </c>
       <c r="H44">
@@ -5649,7 +5954,7 @@
         <v>302391</v>
       </c>
       <c r="D45">
-        <f>B45/C45</f>
+        <f t="shared" si="2"/>
         <v>0.61714799712954416</v>
       </c>
       <c r="E45">
@@ -5659,7 +5964,7 @@
         <v>297700</v>
       </c>
       <c r="G45">
-        <f>E45/F45</f>
+        <f t="shared" si="3"/>
         <v>5.4558280147799801E-2</v>
       </c>
       <c r="H45">
@@ -5680,7 +5985,7 @@
         <v>516732</v>
       </c>
       <c r="D46">
-        <f>B46/C46</f>
+        <f t="shared" si="2"/>
         <v>0.60592918572877241</v>
       </c>
       <c r="E46">
@@ -5690,7 +5995,7 @@
         <v>507981</v>
       </c>
       <c r="G46">
-        <f>E46/F46</f>
+        <f t="shared" si="3"/>
         <v>7.9861254653225217E-2</v>
       </c>
       <c r="H46">
@@ -5711,7 +6016,7 @@
         <v>429529</v>
       </c>
       <c r="D47">
-        <f>B47/C47</f>
+        <f t="shared" si="2"/>
         <v>0.57521145254453132</v>
       </c>
       <c r="E47">
@@ -5721,7 +6026,7 @@
         <v>421256</v>
       </c>
       <c r="G47">
-        <f>E47/F47</f>
+        <f t="shared" si="3"/>
         <v>0.33110032854131455</v>
       </c>
       <c r="H47">
@@ -5742,7 +6047,7 @@
         <v>458805</v>
       </c>
       <c r="D48">
-        <f>B48/C48</f>
+        <f t="shared" si="2"/>
         <v>0.48780200738875995</v>
       </c>
       <c r="E48">
@@ -5752,7 +6057,7 @@
         <v>452312</v>
       </c>
       <c r="G48">
-        <f>E48/F48</f>
+        <f t="shared" si="3"/>
         <v>5.4296591733139957E-2</v>
       </c>
       <c r="H48">
@@ -5773,7 +6078,7 @@
         <v>419089</v>
       </c>
       <c r="D49">
-        <f>B49/C49</f>
+        <f t="shared" si="2"/>
         <v>0.56553142649890598</v>
       </c>
       <c r="E49">
@@ -5783,7 +6088,7 @@
         <v>411402</v>
       </c>
       <c r="G49">
-        <f>E49/F49</f>
+        <f t="shared" si="3"/>
         <v>4.9615704347572447E-2</v>
       </c>
       <c r="H49">
@@ -5804,7 +6109,7 @@
         <v>2548996</v>
       </c>
       <c r="D50">
-        <f>B50/C50</f>
+        <f t="shared" si="2"/>
         <v>0.51736134540815282</v>
       </c>
       <c r="E50">
@@ -5814,7 +6119,7 @@
         <v>2498849</v>
       </c>
       <c r="G50">
-        <f>E50/F50</f>
+        <f t="shared" si="3"/>
         <v>0.19518146154489527</v>
       </c>
       <c r="H50">
@@ -5835,7 +6140,7 @@
         <v>2223265</v>
       </c>
       <c r="D51">
-        <f>B51/C51</f>
+        <f t="shared" si="2"/>
         <v>0.46425909641900537</v>
       </c>
       <c r="E51">
@@ -5845,7 +6150,7 @@
         <v>2182197</v>
       </c>
       <c r="G51">
-        <f>E51/F51</f>
+        <f t="shared" si="3"/>
         <v>2.6875208791873512E-2</v>
       </c>
       <c r="H51">
@@ -5866,7 +6171,7 @@
         <v>281029</v>
       </c>
       <c r="D52">
-        <f>B52/C52</f>
+        <f t="shared" si="2"/>
         <v>0.56460365300378257</v>
       </c>
       <c r="E52">
@@ -5876,7 +6181,7 @@
         <v>275479</v>
       </c>
       <c r="G52">
-        <f>E52/F52</f>
+        <f t="shared" si="3"/>
         <v>6.9163166702362069E-2</v>
       </c>
       <c r="H52">
@@ -5897,7 +6202,7 @@
         <v>497435</v>
       </c>
       <c r="D53">
-        <f>B53/C53</f>
+        <f t="shared" si="2"/>
         <v>0.57628232834440685</v>
       </c>
       <c r="E53">
@@ -5907,7 +6212,7 @@
         <v>488952</v>
       </c>
       <c r="G53">
-        <f>E53/F53</f>
+        <f t="shared" si="3"/>
         <v>2.5845072726975244E-2</v>
       </c>
       <c r="H53">
@@ -5928,7 +6233,7 @@
         <v>1578079</v>
       </c>
       <c r="D54">
-        <f>B54/C54</f>
+        <f t="shared" si="2"/>
         <v>0.53162991206397148</v>
       </c>
       <c r="E54">
@@ -5938,7 +6243,7 @@
         <v>1546371</v>
       </c>
       <c r="G54">
-        <f>E54/F54</f>
+        <f t="shared" si="3"/>
         <v>2.1058335936201596E-2</v>
       </c>
       <c r="H54">
@@ -5959,7 +6264,7 @@
         <v>1301540</v>
       </c>
       <c r="D55">
-        <f>B55/C55</f>
+        <f t="shared" si="2"/>
         <v>0.45140295342440495</v>
       </c>
       <c r="E55">
@@ -5969,7 +6274,7 @@
         <v>1280128</v>
       </c>
       <c r="G55">
-        <f>E55/F55</f>
+        <f t="shared" si="3"/>
         <v>5.3585266473352662E-2</v>
       </c>
       <c r="H55">
@@ -5990,7 +6295,7 @@
         <v>185025</v>
       </c>
       <c r="D56">
-        <f>B56/C56</f>
+        <f t="shared" si="2"/>
         <v>0.37919200108093498</v>
       </c>
       <c r="E56">
@@ -6000,7 +6305,7 @@
         <v>187205</v>
       </c>
       <c r="G56">
-        <f>E56/F56</f>
+        <f t="shared" si="3"/>
         <v>1.6847840602548007E-2</v>
       </c>
       <c r="H56">
@@ -6021,7 +6326,7 @@
         <v>369194</v>
       </c>
       <c r="D57">
-        <f>B57/C57</f>
+        <f t="shared" si="2"/>
         <v>0.71935892782656274</v>
       </c>
       <c r="E57">
@@ -6031,7 +6336,7 @@
         <v>366168</v>
       </c>
       <c r="G57">
-        <f>E57/F57</f>
+        <f t="shared" si="3"/>
         <v>0.35683347534465054</v>
       </c>
       <c r="H57">
@@ -6052,7 +6357,7 @@
         <v>595657</v>
       </c>
       <c r="D58">
-        <f>B58/C58</f>
+        <f t="shared" si="2"/>
         <v>0.37918802263718887</v>
       </c>
       <c r="E58">
@@ -6062,7 +6367,7 @@
         <v>578100</v>
       </c>
       <c r="G58">
-        <f>E58/F58</f>
+        <f t="shared" si="3"/>
         <v>0.60784120394395436</v>
       </c>
       <c r="H58">
@@ -6083,7 +6388,7 @@
         <v>1217624</v>
       </c>
       <c r="D59">
-        <f>B59/C59</f>
+        <f t="shared" si="2"/>
         <v>0.53146045084525273</v>
       </c>
       <c r="E59">
@@ -6093,7 +6398,7 @@
         <v>1189261</v>
       </c>
       <c r="G59">
-        <f>E59/F59</f>
+        <f t="shared" si="3"/>
         <v>0.61924253801310225</v>
       </c>
       <c r="H59">
@@ -6114,7 +6419,7 @@
         <v>897040</v>
       </c>
       <c r="D60">
-        <f>B60/C60</f>
+        <f t="shared" si="2"/>
         <v>0.68960581467938997</v>
       </c>
       <c r="E60">
@@ -6124,7 +6429,7 @@
         <v>879881</v>
       </c>
       <c r="G60">
-        <f>E60/F60</f>
+        <f t="shared" si="3"/>
         <v>0.61851886789236277</v>
       </c>
       <c r="H60">
@@ -6145,7 +6450,7 @@
         <v>897040</v>
       </c>
       <c r="D61">
-        <f>B61/C61</f>
+        <f t="shared" si="2"/>
         <v>0.68960581467938997</v>
       </c>
       <c r="E61">
@@ -6155,7 +6460,7 @@
         <v>879881</v>
       </c>
       <c r="G61">
-        <f>E61/F61</f>
+        <f t="shared" si="3"/>
         <v>0.61851886789236277</v>
       </c>
       <c r="H61">
@@ -6176,7 +6481,7 @@
         <v>897040</v>
       </c>
       <c r="D62">
-        <f>B62/C62</f>
+        <f t="shared" si="2"/>
         <v>0.68960581467938997</v>
       </c>
       <c r="E62">
@@ -6186,7 +6491,7 @@
         <v>879881</v>
       </c>
       <c r="G62">
-        <f>E62/F62</f>
+        <f t="shared" si="3"/>
         <v>0.61851886789236277</v>
       </c>
       <c r="H62">
@@ -6207,7 +6512,7 @@
         <v>1131527</v>
       </c>
       <c r="D63">
-        <f>B63/C63</f>
+        <f t="shared" si="2"/>
         <v>0.46280822287051038</v>
       </c>
       <c r="E63">
@@ -6217,7 +6522,7 @@
         <v>1098078</v>
       </c>
       <c r="G63">
-        <f>E63/F63</f>
+        <f t="shared" si="3"/>
         <v>0.51769091084604191</v>
       </c>
       <c r="H63">
@@ -6238,7 +6543,7 @@
         <v>211293</v>
       </c>
       <c r="D64">
-        <f>B64/C64</f>
+        <f t="shared" si="2"/>
         <v>0.53526619433677403</v>
       </c>
       <c r="E64">
@@ -6248,7 +6553,7 @@
         <v>208212</v>
       </c>
       <c r="G64">
-        <f>E64/F64</f>
+        <f t="shared" si="3"/>
         <v>0.29887806658597965</v>
       </c>
       <c r="H64">
@@ -6269,7 +6574,7 @@
         <v>373294</v>
       </c>
       <c r="D65">
-        <f>B65/C65</f>
+        <f t="shared" si="2"/>
         <v>0.53581091579291384</v>
       </c>
       <c r="E65">
@@ -6279,7 +6584,7 @@
         <v>365300</v>
       </c>
       <c r="G65">
-        <f>E65/F65</f>
+        <f t="shared" si="3"/>
         <v>2.2389816589104845E-2</v>
       </c>
       <c r="H65">
@@ -6300,7 +6605,7 @@
         <v>1564930</v>
       </c>
       <c r="D66">
-        <f>B66/C66</f>
+        <f t="shared" ref="D66:D97" si="4">B66/C66</f>
         <v>0.52562926137271315</v>
       </c>
       <c r="E66">
@@ -6310,7 +6615,7 @@
         <v>1603486</v>
       </c>
       <c r="G66">
-        <f>E66/F66</f>
+        <f t="shared" ref="G66:G97" si="5">E66/F66</f>
         <v>2.989299563575859E-2</v>
       </c>
       <c r="H66">
@@ -6331,7 +6636,7 @@
         <v>515382</v>
       </c>
       <c r="D67">
-        <f>B67/C67</f>
+        <f t="shared" si="4"/>
         <v>0.64766716726622198</v>
       </c>
       <c r="E67">
@@ -6341,7 +6646,7 @@
         <v>504358</v>
       </c>
       <c r="G67">
-        <f>E67/F67</f>
+        <f t="shared" si="5"/>
         <v>0.35480353241150137</v>
       </c>
       <c r="H67">
@@ -6362,7 +6667,7 @@
         <v>1564930</v>
       </c>
       <c r="D68">
-        <f>B68/C68</f>
+        <f t="shared" si="4"/>
         <v>0.52562926137271315</v>
       </c>
       <c r="E68">
@@ -6372,7 +6677,7 @@
         <v>1603486</v>
       </c>
       <c r="G68">
-        <f>E68/F68</f>
+        <f t="shared" si="5"/>
         <v>2.989299563575859E-2</v>
       </c>
       <c r="H68">
@@ -6393,7 +6698,7 @@
         <v>449109</v>
       </c>
       <c r="D69">
-        <f>B69/C69</f>
+        <f t="shared" si="4"/>
         <v>0.52711257178101534</v>
       </c>
       <c r="E69">
@@ -6403,7 +6708,7 @@
         <v>438586</v>
       </c>
       <c r="G69">
-        <f>E69/F69</f>
+        <f t="shared" si="5"/>
         <v>3.8925091088178827E-2</v>
       </c>
       <c r="H69">
@@ -6424,7 +6729,7 @@
         <v>684098</v>
       </c>
       <c r="D70">
-        <f>B70/C70</f>
+        <f t="shared" si="4"/>
         <v>0.58060979567254989</v>
       </c>
       <c r="E70">
@@ -6434,7 +6739,7 @@
         <v>671593</v>
       </c>
       <c r="G70">
-        <f>E70/F70</f>
+        <f t="shared" si="5"/>
         <v>0.17081178630509847</v>
       </c>
       <c r="H70">
@@ -6455,7 +6760,7 @@
         <v>897040</v>
       </c>
       <c r="D71">
-        <f>B71/C71</f>
+        <f t="shared" si="4"/>
         <v>0.68960581467938997</v>
       </c>
       <c r="E71">
@@ -6465,7 +6770,7 @@
         <v>879881</v>
       </c>
       <c r="G71">
-        <f>E71/F71</f>
+        <f t="shared" si="5"/>
         <v>0.61851886789236277</v>
       </c>
       <c r="H71">
@@ -6486,7 +6791,7 @@
         <v>1578079</v>
       </c>
       <c r="D72">
-        <f>B72/C72</f>
+        <f t="shared" si="4"/>
         <v>0.53162991206397148</v>
       </c>
       <c r="E72">
@@ -6496,7 +6801,7 @@
         <v>1546371</v>
       </c>
       <c r="G72">
-        <f>E72/F72</f>
+        <f t="shared" si="5"/>
         <v>2.1058335936201596E-2</v>
       </c>
       <c r="H72">
@@ -6517,7 +6822,7 @@
         <v>892435</v>
       </c>
       <c r="D73">
-        <f>B73/C73</f>
+        <f t="shared" si="4"/>
         <v>0.41672614812283248</v>
       </c>
       <c r="E73">
@@ -6527,7 +6832,7 @@
         <v>881534</v>
       </c>
       <c r="G73">
-        <f>E73/F73</f>
+        <f t="shared" si="5"/>
         <v>1.5317616790730704E-2</v>
       </c>
       <c r="H73">
@@ -6548,7 +6853,7 @@
         <v>625294</v>
       </c>
       <c r="D74">
-        <f>B74/C74</f>
+        <f t="shared" si="4"/>
         <v>0.57958336398558119</v>
       </c>
       <c r="E74">
@@ -6558,7 +6863,7 @@
         <v>613550</v>
       </c>
       <c r="G74">
-        <f>E74/F74</f>
+        <f t="shared" si="5"/>
         <v>9.5237551951756177E-2</v>
       </c>
       <c r="H74">
@@ -6579,7 +6884,7 @@
         <v>2548996</v>
       </c>
       <c r="D75">
-        <f>B75/C75</f>
+        <f t="shared" si="4"/>
         <v>0.51736134540815282</v>
       </c>
       <c r="E75">
@@ -6589,7 +6894,7 @@
         <v>2498849</v>
       </c>
       <c r="G75">
-        <f>E75/F75</f>
+        <f t="shared" si="5"/>
         <v>0.19518146154489527</v>
       </c>
       <c r="H75">
@@ -6610,7 +6915,7 @@
         <v>1301540</v>
       </c>
       <c r="D76">
-        <f>B76/C76</f>
+        <f t="shared" si="4"/>
         <v>0.45140295342440495</v>
       </c>
       <c r="E76">
@@ -6620,7 +6925,7 @@
         <v>1280128</v>
       </c>
       <c r="G76">
-        <f>E76/F76</f>
+        <f t="shared" si="5"/>
         <v>5.3585266473352662E-2</v>
       </c>
       <c r="H76">
@@ -6641,7 +6946,7 @@
         <v>4869658</v>
       </c>
       <c r="D77">
-        <f>B77/C77</f>
+        <f t="shared" si="4"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E77">
@@ -6651,7 +6956,7 @@
         <v>4749180</v>
       </c>
       <c r="G77">
-        <f>E77/F77</f>
+        <f t="shared" si="5"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H77">
@@ -6672,7 +6977,7 @@
         <v>688298</v>
       </c>
       <c r="D78">
-        <f>B78/C78</f>
+        <f t="shared" si="4"/>
         <v>0.5035159189769548</v>
       </c>
       <c r="E78">
@@ -6682,7 +6987,7 @@
         <v>671083</v>
       </c>
       <c r="G78">
-        <f>E78/F78</f>
+        <f t="shared" si="5"/>
         <v>0.25333528043475995</v>
       </c>
       <c r="H78">
@@ -6703,7 +7008,7 @@
         <v>897040</v>
       </c>
       <c r="D79">
-        <f>B79/C79</f>
+        <f t="shared" si="4"/>
         <v>0.68960581467938997</v>
       </c>
       <c r="E79">
@@ -6713,7 +7018,7 @@
         <v>879881</v>
       </c>
       <c r="G79">
-        <f>E79/F79</f>
+        <f t="shared" si="5"/>
         <v>0.61851886789236277</v>
       </c>
       <c r="H79">
@@ -6734,7 +7039,7 @@
         <v>1176560</v>
       </c>
       <c r="D80">
-        <f>B80/C80</f>
+        <f t="shared" si="4"/>
         <v>0.61497841164071532</v>
       </c>
       <c r="E80">
@@ -6744,7 +7049,7 @@
         <v>1153731</v>
       </c>
       <c r="G80">
-        <f>E80/F80</f>
+        <f t="shared" si="5"/>
         <v>0.13648068743927311</v>
       </c>
       <c r="H80">
@@ -6765,7 +7070,7 @@
         <v>515382</v>
       </c>
       <c r="D81">
-        <f>B81/C81</f>
+        <f t="shared" si="4"/>
         <v>0.64766716726622198</v>
       </c>
       <c r="E81">
@@ -6775,7 +7080,7 @@
         <v>504358</v>
       </c>
       <c r="G81">
-        <f>E81/F81</f>
+        <f t="shared" si="5"/>
         <v>0.35480353241150137</v>
       </c>
       <c r="H81">
@@ -6796,7 +7101,7 @@
         <v>665406</v>
       </c>
       <c r="D82">
-        <f>B82/C82</f>
+        <f t="shared" si="4"/>
         <v>0.52032293066188162</v>
       </c>
       <c r="E82">
@@ -6806,7 +7111,7 @@
         <v>660016</v>
       </c>
       <c r="G82">
-        <f>E82/F82</f>
+        <f t="shared" si="5"/>
         <v>1.7025344840125089E-2</v>
       </c>
       <c r="H82">
@@ -6827,7 +7132,7 @@
         <v>310070</v>
       </c>
       <c r="D83">
-        <f>B83/C83</f>
+        <f t="shared" si="4"/>
         <v>0.47942077595381688</v>
       </c>
       <c r="E83">
@@ -6837,7 +7142,7 @@
         <v>300860</v>
       </c>
       <c r="G83">
-        <f>E83/F83</f>
+        <f t="shared" si="5"/>
         <v>3.4923220102373198E-2</v>
       </c>
       <c r="H83">
@@ -6858,7 +7163,7 @@
         <v>1007795</v>
       </c>
       <c r="D84">
-        <f>B84/C84</f>
+        <f t="shared" si="4"/>
         <v>0.41256108633204175</v>
       </c>
       <c r="E84">
@@ -6868,7 +7173,7 @@
         <v>984230</v>
       </c>
       <c r="G84">
-        <f>E84/F84</f>
+        <f t="shared" si="5"/>
         <v>1.3286528555317355E-2</v>
       </c>
       <c r="H84">
@@ -6889,7 +7194,7 @@
         <v>1003320</v>
       </c>
       <c r="D85">
-        <f>B85/C85</f>
+        <f t="shared" si="4"/>
         <v>0.40215384922058767</v>
       </c>
       <c r="E85">
@@ -6899,7 +7204,7 @@
         <v>989494</v>
       </c>
       <c r="G85">
-        <f>E85/F85</f>
+        <f t="shared" si="5"/>
         <v>3.8330702358983483E-2</v>
       </c>
       <c r="H85">
@@ -6920,7 +7225,7 @@
         <v>389034</v>
       </c>
       <c r="D86">
-        <f>B86/C86</f>
+        <f t="shared" si="4"/>
         <v>0.56869322475670503</v>
       </c>
       <c r="E86">
@@ -6930,7 +7235,7 @@
         <v>382460</v>
       </c>
       <c r="G86">
-        <f>E86/F86</f>
+        <f t="shared" si="5"/>
         <v>6.7800554306332694E-2</v>
       </c>
       <c r="H86">
@@ -6951,7 +7256,7 @@
         <v>409911</v>
       </c>
       <c r="D87">
-        <f>B87/C87</f>
+        <f t="shared" si="4"/>
         <v>0.59108196657323175</v>
       </c>
       <c r="E87">
@@ -6961,7 +7266,7 @@
         <v>401339</v>
       </c>
       <c r="G87">
-        <f>E87/F87</f>
+        <f t="shared" si="5"/>
         <v>0.10819033286074864</v>
       </c>
       <c r="H87">
@@ -6982,7 +7287,7 @@
         <v>4869658</v>
       </c>
       <c r="D88">
-        <f>B88/C88</f>
+        <f t="shared" si="4"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E88">
@@ -6992,7 +7297,7 @@
         <v>4749180</v>
       </c>
       <c r="G88">
-        <f>E88/F88</f>
+        <f t="shared" si="5"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H88">
@@ -7013,7 +7318,7 @@
         <v>134904</v>
       </c>
       <c r="D89">
-        <f>B89/C89</f>
+        <f t="shared" si="4"/>
         <v>0.50925102294965308</v>
       </c>
       <c r="E89">
@@ -7023,7 +7328,7 @@
         <v>131355</v>
       </c>
       <c r="G89">
-        <f>E89/F89</f>
+        <f t="shared" si="5"/>
         <v>2.9979825663278902E-2</v>
       </c>
       <c r="H89">
@@ -7044,7 +7349,7 @@
         <v>688298</v>
       </c>
       <c r="D90">
-        <f>B90/C90</f>
+        <f t="shared" si="4"/>
         <v>0.5035159189769548</v>
       </c>
       <c r="E90">
@@ -7054,7 +7359,7 @@
         <v>671083</v>
       </c>
       <c r="G90">
-        <f>E90/F90</f>
+        <f t="shared" si="5"/>
         <v>0.25333528043475995</v>
       </c>
       <c r="H90">
@@ -7075,7 +7380,7 @@
         <v>688298</v>
       </c>
       <c r="D91">
-        <f>B91/C91</f>
+        <f t="shared" si="4"/>
         <v>0.5035159189769548</v>
       </c>
       <c r="E91">
@@ -7085,7 +7390,7 @@
         <v>671083</v>
       </c>
       <c r="G91">
-        <f>E91/F91</f>
+        <f t="shared" si="5"/>
         <v>0.25333528043475995</v>
       </c>
       <c r="H91">
@@ -7106,7 +7411,7 @@
         <v>427791</v>
       </c>
       <c r="D92">
-        <f>B92/C92</f>
+        <f t="shared" si="4"/>
         <v>0.5394947532790545</v>
       </c>
       <c r="E92">
@@ -7116,7 +7421,7 @@
         <v>420437</v>
       </c>
       <c r="G92">
-        <f>E92/F92</f>
+        <f t="shared" si="5"/>
         <v>4.2888708653139471E-2</v>
       </c>
       <c r="H92">
@@ -7137,7 +7442,7 @@
         <v>734480</v>
       </c>
       <c r="D93">
-        <f>B93/C93</f>
+        <f t="shared" si="4"/>
         <v>0.44607749700468358</v>
       </c>
       <c r="E93">
@@ -7147,7 +7452,7 @@
         <v>718904</v>
       </c>
       <c r="G93">
-        <f>E93/F93</f>
+        <f t="shared" si="5"/>
         <v>3.1239219701100565E-2</v>
       </c>
       <c r="H93">
@@ -7168,7 +7473,7 @@
         <v>402685</v>
       </c>
       <c r="D94">
-        <f>B94/C94</f>
+        <f t="shared" si="4"/>
         <v>0.53762866756894345</v>
       </c>
       <c r="E94">
@@ -7178,7 +7483,7 @@
         <v>394869</v>
       </c>
       <c r="G94">
-        <f>E94/F94</f>
+        <f t="shared" si="5"/>
         <v>3.7602344068539184E-2</v>
       </c>
       <c r="H94">
@@ -7199,7 +7504,7 @@
         <v>1176560</v>
       </c>
       <c r="D95">
-        <f>B95/C95</f>
+        <f t="shared" si="4"/>
         <v>0.61497841164071532</v>
       </c>
       <c r="E95">
@@ -7209,7 +7514,7 @@
         <v>1153731</v>
       </c>
       <c r="G95">
-        <f>E95/F95</f>
+        <f t="shared" si="5"/>
         <v>0.13648068743927311</v>
       </c>
       <c r="H95">
@@ -7230,7 +7535,7 @@
         <v>744693</v>
       </c>
       <c r="D96">
-        <f>B96/C96</f>
+        <f t="shared" si="4"/>
         <v>0.52022377006363696</v>
       </c>
       <c r="E96">
@@ -7240,7 +7545,7 @@
         <v>731739</v>
       </c>
       <c r="G96">
-        <f>E96/F96</f>
+        <f t="shared" si="5"/>
         <v>6.6180701042311538E-2</v>
       </c>
       <c r="H96">
@@ -7261,7 +7566,7 @@
         <v>402685</v>
       </c>
       <c r="D97">
-        <f>B97/C97</f>
+        <f t="shared" si="4"/>
         <v>0.53762866756894345</v>
       </c>
       <c r="E97">
@@ -7271,7 +7576,7 @@
         <v>394869</v>
       </c>
       <c r="G97">
-        <f>E97/F97</f>
+        <f t="shared" si="5"/>
         <v>3.7602344068539184E-2</v>
       </c>
       <c r="H97">
@@ -7292,7 +7597,7 @@
         <v>380718</v>
       </c>
       <c r="D98">
-        <f>B98/C98</f>
+        <f t="shared" ref="D98:D129" si="6">B98/C98</f>
         <v>0.49834260528790336</v>
       </c>
       <c r="E98">
@@ -7302,7 +7607,7 @@
         <v>372989</v>
       </c>
       <c r="G98">
-        <f>E98/F98</f>
+        <f t="shared" ref="G98:G129" si="7">E98/F98</f>
         <v>2.8585293400073462E-2</v>
       </c>
       <c r="H98">
@@ -7323,7 +7628,7 @@
         <v>50250</v>
       </c>
       <c r="D99">
-        <f>B99/C99</f>
+        <f t="shared" si="6"/>
         <v>0.62417910447761193</v>
       </c>
       <c r="E99">
@@ -7333,7 +7638,7 @@
         <v>48599</v>
       </c>
       <c r="G99">
-        <f>E99/F99</f>
+        <f t="shared" si="7"/>
         <v>6.5742093458713138E-2</v>
       </c>
       <c r="H99">
@@ -7354,7 +7659,7 @@
         <v>329336</v>
       </c>
       <c r="D100">
-        <f>B100/C100</f>
+        <f t="shared" si="6"/>
         <v>0.48291106954599555</v>
       </c>
       <c r="E100">
@@ -7364,7 +7669,7 @@
         <v>322958</v>
       </c>
       <c r="G100">
-        <f>E100/F100</f>
+        <f t="shared" si="7"/>
         <v>2.0467057635977434E-2</v>
       </c>
       <c r="H100">
@@ -7385,7 +7690,7 @@
         <v>187609</v>
       </c>
       <c r="D101">
-        <f>B101/C101</f>
+        <f t="shared" si="6"/>
         <v>0.62358948664509695</v>
       </c>
       <c r="E101">
@@ -7395,7 +7700,7 @@
         <v>183575</v>
       </c>
       <c r="G101">
-        <f>E101/F101</f>
+        <f t="shared" si="7"/>
         <v>5.3084570339098462E-2</v>
       </c>
       <c r="H101">
@@ -7416,7 +7721,7 @@
         <v>470748</v>
       </c>
       <c r="D102">
-        <f>B102/C102</f>
+        <f t="shared" si="6"/>
         <v>0.4885055273734567</v>
       </c>
       <c r="E102">
@@ -7426,7 +7731,7 @@
         <v>498142</v>
       </c>
       <c r="G102">
-        <f>E102/F102</f>
+        <f t="shared" si="7"/>
         <v>8.4696733060051155E-2</v>
       </c>
       <c r="H102">
@@ -7447,7 +7752,7 @@
         <v>4869658</v>
       </c>
       <c r="D103">
-        <f>B103/C103</f>
+        <f t="shared" si="6"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E103">
@@ -7457,7 +7762,7 @@
         <v>4749180</v>
       </c>
       <c r="G103">
-        <f>E103/F103</f>
+        <f t="shared" si="7"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H103">
@@ -7478,7 +7783,7 @@
         <v>430606</v>
       </c>
       <c r="D104">
-        <f>B104/C104</f>
+        <f t="shared" si="6"/>
         <v>0.56623688476240464</v>
       </c>
       <c r="E104">
@@ -7488,7 +7793,7 @@
         <v>422229</v>
       </c>
       <c r="G104">
-        <f>E104/F104</f>
+        <f t="shared" si="7"/>
         <v>0.11751442937363374</v>
       </c>
       <c r="H104">
@@ -7509,7 +7814,7 @@
         <v>1301540</v>
       </c>
       <c r="D105">
-        <f>B105/C105</f>
+        <f t="shared" si="6"/>
         <v>0.45140295342440495</v>
       </c>
       <c r="E105">
@@ -7519,7 +7824,7 @@
         <v>1280128</v>
       </c>
       <c r="G105">
-        <f>E105/F105</f>
+        <f t="shared" si="7"/>
         <v>5.3585266473352662E-2</v>
       </c>
       <c r="H105">
@@ -7540,7 +7845,7 @@
         <v>187609</v>
       </c>
       <c r="D106">
-        <f>B106/C106</f>
+        <f t="shared" si="6"/>
         <v>0.62358948664509695</v>
       </c>
       <c r="E106">
@@ -7550,7 +7855,7 @@
         <v>183575</v>
       </c>
       <c r="G106">
-        <f>E106/F106</f>
+        <f t="shared" si="7"/>
         <v>5.3084570339098462E-2</v>
       </c>
       <c r="H106">
@@ -7571,7 +7876,7 @@
         <v>847170</v>
       </c>
       <c r="D107">
-        <f>B107/C107</f>
+        <f t="shared" si="6"/>
         <v>0.5931808255721992</v>
       </c>
       <c r="E107">
@@ -7581,7 +7886,7 @@
         <v>767292</v>
       </c>
       <c r="G107">
-        <f>E107/F107</f>
+        <f t="shared" si="7"/>
         <v>0.15202035209542131</v>
       </c>
       <c r="H107">
@@ -7602,7 +7907,7 @@
         <v>576623</v>
       </c>
       <c r="D108">
-        <f>B108/C108</f>
+        <f t="shared" si="6"/>
         <v>0.53623771511021934</v>
       </c>
       <c r="E108">
@@ -7612,7 +7917,7 @@
         <v>569309</v>
       </c>
       <c r="G108">
-        <f>E108/F108</f>
+        <f t="shared" si="7"/>
         <v>3.8409721258578382E-2</v>
       </c>
       <c r="H108">
@@ -7633,7 +7938,7 @@
         <v>2004236</v>
       </c>
       <c r="D109">
-        <f>B109/C109</f>
+        <f t="shared" si="6"/>
         <v>0.51135295444249085</v>
       </c>
       <c r="E109">
@@ -7643,7 +7948,7 @@
         <v>1976339</v>
       </c>
       <c r="G109">
-        <f>E109/F109</f>
+        <f t="shared" si="7"/>
         <v>2.247185325999234E-2</v>
       </c>
       <c r="H109">
@@ -7664,7 +7969,7 @@
         <v>887464</v>
       </c>
       <c r="D110">
-        <f>B110/C110</f>
+        <f t="shared" si="6"/>
         <v>0.48345510353096011</v>
       </c>
       <c r="E110">
@@ -7674,7 +7979,7 @@
         <v>889387</v>
       </c>
       <c r="G110">
-        <f>E110/F110</f>
+        <f t="shared" si="7"/>
         <v>2.5399516745803569E-2</v>
       </c>
       <c r="H110">
@@ -7695,7 +8000,7 @@
         <v>389034</v>
       </c>
       <c r="D111">
-        <f>B111/C111</f>
+        <f t="shared" si="6"/>
         <v>0.56869322475670503</v>
       </c>
       <c r="E111">
@@ -7705,7 +8010,7 @@
         <v>382460</v>
       </c>
       <c r="G111">
-        <f>E111/F111</f>
+        <f t="shared" si="7"/>
         <v>6.7800554306332694E-2</v>
       </c>
       <c r="H111">
@@ -7726,7 +8031,7 @@
         <v>985838</v>
       </c>
       <c r="D112">
-        <f>B112/C112</f>
+        <f t="shared" si="6"/>
         <v>0.62027838245228928</v>
       </c>
       <c r="E112">
@@ -7736,7 +8041,7 @@
         <v>955422</v>
       </c>
       <c r="G112">
-        <f>E112/F112</f>
+        <f t="shared" si="7"/>
         <v>4.5194688839067972E-2</v>
       </c>
       <c r="H112">
@@ -7757,7 +8062,7 @@
         <v>4869658</v>
       </c>
       <c r="D113">
-        <f>B113/C113</f>
+        <f t="shared" si="6"/>
         <v>0.49090901250149394</v>
       </c>
       <c r="E113">
@@ -7767,7 +8072,7 @@
         <v>4749180</v>
       </c>
       <c r="G113">
-        <f>E113/F113</f>
+        <f t="shared" si="7"/>
         <v>6.2105879330747626E-2</v>
       </c>
       <c r="H113">
@@ -7788,7 +8093,7 @@
         <v>369194</v>
       </c>
       <c r="D114">
-        <f>B114/C114</f>
+        <f t="shared" si="6"/>
         <v>0.71935892782656274</v>
       </c>
       <c r="E114">
@@ -7798,7 +8103,7 @@
         <v>366168</v>
       </c>
       <c r="G114">
-        <f>E114/F114</f>
+        <f t="shared" si="7"/>
         <v>0.35683347534465054</v>
       </c>
       <c r="H114">
@@ -8750,8 +9055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,4 +10764,3243 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2">
+        <v>4.3278030000000002E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.1446908</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>L2-K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">C3-B3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3">
+        <v>7.127037E-2</v>
+      </c>
+      <c r="J3">
+        <v>1.3411143000000001</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>L3-K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4">
+        <v>7.5795639999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.19004015</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>L4-K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5">
+        <v>8.3861679999999994E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.5576207399999999</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>L5-K5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6">
+        <v>8.5565779999999994E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.46100213</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>L6-K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>8.8676050000000006E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.9936664900000001</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>L7-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>9.9220210000000003E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.39634349</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f>L8-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9">
+        <v>0.10375334</v>
+      </c>
+      <c r="J9">
+        <v>1.5322797699999999</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f>L9-K9</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10">
+        <v>0.10477593</v>
+      </c>
+      <c r="J10">
+        <v>1.33147796</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f>L10-K10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I11">
+        <v>0.1159333</v>
+      </c>
+      <c r="J11">
+        <v>1.58178156</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>L11-K11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12">
+        <v>0.11623726</v>
+      </c>
+      <c r="J12">
+        <v>1.97309917</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f>L12-K12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13">
+        <v>0.1173023</v>
+      </c>
+      <c r="J13">
+        <v>2.1931141699999999</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>L13-K13</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>298</v>
+      </c>
+      <c r="I14">
+        <v>0.12023318</v>
+      </c>
+      <c r="J14">
+        <v>1.61434536</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f>L14-K14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15">
+        <v>0.1314372</v>
+      </c>
+      <c r="J15">
+        <v>2.27248048</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <f>L15-K15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16">
+        <v>0.13492626999999999</v>
+      </c>
+      <c r="J16">
+        <v>1.2832830500000001</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f>L16-K16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I17">
+        <v>0.13915289</v>
+      </c>
+      <c r="J17">
+        <v>2.3133074200000001</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <f>L17-K17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18">
+        <v>0.14686801999999999</v>
+      </c>
+      <c r="J18">
+        <v>2.0291801600000001</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <f>L18-K18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19">
+        <v>0.14894868999999999</v>
+      </c>
+      <c r="J19">
+        <v>1.45937608</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <f>L19-K19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20">
+        <v>0.14986072</v>
+      </c>
+      <c r="J20">
+        <v>2.02064048</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f>L20-K20</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>297</v>
+      </c>
+      <c r="I21">
+        <v>0.15265583999999999</v>
+      </c>
+      <c r="J21">
+        <v>1.59341187</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f>L21-K21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I22">
+        <v>0.15311859</v>
+      </c>
+      <c r="J22">
+        <v>1.37735695</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f>L22-K22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>296</v>
+      </c>
+      <c r="I23">
+        <v>0.15464808999999999</v>
+      </c>
+      <c r="J23">
+        <v>1.81420889</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f>L23-K23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24">
+        <v>0.15785101000000001</v>
+      </c>
+      <c r="J24">
+        <v>2.7148999599999999</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <f>L24-K24</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25">
+        <v>0.15825069</v>
+      </c>
+      <c r="J25">
+        <v>1.8749288</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f>L25-K25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26">
+        <v>0.16459402000000001</v>
+      </c>
+      <c r="J26">
+        <v>1.56497489</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>L26-K26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I27">
+        <v>0.17511752999999999</v>
+      </c>
+      <c r="J27">
+        <v>2.6705376699999999</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f>L27-K27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>264</v>
+      </c>
+      <c r="I28">
+        <v>0.17999794999999999</v>
+      </c>
+      <c r="J28">
+        <v>2.0889752499999998</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f>L28-K28</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I29">
+        <v>0.18073905000000001</v>
+      </c>
+      <c r="J29">
+        <v>1.4813934200000001</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <f>L29-K29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I30">
+        <v>0.18735645000000001</v>
+      </c>
+      <c r="J30">
+        <v>1.42100596</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f>L30-K30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>301</v>
+      </c>
+      <c r="I31">
+        <v>0.19305162000000001</v>
+      </c>
+      <c r="J31">
+        <v>1.7592599900000001</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f>L31-K31</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32">
+        <v>0.19334659000000001</v>
+      </c>
+      <c r="J32">
+        <v>1.48483305</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f>L32-K32</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>311</v>
+      </c>
+      <c r="I33">
+        <v>0.19486084000000001</v>
+      </c>
+      <c r="J33">
+        <v>2.1791779400000002</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <f>L33-K33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>328</v>
+      </c>
+      <c r="I34">
+        <v>0.19655091</v>
+      </c>
+      <c r="J34">
+        <v>2.6069159599999998</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f>L34-K34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35">
+        <v>0.20758035</v>
+      </c>
+      <c r="J35">
+        <v>3.05339757</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f>L35-K35</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36">
+        <v>0.20965339</v>
+      </c>
+      <c r="J36">
+        <v>1.7412686399999999</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <f>L36-K36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>269</v>
+      </c>
+      <c r="I37">
+        <v>0.21290025000000001</v>
+      </c>
+      <c r="J37">
+        <v>1.39142308</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f>L37-K37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38">
+        <v>0.21484070999999999</v>
+      </c>
+      <c r="J38">
+        <v>1.9700795200000001</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f>L38-K38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>241</v>
+      </c>
+      <c r="I39">
+        <v>0.22029909</v>
+      </c>
+      <c r="J39">
+        <v>2.1861478000000001</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <f>L39-K39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>261</v>
+      </c>
+      <c r="I40">
+        <v>0.22772769000000001</v>
+      </c>
+      <c r="J40">
+        <v>1.8502223499999999</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f>L40-K40</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>303</v>
+      </c>
+      <c r="I41">
+        <v>0.23213932000000001</v>
+      </c>
+      <c r="J41">
+        <v>1.92004519</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f>L41-K41</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I42">
+        <v>0.23252613999999999</v>
+      </c>
+      <c r="J42">
+        <v>2.1899072400000001</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <f>L42-K42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>332</v>
+      </c>
+      <c r="I43">
+        <v>0.23423925000000001</v>
+      </c>
+      <c r="J43">
+        <v>1.22806613</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <f>L43-K43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>252</v>
+      </c>
+      <c r="I44">
+        <v>0.24050368</v>
+      </c>
+      <c r="J44">
+        <v>1.6499794000000001</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <f>L44-K44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>287</v>
+      </c>
+      <c r="I45">
+        <v>0.24538948999999999</v>
+      </c>
+      <c r="J45">
+        <v>2.0839491400000001</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f>L45-K45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>268</v>
+      </c>
+      <c r="I46">
+        <v>0.25355475</v>
+      </c>
+      <c r="J46">
+        <v>2.3791786899999998</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f>L46-K46</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>331</v>
+      </c>
+      <c r="I47">
+        <v>0.25458567999999998</v>
+      </c>
+      <c r="J47">
+        <v>2.3477801700000001</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <f>L47-K47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48">
+        <v>0.25479332999999998</v>
+      </c>
+      <c r="J48">
+        <v>2.7090044400000002</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <f>L48-K48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>263</v>
+      </c>
+      <c r="I49">
+        <v>0.25668616999999999</v>
+      </c>
+      <c r="J49">
+        <v>1.2898730899999999</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <f>L49-K49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50">
+        <v>0.25793327999999999</v>
+      </c>
+      <c r="J50">
+        <v>1.7822229599999999</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <f>L50-K50</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>267</v>
+      </c>
+      <c r="I51">
+        <v>0.26418438999999999</v>
+      </c>
+      <c r="J51">
+        <v>2.2872020499999999</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <f>L51-K51</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>289</v>
+      </c>
+      <c r="I52">
+        <v>0.26534348000000002</v>
+      </c>
+      <c r="J52">
+        <v>2.0282436399999999</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <f>L52-K52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53">
+        <v>0.26576302000000002</v>
+      </c>
+      <c r="J53">
+        <v>2.0529755000000001</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <f>L53-K53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>266</v>
+      </c>
+      <c r="I54">
+        <v>0.26706574</v>
+      </c>
+      <c r="J54">
+        <v>2.2380200399999999</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <f>L54-K54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>293</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>293</v>
+      </c>
+      <c r="I55">
+        <v>0.27439752000000001</v>
+      </c>
+      <c r="J55">
+        <v>1.8236129599999999</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <f>L55-K55</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>294</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>291</v>
+      </c>
+      <c r="I56">
+        <v>0.27487536000000001</v>
+      </c>
+      <c r="J56">
+        <v>2.006669</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <f>L56-K56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>295</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>288</v>
+      </c>
+      <c r="I57">
+        <v>0.28688316000000003</v>
+      </c>
+      <c r="J57">
+        <v>2.2102161699999998</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <f>L57-K57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58">
+        <v>0.29099573000000001</v>
+      </c>
+      <c r="J58">
+        <v>1.9285247400000001</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <f>L58-K58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59">
+        <v>0.29740329999999998</v>
+      </c>
+      <c r="J59">
+        <v>1.8151482999999999</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <f>L59-K59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>281</v>
+      </c>
+      <c r="I60">
+        <v>0.31041459999999998</v>
+      </c>
+      <c r="J60">
+        <v>1.7872939800000001</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <f>L60-K60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>305</v>
+      </c>
+      <c r="I61">
+        <v>0.31121333000000001</v>
+      </c>
+      <c r="J61">
+        <v>2.8073161999999998</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <f>L61-K61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>275</v>
+      </c>
+      <c r="I62">
+        <v>0.32024185999999999</v>
+      </c>
+      <c r="J62">
+        <v>1.8380545399999999</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <f>L62-K62</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>262</v>
+      </c>
+      <c r="I63">
+        <v>0.32363326999999997</v>
+      </c>
+      <c r="J63">
+        <v>3.11833333</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <f>L63-K63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>255</v>
+      </c>
+      <c r="I64">
+        <v>0.32505911999999998</v>
+      </c>
+      <c r="J64">
+        <v>1.5692139199999999</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <f>L64-K64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>286</v>
+      </c>
+      <c r="I65">
+        <v>0.34797589000000001</v>
+      </c>
+      <c r="J65">
+        <v>1.9130361600000001</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <f>L65-K65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>304</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>256</v>
+      </c>
+      <c r="I66">
+        <v>0.34950361000000002</v>
+      </c>
+      <c r="J66">
+        <v>2.8814647600000001</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <f>L66-K66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D94" si="1">C67-B67</f>
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>257</v>
+      </c>
+      <c r="I67">
+        <v>0.35080951999999999</v>
+      </c>
+      <c r="J67">
+        <v>1.2846979599999999</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <f>L67-K67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>253</v>
+      </c>
+      <c r="I68">
+        <v>0.3624328</v>
+      </c>
+      <c r="J68">
+        <v>2.25995898</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <f>L68-K68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>307</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69">
+        <v>0.36266353000000001</v>
+      </c>
+      <c r="J69">
+        <v>2.8194265299999999</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <f>L69-K69</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>308</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>308</v>
+      </c>
+      <c r="I70">
+        <v>0.36660913000000001</v>
+      </c>
+      <c r="J70">
+        <v>2.50034789</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f>L70-K70</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>318</v>
+      </c>
+      <c r="I71">
+        <v>0.38630173000000001</v>
+      </c>
+      <c r="J71">
+        <v>1.8347815300000001</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f>L71-K71</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>250</v>
+      </c>
+      <c r="I72">
+        <v>0.39822479</v>
+      </c>
+      <c r="J72">
+        <v>2.7315616500000002</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f>L72-K72</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>311</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>285</v>
+      </c>
+      <c r="I73">
+        <v>0.40920095000000001</v>
+      </c>
+      <c r="J73">
+        <v>1.61454506</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f>L73-K73</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74">
+        <v>0.41590286999999998</v>
+      </c>
+      <c r="J74">
+        <v>2.2258879299999998</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <f>L74-K74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>325</v>
+      </c>
+      <c r="I75">
+        <v>0.42645085999999999</v>
+      </c>
+      <c r="J75">
+        <v>1.9370743100000001</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <f>L75-K75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>330</v>
+      </c>
+      <c r="I76">
+        <v>0.42663975999999998</v>
+      </c>
+      <c r="J76">
+        <v>3.3703412899999998</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f>L76-K76</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>265</v>
+      </c>
+      <c r="I77">
+        <v>0.46041483</v>
+      </c>
+      <c r="J77">
+        <v>2.7566763500000002</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <f>L77-K77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>273</v>
+      </c>
+      <c r="I78">
+        <v>0.48176442000000003</v>
+      </c>
+      <c r="J78">
+        <v>1.7480399900000001</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <f>L78-K78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>272</v>
+      </c>
+      <c r="I79">
+        <v>0.48454437</v>
+      </c>
+      <c r="J79">
+        <v>3.8720663499999999</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <f>L79-K79</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>242</v>
+      </c>
+      <c r="I80">
+        <v>0.51129513000000004</v>
+      </c>
+      <c r="J80">
+        <v>2.9673903300000002</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <f>L80-K80</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>246</v>
+      </c>
+      <c r="I81">
+        <v>0.51565824000000005</v>
+      </c>
+      <c r="J81">
+        <v>1.30145541</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <f>L81-K81</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82">
+        <v>0.51917833000000002</v>
+      </c>
+      <c r="J82">
+        <v>2.1343557099999999</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <f>L82-K82</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>279</v>
+      </c>
+      <c r="I83">
+        <v>0.52011282000000003</v>
+      </c>
+      <c r="J83">
+        <v>1.8571499</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <f>L83-K83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>322</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>295</v>
+      </c>
+      <c r="I84">
+        <v>0.52108323999999995</v>
+      </c>
+      <c r="J84">
+        <v>1.9711519900000001</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f>L84-K84</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>323</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>240</v>
+      </c>
+      <c r="I85">
+        <v>0.52895150000000002</v>
+      </c>
+      <c r="J85">
+        <v>3.0447671500000002</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f>L85-K85</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>324</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>313</v>
+      </c>
+      <c r="I86">
+        <v>0.53366875999999996</v>
+      </c>
+      <c r="J86">
+        <v>2.3147821300000002</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <f>L86-K86</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>314</v>
+      </c>
+      <c r="I87">
+        <v>0.55020795</v>
+      </c>
+      <c r="J87">
+        <v>2.3868229400000001</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <f>L87-K87</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>326</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>329</v>
+      </c>
+      <c r="I88">
+        <v>0.55131863999999997</v>
+      </c>
+      <c r="J88">
+        <v>3.9862582999999998</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <f>L88-K88</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>323</v>
+      </c>
+      <c r="I89">
+        <v>0.56372677999999998</v>
+      </c>
+      <c r="J89">
+        <v>4.1389541899999998</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <f>L89-K89</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>317</v>
+      </c>
+      <c r="I90">
+        <v>0.57570246999999997</v>
+      </c>
+      <c r="J90">
+        <v>1.9317715200000001</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <f>L90-K90</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>329</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>310</v>
+      </c>
+      <c r="I91">
+        <v>0.57649024000000004</v>
+      </c>
+      <c r="J91">
+        <v>2.1023181599999998</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <f>L91-K91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I92">
+        <v>0.69295068999999998</v>
+      </c>
+      <c r="J92">
+        <v>3.23690072</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <f>L92-K92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>322</v>
+      </c>
+      <c r="I93">
+        <v>0.74675482999999998</v>
+      </c>
+      <c r="J93">
+        <v>2.3976048599999999</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <f>L93-K93</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>327</v>
+      </c>
+      <c r="I94">
+        <v>0.75548351000000002</v>
+      </c>
+      <c r="J94">
+        <v>3.4919083999999998</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <f>L94-K94</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>338</v>
+      </c>
+      <c r="F97">
+        <f>COUNTIF($D$2:$D$94,"&gt;0")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>336</v>
+      </c>
+      <c r="F98">
+        <f>COUNTIF($D$2:$D$94,"=0")</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>337</v>
+      </c>
+      <c r="F99">
+        <f>COUNTIF($D$2:$D$94,"&lt;0")</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H1:M94">
+    <sortState ref="H2:M94">
+      <sortCondition ref="I1:I94"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4353,7 +4352,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5323,7 +5321,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11128,8 +11125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11888,6 +11885,24 @@
       <c r="I26">
         <f t="shared" si="0"/>
         <v>-0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>C26-B26</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="D27">
+        <f>E26-D26</f>
+        <v>-0.625</v>
+      </c>
+      <c r="F27">
+        <f>G26-F26</f>
+        <v>-0.58333333333333326</v>
+      </c>
+      <c r="H27">
+        <f>I26-H26</f>
+        <v>0.70833333333333326</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -22237,7 +22252,7 @@
         <v>2</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M97" si="3">L66-K66</f>
+        <f t="shared" ref="M66:M94" si="3">L66-K66</f>
         <v>0</v>
       </c>
     </row>
@@ -47499,7 +47514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>

--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="392">
   <si>
     <t># transit systems with positive response from divergent point</t>
   </si>
@@ -1201,6 +1201,18 @@
   <si>
     <t># Total posts</t>
   </si>
+  <si>
+    <t>NZ_morning_shift</t>
+  </si>
+  <si>
+    <t>NZ_afternoon_shift</t>
+  </si>
+  <si>
+    <t>AU_morning_shift</t>
+  </si>
+  <si>
+    <t>AU_afternoon_shift</t>
+  </si>
 </sst>
 </file>
 
@@ -4270,7 +4282,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11123,15 +11134,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>377</v>
       </c>
@@ -11156,8 +11167,20 @@
       <c r="I1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20200316</v>
       </c>
@@ -11185,8 +11208,20 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20200317</v>
       </c>
@@ -11214,8 +11249,20 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20200318</v>
       </c>
@@ -11243,8 +11290,20 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20200319</v>
       </c>
@@ -11272,8 +11331,20 @@
       <c r="I5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20200320</v>
       </c>
@@ -11301,8 +11372,20 @@
       <c r="I6">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20200323</v>
       </c>
@@ -11330,8 +11413,20 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20200324</v>
       </c>
@@ -11359,8 +11454,20 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20200325</v>
       </c>
@@ -11388,8 +11495,20 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20200326</v>
       </c>
@@ -11417,8 +11536,20 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20200327</v>
       </c>
@@ -11446,8 +11577,20 @@
       <c r="I11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20200330</v>
       </c>
@@ -11475,8 +11618,20 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20200331</v>
       </c>
@@ -11504,8 +11659,20 @@
       <c r="I13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20200401</v>
       </c>
@@ -11533,8 +11700,20 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>-2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20200402</v>
       </c>
@@ -11562,8 +11741,20 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20200403</v>
       </c>
@@ -11591,8 +11782,20 @@
       <c r="I16">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20200406</v>
       </c>
@@ -11620,8 +11823,20 @@
       <c r="I17">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20200407</v>
       </c>
@@ -11649,8 +11864,20 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20200408</v>
       </c>
@@ -11678,8 +11905,20 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20200409</v>
       </c>
@@ -11707,8 +11946,20 @@
       <c r="I20">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20200410</v>
       </c>
@@ -11736,8 +11987,20 @@
       <c r="I21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20200413</v>
       </c>
@@ -11765,8 +12028,20 @@
       <c r="I22">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>-4</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20200414</v>
       </c>
@@ -11794,8 +12069,20 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>-4</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20200415</v>
       </c>
@@ -11823,8 +12110,20 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>-2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20200416</v>
       </c>
@@ -11852,97 +12151,145 @@
       <c r="I25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>-3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20200417</v>
+      </c>
       <c r="B26">
-        <f>AVERAGE(B2:B25)</f>
-        <v>-1.0416666666666667</v>
+        <v>-5</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:I26" si="0">AVERAGE(C2:C25)</f>
-        <v>0.29166666666666669</v>
+        <v>-2</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="H26">
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <v>-1</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>AVERAGE(B2:B26)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:M27" si="0">AVERAGE(C2:C26)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D27">
         <f t="shared" si="0"/>
-        <v>-0.125</v>
-      </c>
-      <c r="E26">
+        <v>-0.12</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
-      </c>
-      <c r="F26">
+        <v>-0.72</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="0"/>
-        <v>-1.7083333333333333</v>
-      </c>
-      <c r="G26">
+        <v>-1.72</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="0"/>
-        <v>-2.2916666666666665</v>
-      </c>
-      <c r="H26">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
-        <v>-1.125</v>
-      </c>
-      <c r="I26">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>C26-B26</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="D27">
-        <f>E26-D26</f>
-        <v>-0.625</v>
-      </c>
-      <c r="F27">
-        <f>G26-F26</f>
-        <v>-0.58333333333333326</v>
-      </c>
-      <c r="H27">
-        <f>I26-H26</f>
-        <v>0.70833333333333326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>-0.44</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>-0.52</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>C27-B27</f>
+        <v>1.4</v>
+      </c>
+      <c r="D28">
+        <f>E27-D27</f>
+        <v>-0.6</v>
+      </c>
+      <c r="F28">
+        <f>G27-F27</f>
+        <v>-0.52000000000000024</v>
+      </c>
+      <c r="H28">
+        <f>I27-H27</f>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="J28">
+        <f>K27-J27</f>
+        <v>-1.76</v>
+      </c>
+      <c r="L28">
+        <f>M27-L27</f>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>20200321</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>-3</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>3</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>-2</v>
-      </c>
-      <c r="G30">
-        <v>-6</v>
-      </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
-      <c r="I30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20200322</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -11954,7 +12301,7 @@
         <v>-2</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -11962,16 +12309,28 @@
       <c r="I31">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>-1</v>
+      </c>
+      <c r="K31">
+        <v>-2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20200328</v>
+        <v>20200322</v>
       </c>
       <c r="B32">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -11983,7 +12342,7 @@
         <v>-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -11991,16 +12350,28 @@
       <c r="I32">
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20200329</v>
+        <v>20200328</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -12012,24 +12383,36 @@
         <v>-2</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20200404</v>
+        <v>20200329</v>
       </c>
       <c r="B34">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -12041,24 +12424,36 @@
         <v>-2</v>
       </c>
       <c r="G34">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="H34">
         <v>-1</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20200405</v>
+        <v>20200404</v>
       </c>
       <c r="B35">
         <v>-3</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -12070,27 +12465,39 @@
         <v>-2</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H35">
         <v>-1</v>
       </c>
       <c r="I35">
+        <v>-1</v>
+      </c>
+      <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20200411</v>
+        <v>20200405</v>
       </c>
       <c r="B36">
+        <v>-3</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>-1</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -12099,7 +12506,7 @@
         <v>-2</v>
       </c>
       <c r="G36">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>-1</v>
@@ -12107,16 +12514,28 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>-6</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20200412</v>
+        <v>20200411</v>
       </c>
       <c r="B37">
         <v>-1</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -12128,7 +12547,7 @@
         <v>-2</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -12136,16 +12555,28 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20200417</v>
+        <v>20200412</v>
       </c>
       <c r="B38">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -12157,16 +12588,28 @@
         <v>-2</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>-3</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20200418</v>
       </c>
@@ -12193,6 +12636,18 @@
       </c>
       <c r="I39">
         <v>0</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-3</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="incubation_lag" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,14 @@
     <sheet name="distance_sensitivity" sheetId="8" r:id="rId8"/>
     <sheet name="shift" sheetId="9" r:id="rId9"/>
     <sheet name="countries_peak_shift" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="countries_peak_shift_2" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
+    <sheet name="daily_average_procrustes_distan" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">correlation_of_floor_value!$A$1:$H$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hourly_first_day!$H$1:$M$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet2!$A$1:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet2!$A$1:$D$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$1048569</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$114</definedName>
   </definedNames>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="399">
   <si>
     <t># transit systems with positive response from divergent point</t>
   </si>
@@ -1213,15 +1215,49 @@
   <si>
     <t>AU_afternoon_shift</t>
   </si>
+  <si>
+    <t>Procrustes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Kingdom </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Zealand </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1247,12 +1283,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4363,6 +4401,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5332,6 +5371,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11136,8 +11176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12656,6 +12696,3034 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20200316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>20200316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>20200316</v>
+      </c>
+      <c r="J2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K2">
+        <v>-2</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>20200316</v>
+      </c>
+      <c r="N2" t="s">
+        <v>396</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>20200316</v>
+      </c>
+      <c r="R2" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>20200316</v>
+      </c>
+      <c r="V2" t="s">
+        <v>398</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20200317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20200317</v>
+      </c>
+      <c r="F3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>20200317</v>
+      </c>
+      <c r="J3" t="s">
+        <v>395</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>20200317</v>
+      </c>
+      <c r="N3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>20200317</v>
+      </c>
+      <c r="R3" t="s">
+        <v>397</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>20200317</v>
+      </c>
+      <c r="V3" t="s">
+        <v>398</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20200318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>20200318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>20200318</v>
+      </c>
+      <c r="J4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-3</v>
+      </c>
+      <c r="M4">
+        <v>20200318</v>
+      </c>
+      <c r="N4" t="s">
+        <v>396</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>20200318</v>
+      </c>
+      <c r="R4" t="s">
+        <v>397</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>20200318</v>
+      </c>
+      <c r="V4" t="s">
+        <v>398</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20200319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>20200319</v>
+      </c>
+      <c r="F5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>20200319</v>
+      </c>
+      <c r="J5" t="s">
+        <v>395</v>
+      </c>
+      <c r="K5">
+        <v>-2</v>
+      </c>
+      <c r="L5">
+        <v>-5</v>
+      </c>
+      <c r="M5">
+        <v>20200319</v>
+      </c>
+      <c r="N5" t="s">
+        <v>396</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>20200319</v>
+      </c>
+      <c r="R5" t="s">
+        <v>397</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>20200319</v>
+      </c>
+      <c r="V5" t="s">
+        <v>398</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20200320</v>
+      </c>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>20200320</v>
+      </c>
+      <c r="F6" t="s">
+        <v>394</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>20200320</v>
+      </c>
+      <c r="J6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K6">
+        <v>-2</v>
+      </c>
+      <c r="L6">
+        <v>-3</v>
+      </c>
+      <c r="M6">
+        <v>20200320</v>
+      </c>
+      <c r="N6" t="s">
+        <v>396</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>20200320</v>
+      </c>
+      <c r="R6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>20200320</v>
+      </c>
+      <c r="V6" t="s">
+        <v>398</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20200323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>20200323</v>
+      </c>
+      <c r="F7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>20200323</v>
+      </c>
+      <c r="J7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K7">
+        <v>-2</v>
+      </c>
+      <c r="L7">
+        <v>-3</v>
+      </c>
+      <c r="M7">
+        <v>20200323</v>
+      </c>
+      <c r="N7" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>20200323</v>
+      </c>
+      <c r="R7" t="s">
+        <v>397</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>20200323</v>
+      </c>
+      <c r="V7" t="s">
+        <v>398</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20200324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-5</v>
+      </c>
+      <c r="E8">
+        <v>20200324</v>
+      </c>
+      <c r="F8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>20200324</v>
+      </c>
+      <c r="J8" t="s">
+        <v>395</v>
+      </c>
+      <c r="K8">
+        <v>-2</v>
+      </c>
+      <c r="L8">
+        <v>-3</v>
+      </c>
+      <c r="M8">
+        <v>20200324</v>
+      </c>
+      <c r="N8" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>20200324</v>
+      </c>
+      <c r="R8" t="s">
+        <v>397</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>20200324</v>
+      </c>
+      <c r="V8" t="s">
+        <v>398</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20200325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>20200325</v>
+      </c>
+      <c r="F9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>20200325</v>
+      </c>
+      <c r="J9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K9">
+        <v>-2</v>
+      </c>
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9">
+        <v>20200325</v>
+      </c>
+      <c r="N9" t="s">
+        <v>396</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>20200325</v>
+      </c>
+      <c r="R9" t="s">
+        <v>397</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-3</v>
+      </c>
+      <c r="U9">
+        <v>20200325</v>
+      </c>
+      <c r="V9" t="s">
+        <v>398</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20200326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>20200326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20200326</v>
+      </c>
+      <c r="J10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10">
+        <v>-2</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>20200326</v>
+      </c>
+      <c r="N10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>20200326</v>
+      </c>
+      <c r="R10" t="s">
+        <v>397</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>20200326</v>
+      </c>
+      <c r="V10" t="s">
+        <v>398</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20200327</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>20200327</v>
+      </c>
+      <c r="F11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>20200327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K11">
+        <v>-2</v>
+      </c>
+      <c r="L11">
+        <v>-2</v>
+      </c>
+      <c r="M11">
+        <v>20200327</v>
+      </c>
+      <c r="N11" t="s">
+        <v>396</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11">
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <v>20200327</v>
+      </c>
+      <c r="R11" t="s">
+        <v>397</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>20200327</v>
+      </c>
+      <c r="V11" t="s">
+        <v>398</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20200330</v>
+      </c>
+      <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>20200330</v>
+      </c>
+      <c r="F12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>20200330</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12">
+        <v>-2</v>
+      </c>
+      <c r="L12">
+        <v>-3</v>
+      </c>
+      <c r="M12">
+        <v>20200330</v>
+      </c>
+      <c r="N12" t="s">
+        <v>396</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>20200330</v>
+      </c>
+      <c r="R12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>20200330</v>
+      </c>
+      <c r="V12" t="s">
+        <v>398</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20200331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>20200331</v>
+      </c>
+      <c r="F13" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>20200331</v>
+      </c>
+      <c r="J13" t="s">
+        <v>395</v>
+      </c>
+      <c r="K13">
+        <v>-2</v>
+      </c>
+      <c r="L13">
+        <v>-3</v>
+      </c>
+      <c r="M13">
+        <v>20200331</v>
+      </c>
+      <c r="N13" t="s">
+        <v>396</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>20200331</v>
+      </c>
+      <c r="R13" t="s">
+        <v>397</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>20200331</v>
+      </c>
+      <c r="V13" t="s">
+        <v>398</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20200401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>20200401</v>
+      </c>
+      <c r="F14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>20200401</v>
+      </c>
+      <c r="J14" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14">
+        <v>-2</v>
+      </c>
+      <c r="L14">
+        <v>-2</v>
+      </c>
+      <c r="M14">
+        <v>20200401</v>
+      </c>
+      <c r="N14" t="s">
+        <v>396</v>
+      </c>
+      <c r="O14">
+        <v>-2</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>20200401</v>
+      </c>
+      <c r="R14" t="s">
+        <v>397</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14">
+        <v>-2</v>
+      </c>
+      <c r="U14">
+        <v>20200401</v>
+      </c>
+      <c r="V14" t="s">
+        <v>398</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20200402</v>
+      </c>
+      <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>20200402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>394</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>20200402</v>
+      </c>
+      <c r="J15" t="s">
+        <v>395</v>
+      </c>
+      <c r="K15">
+        <v>-2</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>20200402</v>
+      </c>
+      <c r="N15" t="s">
+        <v>396</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>20200402</v>
+      </c>
+      <c r="R15" t="s">
+        <v>397</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>20200402</v>
+      </c>
+      <c r="V15" t="s">
+        <v>398</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20200403</v>
+      </c>
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-3</v>
+      </c>
+      <c r="E16">
+        <v>20200403</v>
+      </c>
+      <c r="F16" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>20200403</v>
+      </c>
+      <c r="J16" t="s">
+        <v>395</v>
+      </c>
+      <c r="K16">
+        <v>-2</v>
+      </c>
+      <c r="L16">
+        <v>-2</v>
+      </c>
+      <c r="M16">
+        <v>20200403</v>
+      </c>
+      <c r="N16" t="s">
+        <v>396</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+      <c r="P16">
+        <v>-1</v>
+      </c>
+      <c r="Q16">
+        <v>20200403</v>
+      </c>
+      <c r="R16" t="s">
+        <v>397</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <v>20200403</v>
+      </c>
+      <c r="V16" t="s">
+        <v>398</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20200406</v>
+      </c>
+      <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17">
+        <v>-4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>20200406</v>
+      </c>
+      <c r="F17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>20200406</v>
+      </c>
+      <c r="J17" t="s">
+        <v>395</v>
+      </c>
+      <c r="K17">
+        <v>-2</v>
+      </c>
+      <c r="L17">
+        <v>-4</v>
+      </c>
+      <c r="M17">
+        <v>20200406</v>
+      </c>
+      <c r="N17" t="s">
+        <v>396</v>
+      </c>
+      <c r="O17">
+        <v>-2</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>20200406</v>
+      </c>
+      <c r="R17" t="s">
+        <v>397</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>20200406</v>
+      </c>
+      <c r="V17" t="s">
+        <v>398</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20200407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18">
+        <v>-5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>20200407</v>
+      </c>
+      <c r="F18" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>20200407</v>
+      </c>
+      <c r="J18" t="s">
+        <v>395</v>
+      </c>
+      <c r="K18">
+        <v>-2</v>
+      </c>
+      <c r="L18">
+        <v>-2</v>
+      </c>
+      <c r="M18">
+        <v>20200407</v>
+      </c>
+      <c r="N18" t="s">
+        <v>396</v>
+      </c>
+      <c r="O18">
+        <v>-2</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>20200407</v>
+      </c>
+      <c r="R18" t="s">
+        <v>397</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>20200407</v>
+      </c>
+      <c r="V18" t="s">
+        <v>398</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20200408</v>
+      </c>
+      <c r="B19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19">
+        <v>-4</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>20200408</v>
+      </c>
+      <c r="F19" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <v>20200408</v>
+      </c>
+      <c r="J19" t="s">
+        <v>395</v>
+      </c>
+      <c r="K19">
+        <v>-2</v>
+      </c>
+      <c r="L19">
+        <v>-2</v>
+      </c>
+      <c r="M19">
+        <v>20200408</v>
+      </c>
+      <c r="N19" t="s">
+        <v>396</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>20200408</v>
+      </c>
+      <c r="R19" t="s">
+        <v>397</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>20200408</v>
+      </c>
+      <c r="V19" t="s">
+        <v>398</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20200409</v>
+      </c>
+      <c r="B20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>20200409</v>
+      </c>
+      <c r="F20" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>20200409</v>
+      </c>
+      <c r="J20" t="s">
+        <v>395</v>
+      </c>
+      <c r="K20">
+        <v>-2</v>
+      </c>
+      <c r="L20">
+        <v>-2</v>
+      </c>
+      <c r="M20">
+        <v>20200409</v>
+      </c>
+      <c r="N20" t="s">
+        <v>396</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>20200409</v>
+      </c>
+      <c r="R20" t="s">
+        <v>397</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <v>20200409</v>
+      </c>
+      <c r="V20" t="s">
+        <v>398</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20200410</v>
+      </c>
+      <c r="B21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>20200410</v>
+      </c>
+      <c r="F21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>20200410</v>
+      </c>
+      <c r="J21" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21">
+        <v>-2</v>
+      </c>
+      <c r="L21">
+        <v>-3</v>
+      </c>
+      <c r="M21">
+        <v>20200410</v>
+      </c>
+      <c r="N21" t="s">
+        <v>396</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>20200410</v>
+      </c>
+      <c r="R21" t="s">
+        <v>397</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>20200410</v>
+      </c>
+      <c r="V21" t="s">
+        <v>398</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20200413</v>
+      </c>
+      <c r="B22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>20200413</v>
+      </c>
+      <c r="F22" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <v>20200413</v>
+      </c>
+      <c r="J22" t="s">
+        <v>395</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>-3</v>
+      </c>
+      <c r="M22">
+        <v>20200413</v>
+      </c>
+      <c r="N22" t="s">
+        <v>396</v>
+      </c>
+      <c r="O22">
+        <v>-2</v>
+      </c>
+      <c r="P22">
+        <v>-1</v>
+      </c>
+      <c r="Q22">
+        <v>20200413</v>
+      </c>
+      <c r="R22" t="s">
+        <v>397</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>-4</v>
+      </c>
+      <c r="U22">
+        <v>20200413</v>
+      </c>
+      <c r="V22" t="s">
+        <v>398</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20200414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>20200414</v>
+      </c>
+      <c r="F23" t="s">
+        <v>394</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <v>20200414</v>
+      </c>
+      <c r="J23" t="s">
+        <v>395</v>
+      </c>
+      <c r="K23">
+        <v>-2</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23">
+        <v>20200414</v>
+      </c>
+      <c r="N23" t="s">
+        <v>396</v>
+      </c>
+      <c r="O23">
+        <v>-2</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>20200414</v>
+      </c>
+      <c r="R23" t="s">
+        <v>397</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>-4</v>
+      </c>
+      <c r="U23">
+        <v>20200414</v>
+      </c>
+      <c r="V23" t="s">
+        <v>398</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20200415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24">
+        <v>-2</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>20200415</v>
+      </c>
+      <c r="F24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-2</v>
+      </c>
+      <c r="I24">
+        <v>20200415</v>
+      </c>
+      <c r="J24" t="s">
+        <v>395</v>
+      </c>
+      <c r="K24">
+        <v>-2</v>
+      </c>
+      <c r="L24">
+        <v>-2</v>
+      </c>
+      <c r="M24">
+        <v>20200415</v>
+      </c>
+      <c r="N24" t="s">
+        <v>396</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>20200415</v>
+      </c>
+      <c r="R24" t="s">
+        <v>397</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>-2</v>
+      </c>
+      <c r="U24">
+        <v>20200415</v>
+      </c>
+      <c r="V24" t="s">
+        <v>398</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20200416</v>
+      </c>
+      <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25">
+        <v>-2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>20200416</v>
+      </c>
+      <c r="F25" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <v>20200416</v>
+      </c>
+      <c r="J25" t="s">
+        <v>395</v>
+      </c>
+      <c r="K25">
+        <v>-2</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>20200416</v>
+      </c>
+      <c r="N25" t="s">
+        <v>396</v>
+      </c>
+      <c r="O25">
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <v>-1</v>
+      </c>
+      <c r="Q25">
+        <v>20200416</v>
+      </c>
+      <c r="R25" t="s">
+        <v>397</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>-3</v>
+      </c>
+      <c r="U25">
+        <v>20200416</v>
+      </c>
+      <c r="V25" t="s">
+        <v>398</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20200417</v>
+      </c>
+      <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26">
+        <v>-5</v>
+      </c>
+      <c r="D26">
+        <v>-2</v>
+      </c>
+      <c r="E26">
+        <v>20200417</v>
+      </c>
+      <c r="F26" t="s">
+        <v>394</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>20200417</v>
+      </c>
+      <c r="J26" t="s">
+        <v>395</v>
+      </c>
+      <c r="K26">
+        <v>-2</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+      <c r="M26">
+        <v>20200417</v>
+      </c>
+      <c r="N26" t="s">
+        <v>396</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+      <c r="P26">
+        <v>-1</v>
+      </c>
+      <c r="Q26">
+        <v>20200417</v>
+      </c>
+      <c r="R26" t="s">
+        <v>397</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>20200417</v>
+      </c>
+      <c r="V26" t="s">
+        <v>398</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20200420</v>
+      </c>
+      <c r="B27" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27">
+        <v>-5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>20200420</v>
+      </c>
+      <c r="F27" t="s">
+        <v>394</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>20200420</v>
+      </c>
+      <c r="J27" t="s">
+        <v>395</v>
+      </c>
+      <c r="K27">
+        <v>-2</v>
+      </c>
+      <c r="L27">
+        <v>-2</v>
+      </c>
+      <c r="M27">
+        <v>20200420</v>
+      </c>
+      <c r="N27" t="s">
+        <v>396</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+      <c r="P27">
+        <v>-1</v>
+      </c>
+      <c r="Q27">
+        <v>20200420</v>
+      </c>
+      <c r="R27" t="s">
+        <v>397</v>
+      </c>
+      <c r="S27">
+        <v>-1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>20200420</v>
+      </c>
+      <c r="V27" t="s">
+        <v>398</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20200421</v>
+      </c>
+      <c r="B28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-5</v>
+      </c>
+      <c r="E28">
+        <v>20200421</v>
+      </c>
+      <c r="F28" t="s">
+        <v>394</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>20200421</v>
+      </c>
+      <c r="J28" t="s">
+        <v>395</v>
+      </c>
+      <c r="K28">
+        <v>-2</v>
+      </c>
+      <c r="L28">
+        <v>-2</v>
+      </c>
+      <c r="M28">
+        <v>20200421</v>
+      </c>
+      <c r="N28" t="s">
+        <v>396</v>
+      </c>
+      <c r="O28">
+        <v>-2</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>20200421</v>
+      </c>
+      <c r="R28" t="s">
+        <v>397</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>-1</v>
+      </c>
+      <c r="U28">
+        <v>20200421</v>
+      </c>
+      <c r="V28" t="s">
+        <v>398</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20200422</v>
+      </c>
+      <c r="B29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>20200422</v>
+      </c>
+      <c r="F29" t="s">
+        <v>394</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>-2</v>
+      </c>
+      <c r="I29">
+        <v>20200422</v>
+      </c>
+      <c r="J29" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29">
+        <v>-2</v>
+      </c>
+      <c r="L29">
+        <v>-1</v>
+      </c>
+      <c r="M29">
+        <v>20200422</v>
+      </c>
+      <c r="N29" t="s">
+        <v>396</v>
+      </c>
+      <c r="O29">
+        <v>-1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>20200422</v>
+      </c>
+      <c r="R29" t="s">
+        <v>397</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>-1</v>
+      </c>
+      <c r="U29">
+        <v>20200422</v>
+      </c>
+      <c r="V29" t="s">
+        <v>398</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20200423</v>
+      </c>
+      <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>20200423</v>
+      </c>
+      <c r="F30" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>20200423</v>
+      </c>
+      <c r="J30" t="s">
+        <v>395</v>
+      </c>
+      <c r="K30">
+        <v>-2</v>
+      </c>
+      <c r="L30">
+        <v>-2</v>
+      </c>
+      <c r="M30">
+        <v>20200423</v>
+      </c>
+      <c r="N30" t="s">
+        <v>396</v>
+      </c>
+      <c r="O30">
+        <v>-1</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+      <c r="Q30">
+        <v>20200423</v>
+      </c>
+      <c r="R30" t="s">
+        <v>397</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>20200423</v>
+      </c>
+      <c r="V30" t="s">
+        <v>398</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20200424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>20200424</v>
+      </c>
+      <c r="F31" t="s">
+        <v>394</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>20200424</v>
+      </c>
+      <c r="J31" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31">
+        <v>-2</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31">
+        <v>20200424</v>
+      </c>
+      <c r="N31" t="s">
+        <v>396</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="Q31">
+        <v>20200424</v>
+      </c>
+      <c r="R31" t="s">
+        <v>397</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>20200424</v>
+      </c>
+      <c r="V31" t="s">
+        <v>398</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20200427</v>
+      </c>
+      <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
+        <v>20200427</v>
+      </c>
+      <c r="F32" t="s">
+        <v>394</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>20200427</v>
+      </c>
+      <c r="J32" t="s">
+        <v>395</v>
+      </c>
+      <c r="K32">
+        <v>-2</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32">
+        <v>20200427</v>
+      </c>
+      <c r="N32" t="s">
+        <v>396</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+      <c r="P32">
+        <v>-1</v>
+      </c>
+      <c r="Q32">
+        <v>20200427</v>
+      </c>
+      <c r="R32" t="s">
+        <v>397</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>20200427</v>
+      </c>
+      <c r="V32" t="s">
+        <v>398</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20200428</v>
+      </c>
+      <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>20200428</v>
+      </c>
+      <c r="F33" t="s">
+        <v>394</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>20200428</v>
+      </c>
+      <c r="J33" t="s">
+        <v>395</v>
+      </c>
+      <c r="K33">
+        <v>-2</v>
+      </c>
+      <c r="L33">
+        <v>-1</v>
+      </c>
+      <c r="M33">
+        <v>20200428</v>
+      </c>
+      <c r="N33" t="s">
+        <v>396</v>
+      </c>
+      <c r="O33">
+        <v>-2</v>
+      </c>
+      <c r="P33">
+        <v>-1</v>
+      </c>
+      <c r="Q33">
+        <v>20200428</v>
+      </c>
+      <c r="R33" t="s">
+        <v>397</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>-1</v>
+      </c>
+      <c r="U33">
+        <v>20200428</v>
+      </c>
+      <c r="V33" t="s">
+        <v>398</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20200429</v>
+      </c>
+      <c r="B34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>20200429</v>
+      </c>
+      <c r="F34" t="s">
+        <v>394</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>20200429</v>
+      </c>
+      <c r="J34" t="s">
+        <v>395</v>
+      </c>
+      <c r="K34">
+        <v>-2</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>20200429</v>
+      </c>
+      <c r="N34" t="s">
+        <v>396</v>
+      </c>
+      <c r="O34">
+        <v>-2</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>20200429</v>
+      </c>
+      <c r="R34" t="s">
+        <v>397</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>20200429</v>
+      </c>
+      <c r="V34" t="s">
+        <v>398</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20200430</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35">
+        <v>-2</v>
+      </c>
+      <c r="D35">
+        <v>-3</v>
+      </c>
+      <c r="E35">
+        <v>20200430</v>
+      </c>
+      <c r="F35" t="s">
+        <v>394</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>20200430</v>
+      </c>
+      <c r="J35" t="s">
+        <v>395</v>
+      </c>
+      <c r="K35">
+        <v>-2</v>
+      </c>
+      <c r="L35">
+        <v>-2</v>
+      </c>
+      <c r="M35">
+        <v>20200430</v>
+      </c>
+      <c r="N35" t="s">
+        <v>396</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>20200430</v>
+      </c>
+      <c r="R35" t="s">
+        <v>397</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+      <c r="U35">
+        <v>20200430</v>
+      </c>
+      <c r="V35" t="s">
+        <v>398</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20200501</v>
+      </c>
+      <c r="B36" t="s">
+        <v>393</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>20200501</v>
+      </c>
+      <c r="F36" t="s">
+        <v>394</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>20200501</v>
+      </c>
+      <c r="J36" t="s">
+        <v>395</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>20200501</v>
+      </c>
+      <c r="N36" t="s">
+        <v>396</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36">
+        <v>-1</v>
+      </c>
+      <c r="Q36">
+        <v>20200501</v>
+      </c>
+      <c r="R36" t="s">
+        <v>397</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>20200501</v>
+      </c>
+      <c r="V36" t="s">
+        <v>398</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20200504</v>
+      </c>
+      <c r="B37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>20200504</v>
+      </c>
+      <c r="F37" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>20200504</v>
+      </c>
+      <c r="J37" t="s">
+        <v>395</v>
+      </c>
+      <c r="K37">
+        <v>-2</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>20200504</v>
+      </c>
+      <c r="N37" t="s">
+        <v>396</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>20200504</v>
+      </c>
+      <c r="R37" t="s">
+        <v>397</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>20200504</v>
+      </c>
+      <c r="V37" t="s">
+        <v>398</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20200505</v>
+      </c>
+      <c r="B38" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>20200505</v>
+      </c>
+      <c r="F38" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>20200505</v>
+      </c>
+      <c r="J38" t="s">
+        <v>395</v>
+      </c>
+      <c r="K38">
+        <v>-2</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>20200505</v>
+      </c>
+      <c r="N38" t="s">
+        <v>396</v>
+      </c>
+      <c r="O38">
+        <v>-2</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>20200505</v>
+      </c>
+      <c r="R38" t="s">
+        <v>397</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>-2</v>
+      </c>
+      <c r="U38">
+        <v>20200505</v>
+      </c>
+      <c r="V38" t="s">
+        <v>398</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20200506</v>
+      </c>
+      <c r="B39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>20200506</v>
+      </c>
+      <c r="F39" t="s">
+        <v>394</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>20200506</v>
+      </c>
+      <c r="J39" t="s">
+        <v>395</v>
+      </c>
+      <c r="K39">
+        <v>-2</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>20200506</v>
+      </c>
+      <c r="N39" t="s">
+        <v>396</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>20200506</v>
+      </c>
+      <c r="R39" t="s">
+        <v>397</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+      <c r="U39">
+        <v>20200506</v>
+      </c>
+      <c r="V39" t="s">
+        <v>398</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20200507</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>20200507</v>
+      </c>
+      <c r="F40" t="s">
+        <v>394</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>20200507</v>
+      </c>
+      <c r="J40" t="s">
+        <v>395</v>
+      </c>
+      <c r="K40">
+        <v>-2</v>
+      </c>
+      <c r="L40">
+        <v>-1</v>
+      </c>
+      <c r="M40">
+        <v>20200507</v>
+      </c>
+      <c r="N40" t="s">
+        <v>396</v>
+      </c>
+      <c r="O40">
+        <v>-1</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>20200507</v>
+      </c>
+      <c r="R40" t="s">
+        <v>397</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>20200507</v>
+      </c>
+      <c r="V40" t="s">
+        <v>398</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20200508</v>
+      </c>
+      <c r="B41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>20200508</v>
+      </c>
+      <c r="F41" t="s">
+        <v>394</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>20200508</v>
+      </c>
+      <c r="J41" t="s">
+        <v>395</v>
+      </c>
+      <c r="K41">
+        <v>-2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>20200508</v>
+      </c>
+      <c r="N41" t="s">
+        <v>396</v>
+      </c>
+      <c r="O41">
+        <v>-1</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>20200508</v>
+      </c>
+      <c r="R41" t="s">
+        <v>397</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>20200508</v>
+      </c>
+      <c r="V41" t="s">
+        <v>398</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>AVERAGE(C2:C41)</f>
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(D2:D41)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G42">
+        <f>AVERAGE(G2:G41)</f>
+        <v>-0.05</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(H2:H41)</f>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="K42">
+        <f>AVERAGE(K2:K41)</f>
+        <v>-1.8</v>
+      </c>
+      <c r="L42">
+        <f>AVERAGE(L2:L41)</f>
+        <v>-1.7749999999999999</v>
+      </c>
+      <c r="O42">
+        <f>AVERAGE(O2:O41)</f>
+        <v>-1.2</v>
+      </c>
+      <c r="P42">
+        <f>AVERAGE(P2:P41)</f>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(S2:S41)</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="T42">
+        <f>AVERAGE(T2:T41)</f>
+        <v>-0.3</v>
+      </c>
+      <c r="W42">
+        <f>AVERAGE(W2:W41)</f>
+        <v>0.9</v>
+      </c>
+      <c r="X42">
+        <f>AVERAGE(X2:X41)</f>
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D114"/>
   <sheetViews>
@@ -14266,6 +17334,866 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE5"/>
+  <sheetViews>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AR7" sqref="AR7:AS7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>43906</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43907</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43908</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43909</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43910</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43913</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43914</v>
+      </c>
+      <c r="K1" s="2">
+        <v>43915</v>
+      </c>
+      <c r="L1" s="2">
+        <v>43916</v>
+      </c>
+      <c r="M1" s="2">
+        <v>43917</v>
+      </c>
+      <c r="N1" s="2">
+        <v>43918</v>
+      </c>
+      <c r="O1" s="2">
+        <v>43919</v>
+      </c>
+      <c r="P1" s="2">
+        <v>43920</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43921</v>
+      </c>
+      <c r="R1" s="2">
+        <v>43922</v>
+      </c>
+      <c r="S1" s="2">
+        <v>43923</v>
+      </c>
+      <c r="T1" s="2">
+        <v>43924</v>
+      </c>
+      <c r="U1" s="2">
+        <v>43925</v>
+      </c>
+      <c r="V1" s="2">
+        <v>43926</v>
+      </c>
+      <c r="W1" s="2">
+        <v>43927</v>
+      </c>
+      <c r="X1" s="2">
+        <v>43928</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>43929</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>43930</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>43931</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>43932</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>43933</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>43934</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>43935</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>43936</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>43937</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>43938</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>43939</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>43940</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>43941</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>43942</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>43943</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>43944</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>43945</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>43946</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>43947</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>43948</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>43949</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>43950</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>43951</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>43952</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>43953</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>43954</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>43955</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>43956</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>43957</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>43958</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>43959</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>43960</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2">
+        <v>0.51877714199672098</v>
+      </c>
+      <c r="C2">
+        <v>0.58604294682272196</v>
+      </c>
+      <c r="D2">
+        <v>0.58554710498468399</v>
+      </c>
+      <c r="E2">
+        <v>0.58045837319761895</v>
+      </c>
+      <c r="F2">
+        <v>0.58456302302560204</v>
+      </c>
+      <c r="G2">
+        <v>0.47637227031923102</v>
+      </c>
+      <c r="H2">
+        <v>0.54006811750051698</v>
+      </c>
+      <c r="I2">
+        <v>0.63297628608867096</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.68038189041817099</v>
+      </c>
+      <c r="K2">
+        <v>0.66348030669511204</v>
+      </c>
+      <c r="L2">
+        <v>0.65062437478040103</v>
+      </c>
+      <c r="M2">
+        <v>0.58445668562025999</v>
+      </c>
+      <c r="N2">
+        <v>0.54626366174705299</v>
+      </c>
+      <c r="O2">
+        <v>0.58589800564161798</v>
+      </c>
+      <c r="P2">
+        <v>0.65037441715333799</v>
+      </c>
+      <c r="Q2">
+        <v>0.65990408105230203</v>
+      </c>
+      <c r="R2">
+        <v>0.66128589397651005</v>
+      </c>
+      <c r="S2">
+        <v>0.64411973215234397</v>
+      </c>
+      <c r="T2">
+        <v>0.59769043122729104</v>
+      </c>
+      <c r="U2">
+        <v>0.56735739010837904</v>
+      </c>
+      <c r="V2">
+        <v>0.62888494404891004</v>
+      </c>
+      <c r="W2">
+        <v>0.64762987104729197</v>
+      </c>
+      <c r="X2">
+        <v>0.68589430390542905</v>
+      </c>
+      <c r="Y2">
+        <v>0.65225154709559796</v>
+      </c>
+      <c r="Z2">
+        <v>0.66832842974258</v>
+      </c>
+      <c r="AA2">
+        <v>0.59224016065720697</v>
+      </c>
+      <c r="AB2">
+        <v>0.55357283181626205</v>
+      </c>
+      <c r="AC2">
+        <v>0.62052691777188196</v>
+      </c>
+      <c r="AD2">
+        <v>0.65098126675736701</v>
+      </c>
+      <c r="AE2">
+        <v>0.674377577689667</v>
+      </c>
+      <c r="AF2">
+        <v>0.64901996309179599</v>
+      </c>
+      <c r="AG2">
+        <v>0.64485457634150301</v>
+      </c>
+      <c r="AH2">
+        <v>0.56670344605336898</v>
+      </c>
+      <c r="AI2">
+        <v>0.59488576433607698</v>
+      </c>
+      <c r="AJ2">
+        <v>0.61888775009566599</v>
+      </c>
+      <c r="AK2">
+        <v>0.65008751756527505</v>
+      </c>
+      <c r="AL2">
+        <v>0.67305243542423199</v>
+      </c>
+      <c r="AM2">
+        <v>0.64911715802990499</v>
+      </c>
+      <c r="AN2">
+        <v>0.65135157625742302</v>
+      </c>
+      <c r="AO2">
+        <v>0.58946479302810795</v>
+      </c>
+      <c r="AP2">
+        <v>0.583810481418782</v>
+      </c>
+      <c r="AQ2">
+        <v>0.61909450661125198</v>
+      </c>
+      <c r="AR2">
+        <v>0.62235982388427202</v>
+      </c>
+      <c r="AS2">
+        <v>0.65549077902901498</v>
+      </c>
+      <c r="AT2">
+        <v>0.65479720889242299</v>
+      </c>
+      <c r="AU2">
+        <v>0.64728508990324896</v>
+      </c>
+      <c r="AV2">
+        <v>0.56756639691503696</v>
+      </c>
+      <c r="AW2">
+        <v>0.55943008766925895</v>
+      </c>
+      <c r="AX2">
+        <v>0.59625624654800002</v>
+      </c>
+      <c r="AY2">
+        <v>0.63848690605768199</v>
+      </c>
+      <c r="AZ2">
+        <v>0.63320715250395199</v>
+      </c>
+      <c r="BA2">
+        <v>0.61378534887356995</v>
+      </c>
+      <c r="BB2">
+        <v>0.618943999993817</v>
+      </c>
+      <c r="BC2">
+        <v>0.57598178148840595</v>
+      </c>
+      <c r="BD2">
+        <v>0.56360122539038804</v>
+      </c>
+      <c r="BE2">
+        <v>0.58120891193178503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.147823149014707</v>
+      </c>
+      <c r="C3">
+        <v>0.20182404972118101</v>
+      </c>
+      <c r="D3">
+        <v>0.194842652464641</v>
+      </c>
+      <c r="E3">
+        <v>0.203044778428185</v>
+      </c>
+      <c r="F3">
+        <v>0.16558583973448099</v>
+      </c>
+      <c r="G3">
+        <v>0.17519233386598701</v>
+      </c>
+      <c r="H3">
+        <v>0.193908373957205</v>
+      </c>
+      <c r="I3">
+        <v>0.17939598219300901</v>
+      </c>
+      <c r="J3">
+        <v>0.18897631191939801</v>
+      </c>
+      <c r="K3">
+        <v>0.20979115312107099</v>
+      </c>
+      <c r="L3">
+        <v>0.19585535017962799</v>
+      </c>
+      <c r="M3">
+        <v>0.20178410163991001</v>
+      </c>
+      <c r="N3">
+        <v>0.215192243442933</v>
+      </c>
+      <c r="O3">
+        <v>0.22125099818434199</v>
+      </c>
+      <c r="P3">
+        <v>0.238892371599735</v>
+      </c>
+      <c r="Q3">
+        <v>0.210530536036207</v>
+      </c>
+      <c r="R3">
+        <v>0.20401910421785699</v>
+      </c>
+      <c r="S3">
+        <v>0.203985689855919</v>
+      </c>
+      <c r="T3">
+        <v>0.18760533251761</v>
+      </c>
+      <c r="U3">
+        <v>0.26487237544248798</v>
+      </c>
+      <c r="V3">
+        <v>0.24695816798438699</v>
+      </c>
+      <c r="W3">
+        <v>0.220580083756583</v>
+      </c>
+      <c r="X3">
+        <v>0.22438644042386399</v>
+      </c>
+      <c r="Y3">
+        <v>0.22265719455667299</v>
+      </c>
+      <c r="Z3">
+        <v>0.236620701975185</v>
+      </c>
+      <c r="AA3">
+        <v>0.23326153236043601</v>
+      </c>
+      <c r="AB3">
+        <v>0.26371190954018597</v>
+      </c>
+      <c r="AC3">
+        <v>0.26583073264662499</v>
+      </c>
+      <c r="AD3">
+        <v>0.22252343493849</v>
+      </c>
+      <c r="AE3">
+        <v>0.235670152348573</v>
+      </c>
+      <c r="AF3">
+        <v>0.241529242236345</v>
+      </c>
+      <c r="AG3">
+        <v>0.254634870268451</v>
+      </c>
+      <c r="AH3">
+        <v>0.22088959975366099</v>
+      </c>
+      <c r="AI3">
+        <v>0.28387879970759</v>
+      </c>
+      <c r="AJ3">
+        <v>0.25170337351292998</v>
+      </c>
+      <c r="AK3">
+        <v>0.21251118984971501</v>
+      </c>
+      <c r="AL3">
+        <v>0.23160564810190401</v>
+      </c>
+      <c r="AM3">
+        <v>0.219303718719629</v>
+      </c>
+      <c r="AN3">
+        <v>0.236732055465152</v>
+      </c>
+      <c r="AO3">
+        <v>0.212099138597765</v>
+      </c>
+      <c r="AP3">
+        <v>0.27989394201057999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.239708029005894</v>
+      </c>
+      <c r="AR3">
+        <v>0.249803397147489</v>
+      </c>
+      <c r="AS3">
+        <v>0.23347327636912499</v>
+      </c>
+      <c r="AT3">
+        <v>0.23620149675833499</v>
+      </c>
+      <c r="AU3">
+        <v>0.24018129206043201</v>
+      </c>
+      <c r="AV3">
+        <v>0.205139537453396</v>
+      </c>
+      <c r="AW3">
+        <v>0.271904961702367</v>
+      </c>
+      <c r="AX3">
+        <v>0.25083004238578299</v>
+      </c>
+      <c r="AY3">
+        <v>0.237633832518096</v>
+      </c>
+      <c r="AZ3">
+        <v>0.24329925206890399</v>
+      </c>
+      <c r="BA3">
+        <v>0.19924343572116601</v>
+      </c>
+      <c r="BB3">
+        <v>0.225403722858394</v>
+      </c>
+      <c r="BC3">
+        <v>0.22000767213873601</v>
+      </c>
+      <c r="BD3">
+        <v>0.266832962434498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.08220622818639</v>
+      </c>
+      <c r="C4">
+        <v>2.7117367684263902</v>
+      </c>
+      <c r="D4">
+        <v>3.0480065043932498</v>
+      </c>
+      <c r="E4">
+        <v>3.3281018337746899</v>
+      </c>
+      <c r="F4">
+        <v>3.2512127262058099</v>
+      </c>
+      <c r="G4">
+        <v>2.9829583654107998</v>
+      </c>
+      <c r="H4">
+        <v>2.9709548379175201</v>
+      </c>
+      <c r="I4">
+        <v>3.8098386942319902</v>
+      </c>
+      <c r="J4">
+        <v>4.1833956504850702</v>
+      </c>
+      <c r="K4">
+        <v>4.3214995094142603</v>
+      </c>
+      <c r="L4">
+        <v>4.3055968796570001</v>
+      </c>
+      <c r="M4">
+        <v>4.2326090042750097</v>
+      </c>
+      <c r="N4">
+        <v>3.7198016306528499</v>
+      </c>
+      <c r="O4">
+        <v>3.3891834613601599</v>
+      </c>
+      <c r="P4">
+        <v>4.0897332472813801</v>
+      </c>
+      <c r="Q4">
+        <v>4.4894081613528396</v>
+      </c>
+      <c r="R4">
+        <v>4.6927733896630999</v>
+      </c>
+      <c r="S4">
+        <v>4.8264057043208597</v>
+      </c>
+      <c r="T4">
+        <v>4.6445814413100397</v>
+      </c>
+      <c r="U4">
+        <v>3.9487254296686198</v>
+      </c>
+      <c r="V4">
+        <v>3.9677867802281201</v>
+      </c>
+      <c r="W4">
+        <v>4.8788008871518098</v>
+      </c>
+      <c r="X4">
+        <v>5.1060775141123598</v>
+      </c>
+      <c r="Y4">
+        <v>5.2382435902289597</v>
+      </c>
+      <c r="Z4">
+        <v>5.4458289568428304</v>
+      </c>
+      <c r="AA4">
+        <v>5.20017847304561</v>
+      </c>
+      <c r="AB4">
+        <v>4.4174936500776401</v>
+      </c>
+      <c r="AC4">
+        <v>4.6952994897446496</v>
+      </c>
+      <c r="AD4">
+        <v>5.3948876334519298</v>
+      </c>
+      <c r="AE4">
+        <v>5.5505770008209101</v>
+      </c>
+      <c r="AF4">
+        <v>5.9009764079310303</v>
+      </c>
+      <c r="AG4">
+        <v>5.8329324784449899</v>
+      </c>
+      <c r="AH4">
+        <v>5.5671580520742099</v>
+      </c>
+      <c r="AI4">
+        <v>4.8116750223036604</v>
+      </c>
+      <c r="AJ4">
+        <v>4.5790667019948597</v>
+      </c>
+      <c r="AK4">
+        <v>5.1981725884593502</v>
+      </c>
+      <c r="AL4">
+        <v>5.8145829805467404</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>6.0121168998477801</v>
+      </c>
+      <c r="AN4">
+        <v>5.9300335867198797</v>
+      </c>
+      <c r="AO4">
+        <v>5.8612936344147997</v>
+      </c>
+      <c r="AP4">
+        <v>4.8287623432376598</v>
+      </c>
+      <c r="AQ4">
+        <v>4.86818581792462</v>
+      </c>
+      <c r="AR4">
+        <v>5.8341120273059603</v>
+      </c>
+      <c r="AS4">
+        <v>5.9314730803847304</v>
+      </c>
+      <c r="AT4">
+        <v>5.7447467554326002</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>6.1037650836254098</v>
+      </c>
+      <c r="AV4">
+        <v>5.3310233646314398</v>
+      </c>
+      <c r="AW4">
+        <v>4.5735422132923196</v>
+      </c>
+      <c r="AX4">
+        <v>4.3972287267054897</v>
+      </c>
+      <c r="AY4">
+        <v>5.0425757791356398</v>
+      </c>
+      <c r="AZ4">
+        <v>5.4017567982475203</v>
+      </c>
+      <c r="BA4">
+        <v>5.5715497414625901</v>
+      </c>
+      <c r="BB4">
+        <v>5.2882839058876998</v>
+      </c>
+      <c r="BC4">
+        <v>5.1827396156364101</v>
+      </c>
+      <c r="BD4">
+        <v>4.3645646087449599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.62940291429178097</v>
+      </c>
+      <c r="C5">
+        <v>1.3620930422317299</v>
+      </c>
+      <c r="D5">
+        <v>1.8808588551230201</v>
+      </c>
+      <c r="E5">
+        <v>2.0064016106262299</v>
+      </c>
+      <c r="F5">
+        <v>1.7809616394515899</v>
+      </c>
+      <c r="G5">
+        <v>1.3861208985728499</v>
+      </c>
+      <c r="H5">
+        <v>1.6257045220329001</v>
+      </c>
+      <c r="I5">
+        <v>2.26328970455527</v>
+      </c>
+      <c r="J5">
+        <v>2.9250229144648299</v>
+      </c>
+      <c r="K5">
+        <v>2.8665832366028701</v>
+      </c>
+      <c r="L5">
+        <v>2.89996603377769</v>
+      </c>
+      <c r="M5">
+        <v>3.26102900836195</v>
+      </c>
+      <c r="N5">
+        <v>1.94393927272496</v>
+      </c>
+      <c r="O5">
+        <v>2.0178013580576502</v>
+      </c>
+      <c r="P5">
+        <v>3.01912439163624</v>
+      </c>
+      <c r="Q5">
+        <v>3.53646145407376</v>
+      </c>
+      <c r="R5">
+        <v>4.2983951461524104</v>
+      </c>
+      <c r="S5">
+        <v>4.3192534312196198</v>
+      </c>
+      <c r="T5">
+        <v>4.4119349154516101</v>
+      </c>
+      <c r="U5">
+        <v>2.1286379383664298</v>
+      </c>
+      <c r="V5">
+        <v>3.4003740264297102</v>
+      </c>
+      <c r="W5">
+        <v>3.8444692440944399</v>
+      </c>
+      <c r="X5">
+        <v>3.8176435767132801</v>
+      </c>
+      <c r="Y5">
+        <v>4.80728563425202</v>
+      </c>
+      <c r="Z5">
+        <v>4.1870503804375003</v>
+      </c>
+      <c r="AA5">
+        <v>4.6476316232695796</v>
+      </c>
+      <c r="AB5">
+        <v>3.6750786650477698</v>
+      </c>
+      <c r="AC5">
+        <v>4.5156489103153898</v>
+      </c>
+      <c r="AD5">
+        <v>4.46350460996943</v>
+      </c>
+      <c r="AE5">
+        <v>5.4196700272672702</v>
+      </c>
+      <c r="AF5">
+        <v>6.5131937582413499</v>
+      </c>
+      <c r="AG5">
+        <v>5.6325601159289302</v>
+      </c>
+      <c r="AH5">
+        <v>6.0300403469420596</v>
+      </c>
+      <c r="AI5">
+        <v>4.7390089357244003</v>
+      </c>
+      <c r="AJ5">
+        <v>5.5752128870645699</v>
+      </c>
+      <c r="AK5">
+        <v>4.9106831843650802</v>
+      </c>
+      <c r="AL5">
+        <v>6.3715082204107603</v>
+      </c>
+      <c r="AM5">
+        <v>6.3725039980163398</v>
+      </c>
+      <c r="AN5">
+        <v>6.5501946016083101</v>
+      </c>
+      <c r="AO5">
+        <v>6.5526924026751701</v>
+      </c>
+      <c r="AP5">
+        <v>5.1013549472704796</v>
+      </c>
+      <c r="AQ5">
+        <v>6.0755290629185197</v>
+      </c>
+      <c r="AR5">
+        <v>7.4873573976545504</v>
+      </c>
+      <c r="AS5">
+        <v>8.1577196233869405</v>
+      </c>
+      <c r="AT5">
+        <v>5.9949753728455599</v>
+      </c>
+      <c r="AU5">
+        <v>7.2935728375427598</v>
+      </c>
+      <c r="AV5">
+        <v>5.8699563078837897</v>
+      </c>
+      <c r="AW5">
+        <v>5.2403188047221203</v>
+      </c>
+      <c r="AX5">
+        <v>5.52977233706146</v>
+      </c>
+      <c r="AY5">
+        <v>5.2063659592986298</v>
+      </c>
+      <c r="AZ5">
+        <v>5.94681045036518</v>
+      </c>
+      <c r="BA5">
+        <v>6.2628856179282799</v>
+      </c>
+      <c r="BB5">
+        <v>5.2937549565272297</v>
+      </c>
+      <c r="BC5">
+        <v>5.1088916957054797</v>
+      </c>
+      <c r="BD5">
+        <v>4.2175184014033098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/excels/temporal.xlsx
+++ b/doc/excels/temporal.xlsx
@@ -11177,7 +11177,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12697,10 +12697,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X42"/>
+  <dimension ref="A2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15716,6 +15716,32 @@
       <c r="X42">
         <f>AVERAGE(X2:X41)</f>
         <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>D42-C42</f>
+        <v>1.25</v>
+      </c>
+      <c r="G43">
+        <f>H42-G42</f>
+        <v>-0.5</v>
+      </c>
+      <c r="K43">
+        <f>L42-K42</f>
+        <v>2.5000000000000133E-2</v>
+      </c>
+      <c r="O43">
+        <f>P42-O42</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="S43">
+        <f>T42-S42</f>
+        <v>-1.5250000000000001</v>
+      </c>
+      <c r="W43">
+        <f>X42-W42</f>
+        <v>-1.4500000000000002</v>
       </c>
     </row>
   </sheetData>
